--- a/overall/data/Databank.xlsx
+++ b/overall/data/Databank.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC189"/>
+  <dimension ref="A1:AE189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,34 +436,34 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Company</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>#Quarterly Occurence in Data. Older Airplanes naturally igher occurence, because they are there each quarter</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>YOI</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>MTOW Range</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Range</t>
@@ -491,7 +491,7 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 10</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
@@ -572,6 +572,16 @@
       <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Pax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>OEW/Exit Limit</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>OEW/MTOW_2</t>
         </is>
       </c>
     </row>
@@ -582,24 +592,24 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>737-800</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>874</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>1998</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1296</v>
       </c>
       <c r="H2" t="n">
         <v>3685</v>
@@ -673,6 +683,12 @@
       <c r="AC2" t="n">
         <v>163</v>
       </c>
+      <c r="AD2" t="n">
+        <v>217.6984126984127</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.5833274261005175</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -681,24 +697,24 @@
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>737-800</t>
         </is>
       </c>
-      <c r="E3" t="n">
-        <v>874</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>1998</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1296</v>
       </c>
       <c r="H3" t="n">
         <v>3685</v>
@@ -762,6 +778,12 @@
       <c r="AC3" t="n">
         <v>163</v>
       </c>
+      <c r="AD3" t="n">
+        <v>217.6984126984127</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.5833274261005175</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -770,24 +792,24 @@
       <c r="B4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>737-800</t>
         </is>
       </c>
-      <c r="E4" t="n">
-        <v>874</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>1998</v>
-      </c>
-      <c r="G4" t="n">
-        <v>3796</v>
       </c>
       <c r="H4" t="n">
         <v>5444</v>
@@ -851,6 +873,12 @@
       <c r="AC4" t="n">
         <v>163</v>
       </c>
+      <c r="AD4" t="n">
+        <v>217.6984126984127</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.5207239131810416</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -859,24 +887,24 @@
       <c r="B5" t="n">
         <v>3</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>737-800</t>
         </is>
       </c>
-      <c r="E5" t="n">
-        <v>874</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>1998</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3796</v>
       </c>
       <c r="H5" t="n">
         <v>5444</v>
@@ -940,6 +968,12 @@
       <c r="AC5" t="n">
         <v>163</v>
       </c>
+      <c r="AD5" t="n">
+        <v>217.6984126984127</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.5207239131810416</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -948,23 +982,25 @@
       <c r="B6" t="n">
         <v>4</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>A319</t>
         </is>
       </c>
-      <c r="E6" t="n">
-        <v>809</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>1996</v>
       </c>
-      <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
         <v>6940</v>
       </c>
@@ -1031,6 +1067,12 @@
       <c r="AC6" t="n">
         <v>130</v>
       </c>
+      <c r="AD6" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.6274999999999999</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1039,23 +1081,25 @@
       <c r="B7" t="n">
         <v>5</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>A319</t>
         </is>
       </c>
-      <c r="E7" t="n">
-        <v>809</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>1996</v>
       </c>
-      <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
         <v>6940</v>
       </c>
@@ -1122,6 +1166,12 @@
       <c r="AC7" t="n">
         <v>130</v>
       </c>
+      <c r="AD7" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.6274999999999999</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1130,23 +1180,25 @@
       <c r="B8" t="n">
         <v>6</v>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>A319</t>
         </is>
       </c>
-      <c r="E8" t="n">
-        <v>809</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>1996</v>
       </c>
-      <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
         <v>6940</v>
       </c>
@@ -1213,6 +1265,12 @@
       <c r="AC8" t="n">
         <v>130</v>
       </c>
+      <c r="AD8" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.6274999999999999</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1221,23 +1279,25 @@
       <c r="B9" t="n">
         <v>7</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>A319</t>
         </is>
       </c>
-      <c r="E9" t="n">
-        <v>809</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>1996</v>
       </c>
-      <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
         <v>6940</v>
       </c>
@@ -1304,6 +1364,12 @@
       <c r="AC9" t="n">
         <v>130</v>
       </c>
+      <c r="AD9" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.6274999999999999</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1312,23 +1378,25 @@
       <c r="B10" t="n">
         <v>8</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>A319</t>
         </is>
       </c>
-      <c r="E10" t="n">
-        <v>809</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>1996</v>
       </c>
-      <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
         <v>6940</v>
       </c>
@@ -1405,6 +1473,12 @@
       <c r="AC10" t="n">
         <v>130</v>
       </c>
+      <c r="AD10" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.6274999999999999</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1413,23 +1487,25 @@
       <c r="B11" t="n">
         <v>9</v>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>A319</t>
         </is>
       </c>
-      <c r="E11" t="n">
-        <v>809</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>1996</v>
       </c>
-      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
         <v>6940</v>
       </c>
@@ -1496,6 +1572,12 @@
       <c r="AC11" t="n">
         <v>130</v>
       </c>
+      <c r="AD11" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.6274999999999999</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1504,23 +1586,25 @@
       <c r="B12" t="n">
         <v>10</v>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>A319</t>
         </is>
       </c>
-      <c r="E12" t="n">
-        <v>809</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>1996</v>
       </c>
-      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
         <v>6940</v>
       </c>
@@ -1587,6 +1671,12 @@
       <c r="AC12" t="n">
         <v>130</v>
       </c>
+      <c r="AD12" t="n">
+        <v>257.51875</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.5457350993377483</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1595,23 +1685,25 @@
       <c r="B13" t="n">
         <v>11</v>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>A319</t>
         </is>
       </c>
-      <c r="E13" t="n">
-        <v>809</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>1996</v>
       </c>
-      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
         <v>6940</v>
       </c>
@@ -1678,6 +1770,12 @@
       <c r="AC13" t="n">
         <v>130</v>
       </c>
+      <c r="AD13" t="n">
+        <v>257.51875</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.5457350993377483</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1686,23 +1784,25 @@
       <c r="B14" t="n">
         <v>12</v>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="n">
+        <v>12</v>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>A319</t>
         </is>
       </c>
-      <c r="E14" t="n">
-        <v>809</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>1996</v>
       </c>
-      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
         <v>6940</v>
       </c>
@@ -1769,6 +1869,12 @@
       <c r="AC14" t="n">
         <v>130</v>
       </c>
+      <c r="AD14" t="n">
+        <v>257.51875</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.5457350993377483</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1777,23 +1883,25 @@
       <c r="B15" t="n">
         <v>13</v>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="n">
+        <v>13</v>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>A319</t>
         </is>
       </c>
-      <c r="E15" t="n">
-        <v>809</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>1996</v>
       </c>
-      <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
         <v>6940</v>
       </c>
@@ -1860,6 +1968,12 @@
       <c r="AC15" t="n">
         <v>130</v>
       </c>
+      <c r="AD15" t="n">
+        <v>257.51875</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.5457350993377483</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1868,23 +1982,25 @@
       <c r="B16" t="n">
         <v>14</v>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="n">
+        <v>14</v>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>A319</t>
         </is>
       </c>
-      <c r="E16" t="n">
-        <v>809</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>1996</v>
       </c>
-      <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
         <v>6940</v>
       </c>
@@ -1951,6 +2067,12 @@
       <c r="AC16" t="n">
         <v>130</v>
       </c>
+      <c r="AD16" t="n">
+        <v>257.51875</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.5457350993377483</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1959,23 +2081,25 @@
       <c r="B17" t="n">
         <v>15</v>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>A319</t>
         </is>
       </c>
-      <c r="E17" t="n">
-        <v>809</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>1996</v>
       </c>
-      <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
         <v>6940</v>
       </c>
@@ -2042,6 +2166,12 @@
       <c r="AC17" t="n">
         <v>130</v>
       </c>
+      <c r="AD17" t="n">
+        <v>257.51875</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.5457350993377483</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -2050,24 +2180,24 @@
       <c r="B18" t="n">
         <v>16</v>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="n">
+        <v>16</v>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Boeing</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>737-700/700LR/Max 7</t>
         </is>
       </c>
-      <c r="E18" t="n">
-        <v>585</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>1997</v>
-      </c>
-      <c r="G18" t="n">
-        <v>4047</v>
       </c>
       <c r="H18" t="n">
         <v>2852</v>
@@ -2145,6 +2275,12 @@
       <c r="AC18" t="n">
         <v>128</v>
       </c>
+      <c r="AD18" t="n">
+        <v>256.0201342281879</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0.6323056522459805</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -2153,24 +2289,24 @@
       <c r="B19" t="n">
         <v>17</v>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="n">
+        <v>17</v>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Boeing</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>737-700/700LR/Max 7</t>
         </is>
       </c>
-      <c r="E19" t="n">
-        <v>585</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>1997</v>
-      </c>
-      <c r="G19" t="n">
-        <v>4047</v>
       </c>
       <c r="H19" t="n">
         <v>2852</v>
@@ -2238,6 +2374,12 @@
       <c r="AC19" t="n">
         <v>128</v>
       </c>
+      <c r="AD19" t="n">
+        <v>256.0201342281879</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.6323056522459805</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2246,24 +2388,24 @@
       <c r="B20" t="n">
         <v>18</v>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="n">
+        <v>18</v>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Boeing</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>737-700/700LR/Max 7</t>
         </is>
       </c>
-      <c r="E20" t="n">
-        <v>585</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>1997</v>
-      </c>
-      <c r="G20" t="n">
-        <v>5371</v>
       </c>
       <c r="H20" t="n">
         <v>6037</v>
@@ -2341,6 +2483,12 @@
       <c r="AC20" t="n">
         <v>128</v>
       </c>
+      <c r="AD20" t="n">
+        <v>256.0201342281879</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.5443350456621004</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2349,24 +2497,24 @@
       <c r="B21" t="n">
         <v>19</v>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="n">
+        <v>19</v>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Boeing</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>737-700/700LR/Max 7</t>
         </is>
       </c>
-      <c r="E21" t="n">
-        <v>585</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>1997</v>
-      </c>
-      <c r="G21" t="n">
-        <v>5371</v>
       </c>
       <c r="H21" t="n">
         <v>6037</v>
@@ -2434,6 +2582,12 @@
       <c r="AC21" t="n">
         <v>128</v>
       </c>
+      <c r="AD21" t="n">
+        <v>256.0201342281879</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.5443350456621004</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2442,23 +2596,25 @@
       <c r="B22" t="n">
         <v>20</v>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="n">
+        <v>20</v>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>A330-200</t>
         </is>
       </c>
-      <c r="E22" t="n">
-        <v>535</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>1998</v>
       </c>
-      <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
         <v>12315</v>
       </c>
@@ -2535,6 +2691,12 @@
       <c r="AC22" t="n">
         <v>265</v>
       </c>
+      <c r="AD22" t="n">
+        <v>296.7980295566502</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.5239130434782608</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2543,23 +2705,25 @@
       <c r="B23" t="n">
         <v>21</v>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="n">
+        <v>21</v>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>A330-200</t>
         </is>
       </c>
-      <c r="E23" t="n">
-        <v>535</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>1998</v>
       </c>
-      <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
         <v>12315</v>
       </c>
@@ -2626,6 +2790,12 @@
       <c r="AC23" t="n">
         <v>265</v>
       </c>
+      <c r="AD23" t="n">
+        <v>296.7980295566502</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0.5239130434782608</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2634,23 +2804,25 @@
       <c r="B24" t="n">
         <v>22</v>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="n">
+        <v>22</v>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>A330-200</t>
         </is>
       </c>
-      <c r="E24" t="n">
-        <v>535</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>1998</v>
       </c>
-      <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
         <v>12315</v>
       </c>
@@ -2717,6 +2889,12 @@
       <c r="AC24" t="n">
         <v>265</v>
       </c>
+      <c r="AD24" t="n">
+        <v>296.7980295566502</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0.5239130434782608</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2725,23 +2903,25 @@
       <c r="B25" t="n">
         <v>23</v>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="n">
+        <v>23</v>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>A330-200</t>
         </is>
       </c>
-      <c r="E25" t="n">
-        <v>535</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>1998</v>
       </c>
-      <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
         <v>12315</v>
       </c>
@@ -2808,6 +2988,12 @@
       <c r="AC25" t="n">
         <v>265</v>
       </c>
+      <c r="AD25" t="n">
+        <v>296.7980295566502</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.5239130434782608</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2816,23 +3002,25 @@
       <c r="B26" t="n">
         <v>24</v>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="n">
+        <v>24</v>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>A330-200</t>
         </is>
       </c>
-      <c r="E26" t="n">
-        <v>535</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>1998</v>
       </c>
-      <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
         <v>12315</v>
       </c>
@@ -2899,6 +3087,12 @@
       <c r="AC26" t="n">
         <v>265</v>
       </c>
+      <c r="AD26" t="n">
+        <v>296.7980295566502</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0.5239130434782608</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2907,23 +3101,25 @@
       <c r="B27" t="n">
         <v>25</v>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="n">
+        <v>25</v>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>A330-200</t>
         </is>
       </c>
-      <c r="E27" t="n">
-        <v>535</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>1998</v>
       </c>
-      <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
         <v>12315</v>
       </c>
@@ -2980,6 +3176,12 @@
       <c r="AC27" t="n">
         <v>265</v>
       </c>
+      <c r="AD27" t="n">
+        <v>298.2758620689655</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0.5265217391304348</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2988,23 +3190,25 @@
       <c r="B28" t="n">
         <v>26</v>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="n">
+        <v>26</v>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>A330-200</t>
         </is>
       </c>
-      <c r="E28" t="n">
-        <v>535</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>1998</v>
       </c>
-      <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
         <v>12315</v>
       </c>
@@ -3071,6 +3275,12 @@
       <c r="AC28" t="n">
         <v>265</v>
       </c>
+      <c r="AD28" t="n">
+        <v>297.0443349753695</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0.5243478260869565</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -3079,23 +3289,25 @@
       <c r="B29" t="n">
         <v>27</v>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="n">
+        <v>27</v>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>767-400/ER</t>
         </is>
       </c>
-      <c r="E29" t="n">
-        <v>514</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>2000</v>
       </c>
-      <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
         <v>10454</v>
       </c>
@@ -3162,6 +3374,12 @@
       <c r="AC29" t="n">
         <v>249</v>
       </c>
+      <c r="AD29" t="n">
+        <v>275.0533333333333</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0.5053278788918012</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -3170,23 +3388,25 @@
       <c r="B30" t="n">
         <v>28</v>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="n">
+        <v>28</v>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>767-400/ER</t>
         </is>
       </c>
-      <c r="E30" t="n">
-        <v>514</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>2000</v>
       </c>
-      <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
         <v>8102</v>
       </c>
@@ -3253,6 +3473,12 @@
       <c r="AC30" t="n">
         <v>249</v>
       </c>
+      <c r="AD30" t="n">
+        <v>275.0533333333333</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0.5684956044864552</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -3261,23 +3487,25 @@
       <c r="B31" t="n">
         <v>29</v>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="n">
+        <v>29</v>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>767-400/ER</t>
         </is>
       </c>
-      <c r="E31" t="n">
-        <v>514</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>2000</v>
       </c>
-      <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
         <v>8102</v>
       </c>
@@ -3344,6 +3572,12 @@
       <c r="AC31" t="n">
         <v>249</v>
       </c>
+      <c r="AD31" t="n">
+        <v>275.0533333333333</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0.5684956044864552</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -3352,23 +3586,25 @@
       <c r="B32" t="n">
         <v>30</v>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="n">
+        <v>30</v>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>767-400/ER</t>
         </is>
       </c>
-      <c r="E32" t="n">
-        <v>514</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>2000</v>
       </c>
-      <c r="G32" t="inlineStr"/>
       <c r="H32" t="n">
         <v>10454</v>
       </c>
@@ -3435,6 +3671,12 @@
       <c r="AC32" t="n">
         <v>249</v>
       </c>
+      <c r="AD32" t="n">
+        <v>276.9866666666667</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0.508879798153002</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -3443,23 +3685,25 @@
       <c r="B33" t="n">
         <v>31</v>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="n">
+        <v>31</v>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>767-400/ER</t>
         </is>
       </c>
-      <c r="E33" t="n">
-        <v>514</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>2000</v>
       </c>
-      <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
         <v>10454</v>
       </c>
@@ -3526,6 +3770,12 @@
       <c r="AC33" t="n">
         <v>249</v>
       </c>
+      <c r="AD33" t="n">
+        <v>276.9866666666667</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0.508879798153002</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -3534,23 +3784,25 @@
       <c r="B34" t="n">
         <v>32</v>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="n">
+        <v>32</v>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>A321/Lr</t>
         </is>
       </c>
-      <c r="E34" t="n">
-        <v>431</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>1994</v>
       </c>
-      <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
         <v>3959</v>
       </c>
@@ -3617,6 +3869,12 @@
       <c r="AC34" t="n">
         <v>198</v>
       </c>
+      <c r="AD34" t="n">
+        <v>223.6363636363636</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0.5927710843373494</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -3625,23 +3883,25 @@
       <c r="B35" t="n">
         <v>33</v>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="n">
+        <v>33</v>
+      </c>
+      <c r="E35" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>A321/Lr</t>
         </is>
       </c>
-      <c r="E35" t="n">
-        <v>431</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>1994</v>
       </c>
-      <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
         <v>3959</v>
       </c>
@@ -3718,6 +3978,12 @@
       <c r="AC35" t="n">
         <v>198</v>
       </c>
+      <c r="AD35" t="n">
+        <v>223.6363636363636</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0.5927710843373494</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -3726,23 +3992,25 @@
       <c r="B36" t="n">
         <v>34</v>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="n">
+        <v>34</v>
+      </c>
+      <c r="E36" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>A321/Lr</t>
         </is>
       </c>
-      <c r="E36" t="n">
-        <v>431</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>1994</v>
       </c>
-      <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
         <v>4172</v>
       </c>
@@ -3809,6 +4077,12 @@
       <c r="AC36" t="n">
         <v>198</v>
       </c>
+      <c r="AD36" t="n">
+        <v>223.6363636363636</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0.5927710843373494</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -3817,23 +4091,25 @@
       <c r="B37" t="n">
         <v>35</v>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="n">
+        <v>35</v>
+      </c>
+      <c r="E37" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>A321/Lr</t>
         </is>
       </c>
-      <c r="E37" t="n">
-        <v>431</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>1994</v>
       </c>
-      <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
         <v>4172</v>
       </c>
@@ -3900,6 +4176,12 @@
       <c r="AC37" t="n">
         <v>198</v>
       </c>
+      <c r="AD37" t="n">
+        <v>223.6363636363636</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0.5927710843373494</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -3908,23 +4190,25 @@
       <c r="B38" t="n">
         <v>36</v>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="n">
+        <v>36</v>
+      </c>
+      <c r="E38" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>A321/Lr</t>
         </is>
       </c>
-      <c r="E38" t="n">
-        <v>431</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>1994</v>
       </c>
-      <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
         <v>3959</v>
       </c>
@@ -4001,6 +4285,12 @@
       <c r="AC38" t="n">
         <v>198</v>
       </c>
+      <c r="AD38" t="n">
+        <v>223.6363636363636</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0.5927710843373494</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -4009,23 +4299,25 @@
       <c r="B39" t="n">
         <v>37</v>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="n">
+        <v>37</v>
+      </c>
+      <c r="E39" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>A321/Lr</t>
         </is>
       </c>
-      <c r="E39" t="n">
-        <v>431</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>1994</v>
       </c>
-      <c r="G39" t="inlineStr"/>
       <c r="H39" t="n">
         <v>3959</v>
       </c>
@@ -4092,6 +4384,12 @@
       <c r="AC39" t="n">
         <v>198</v>
       </c>
+      <c r="AD39" t="n">
+        <v>223.6363636363636</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0.5927710843373494</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -4100,23 +4398,25 @@
       <c r="B40" t="n">
         <v>38</v>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="n">
+        <v>38</v>
+      </c>
+      <c r="E40" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>A321/Lr</t>
         </is>
       </c>
-      <c r="E40" t="n">
-        <v>431</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>1994</v>
       </c>
-      <c r="G40" t="inlineStr"/>
       <c r="H40" t="n">
         <v>4167</v>
       </c>
@@ -4183,6 +4483,12 @@
       <c r="AC40" t="n">
         <v>198</v>
       </c>
+      <c r="AD40" t="n">
+        <v>223.6363636363636</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0.5262032085561498</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -4191,23 +4497,25 @@
       <c r="B41" t="n">
         <v>39</v>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="n">
+        <v>39</v>
+      </c>
+      <c r="E41" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>A321/Lr</t>
         </is>
       </c>
-      <c r="E41" t="n">
-        <v>431</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>1994</v>
       </c>
-      <c r="G41" t="inlineStr"/>
       <c r="H41" t="n">
         <v>4167</v>
       </c>
@@ -4274,6 +4582,12 @@
       <c r="AC41" t="n">
         <v>198</v>
       </c>
+      <c r="AD41" t="n">
+        <v>223.6363636363636</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0.5262032085561498</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -4282,23 +4596,25 @@
       <c r="B42" t="n">
         <v>40</v>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="n">
+        <v>40</v>
+      </c>
+      <c r="E42" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>A321/Lr</t>
         </is>
       </c>
-      <c r="E42" t="n">
-        <v>431</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>1994</v>
       </c>
-      <c r="G42" t="inlineStr"/>
       <c r="H42" t="n">
         <v>4415</v>
       </c>
@@ -4375,6 +4691,12 @@
       <c r="AC42" t="n">
         <v>198</v>
       </c>
+      <c r="AD42" t="n">
+        <v>223.6363636363636</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0.5262032085561498</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -4383,23 +4705,25 @@
       <c r="B43" t="n">
         <v>41</v>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="n">
+        <v>41</v>
+      </c>
+      <c r="E43" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>A321/Lr</t>
         </is>
       </c>
-      <c r="E43" t="n">
-        <v>431</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>1994</v>
       </c>
-      <c r="G43" t="inlineStr"/>
       <c r="H43" t="n">
         <v>4415</v>
       </c>
@@ -4466,6 +4790,12 @@
       <c r="AC43" t="n">
         <v>198</v>
       </c>
+      <c r="AD43" t="n">
+        <v>223.6363636363636</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0.5262032085561498</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -4474,23 +4804,25 @@
       <c r="B44" t="n">
         <v>42</v>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="n">
+        <v>42</v>
+      </c>
+      <c r="E44" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>757-300</t>
         </is>
       </c>
-      <c r="E44" t="n">
-        <v>309</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>1999</v>
       </c>
-      <c r="G44" t="inlineStr"/>
       <c r="H44" t="n">
         <v>6295</v>
       </c>
@@ -4561,6 +4893,12 @@
       <c r="AC44" t="n">
         <v>227</v>
       </c>
+      <c r="AD44" t="n">
+        <v>218.5423728813559</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0.5206331260599208</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -4569,23 +4907,25 @@
       <c r="B45" t="n">
         <v>43</v>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="n">
+        <v>43</v>
+      </c>
+      <c r="E45" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>757-300</t>
         </is>
       </c>
-      <c r="E45" t="n">
-        <v>309</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>1999</v>
       </c>
-      <c r="G45" t="inlineStr"/>
       <c r="H45" t="n">
         <v>6295</v>
       </c>
@@ -4666,6 +5006,12 @@
       <c r="AC45" t="n">
         <v>227</v>
       </c>
+      <c r="AD45" t="n">
+        <v>218.5423728813559</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0.5206331260599208</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -4674,23 +5020,25 @@
       <c r="B46" t="n">
         <v>44</v>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="n">
+        <v>44</v>
+      </c>
+      <c r="E46" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>757-300</t>
         </is>
       </c>
-      <c r="E46" t="n">
-        <v>309</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>1999</v>
       </c>
-      <c r="G46" t="inlineStr"/>
       <c r="H46" t="n">
         <v>3890</v>
       </c>
@@ -4771,6 +5119,12 @@
       <c r="AC46" t="n">
         <v>227</v>
       </c>
+      <c r="AD46" t="n">
+        <v>218.5423728813559</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0.5922285504317472</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -4779,23 +5133,25 @@
       <c r="B47" t="n">
         <v>45</v>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="n">
+        <v>45</v>
+      </c>
+      <c r="E47" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>757-300</t>
         </is>
       </c>
-      <c r="E47" t="n">
-        <v>309</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>1999</v>
       </c>
-      <c r="G47" t="inlineStr"/>
       <c r="H47" t="n">
         <v>3890</v>
       </c>
@@ -4876,6 +5232,12 @@
       <c r="AC47" t="n">
         <v>227</v>
       </c>
+      <c r="AD47" t="n">
+        <v>218.5423728813559</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0.5922285504317472</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -4884,23 +5246,25 @@
       <c r="B48" t="n">
         <v>46</v>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="n">
+        <v>46</v>
+      </c>
+      <c r="E48" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>757-300</t>
         </is>
       </c>
-      <c r="E48" t="n">
-        <v>309</v>
-      </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>1999</v>
       </c>
-      <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
         <v>3600</v>
       </c>
@@ -4971,6 +5335,12 @@
       <c r="AC48" t="n">
         <v>227</v>
       </c>
+      <c r="AD48" t="n">
+        <v>218.8474576271186</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>0.5930553003858167</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -4979,23 +5349,25 @@
       <c r="B49" t="n">
         <v>47</v>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="n">
+        <v>47</v>
+      </c>
+      <c r="E49" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>757-300</t>
         </is>
       </c>
-      <c r="E49" t="n">
-        <v>309</v>
-      </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>1999</v>
       </c>
-      <c r="G49" t="inlineStr"/>
       <c r="H49" t="n">
         <v>5910</v>
       </c>
@@ -5066,6 +5438,12 @@
       <c r="AC49" t="n">
         <v>227</v>
       </c>
+      <c r="AD49" t="n">
+        <v>218.8474576271186</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>0.52135992893483</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -5074,24 +5452,24 @@
       <c r="B50" t="n">
         <v>48</v>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="n">
+        <v>48</v>
+      </c>
+      <c r="E50" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>737-900</t>
         </is>
       </c>
-      <c r="E50" t="n">
-        <v>304</v>
-      </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>2001</v>
-      </c>
-      <c r="G50" t="n">
-        <v>3796</v>
       </c>
       <c r="H50" t="n">
         <v>3815</v>
@@ -5159,6 +5537,12 @@
       <c r="AC50" t="n">
         <v>175</v>
       </c>
+      <c r="AD50" t="n">
+        <v>224.8306878306878</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>0.5677846071619455</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -5167,24 +5551,24 @@
       <c r="B51" t="n">
         <v>49</v>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="n">
+        <v>49</v>
+      </c>
+      <c r="E51" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>737-900</t>
         </is>
       </c>
-      <c r="E51" t="n">
-        <v>304</v>
-      </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>2001</v>
-      </c>
-      <c r="G51" t="n">
-        <v>3796</v>
       </c>
       <c r="H51" t="n">
         <v>3815</v>
@@ -5252,6 +5636,12 @@
       <c r="AC51" t="n">
         <v>175</v>
       </c>
+      <c r="AD51" t="n">
+        <v>224.8306878306878</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>0.5677846071619455</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -5260,24 +5650,24 @@
       <c r="B52" t="n">
         <v>50</v>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="n">
+        <v>50</v>
+      </c>
+      <c r="E52" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>737-900</t>
         </is>
       </c>
-      <c r="E52" t="n">
-        <v>304</v>
-      </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>2001</v>
-      </c>
-      <c r="G52" t="n">
-        <v>3796</v>
       </c>
       <c r="H52" t="n">
         <v>5083</v>
@@ -5345,6 +5735,12 @@
       <c r="AC52" t="n">
         <v>175</v>
       </c>
+      <c r="AD52" t="n">
+        <v>224.8306878306878</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>0.5377839650699234</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -5353,24 +5749,24 @@
       <c r="B53" t="n">
         <v>51</v>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="n">
+        <v>51</v>
+      </c>
+      <c r="E53" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>737-900</t>
         </is>
       </c>
-      <c r="E53" t="n">
-        <v>304</v>
-      </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>2001</v>
-      </c>
-      <c r="G53" t="n">
-        <v>3796</v>
       </c>
       <c r="H53" t="n">
         <v>5083</v>
@@ -5438,6 +5834,12 @@
       <c r="AC53" t="n">
         <v>175</v>
       </c>
+      <c r="AD53" t="n">
+        <v>224.8306878306878</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>0.5377839650699234</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -5446,23 +5848,25 @@
       <c r="B54" t="n">
         <v>52</v>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="n">
+        <v>52</v>
+      </c>
+      <c r="E54" t="inlineStr">
         <is>
           <t xml:space="preserve">Canadair </t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>RJ-700</t>
         </is>
       </c>
-      <c r="E54" t="n">
-        <v>263</v>
-      </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>1999</v>
       </c>
-      <c r="G54" t="inlineStr"/>
       <c r="H54" t="n">
         <v>3591</v>
       </c>
@@ -5474,7 +5878,7 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="N54" t="n">
@@ -5529,6 +5933,12 @@
       <c r="AC54" t="n">
         <v>67</v>
       </c>
+      <c r="AD54" t="n">
+        <v>252.9615384615385</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>0.597927209915452</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -5537,23 +5947,25 @@
       <c r="B55" t="n">
         <v>53</v>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="n">
+        <v>53</v>
+      </c>
+      <c r="E55" t="inlineStr">
         <is>
           <t xml:space="preserve">Canadair </t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>RJ-700</t>
         </is>
       </c>
-      <c r="E55" t="n">
-        <v>263</v>
-      </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>1999</v>
       </c>
-      <c r="G55" t="inlineStr"/>
       <c r="H55" t="n">
         <v>3591</v>
       </c>
@@ -5565,7 +5977,7 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="N55" t="n">
@@ -5620,6 +6032,12 @@
       <c r="AC55" t="n">
         <v>67</v>
       </c>
+      <c r="AD55" t="n">
+        <v>252.9615384615385</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>0.597927209915452</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -5628,23 +6046,25 @@
       <c r="B56" t="n">
         <v>54</v>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="n">
+        <v>54</v>
+      </c>
+      <c r="E56" t="inlineStr">
         <is>
           <t xml:space="preserve">Canadair </t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>RJ-700</t>
         </is>
       </c>
-      <c r="E56" t="n">
-        <v>263</v>
-      </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>1999</v>
       </c>
-      <c r="G56" t="inlineStr"/>
       <c r="H56" t="n">
         <v>3591</v>
       </c>
@@ -5656,7 +6076,7 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="N56" t="n">
@@ -5711,6 +6131,12 @@
       <c r="AC56" t="n">
         <v>67</v>
       </c>
+      <c r="AD56" t="n">
+        <v>252.9615384615385</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>0.579999412093242</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -5719,23 +6145,25 @@
       <c r="B57" t="n">
         <v>55</v>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="n">
+        <v>55</v>
+      </c>
+      <c r="E57" t="inlineStr">
         <is>
           <t xml:space="preserve">Canadair </t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>RJ-700</t>
         </is>
       </c>
-      <c r="E57" t="n">
-        <v>263</v>
-      </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>1999</v>
       </c>
-      <c r="G57" t="inlineStr"/>
       <c r="H57" t="n">
         <v>3591</v>
       </c>
@@ -5747,7 +6175,7 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="N57" t="n">
@@ -5802,6 +6230,12 @@
       <c r="AC57" t="n">
         <v>67</v>
       </c>
+      <c r="AD57" t="n">
+        <v>252.9615384615385</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>0.579999412093242</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -5810,23 +6244,25 @@
       <c r="B58" t="n">
         <v>56</v>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="n">
+        <v>56</v>
+      </c>
+      <c r="E58" t="inlineStr">
         <is>
           <t>Boeing</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>B787-800 Dreamliner</t>
         </is>
       </c>
-      <c r="E58" t="n">
-        <v>256</v>
-      </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>2011</v>
       </c>
-      <c r="G58" t="inlineStr"/>
       <c r="H58" t="n">
         <v>13620</v>
       </c>
@@ -5883,6 +6319,12 @@
       <c r="AC58" t="n">
         <v>226</v>
       </c>
+      <c r="AD58" t="n">
+        <v>314.8293963254593</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>0.5262580616856052</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -5891,23 +6333,25 @@
       <c r="B59" t="n">
         <v>57</v>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="n">
+        <v>57</v>
+      </c>
+      <c r="E59" t="inlineStr">
         <is>
           <t>Boeing</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>B787-800 Dreamliner</t>
         </is>
       </c>
-      <c r="E59" t="n">
-        <v>256</v>
-      </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>2011</v>
       </c>
-      <c r="G59" t="inlineStr"/>
       <c r="H59" t="n">
         <v>13620</v>
       </c>
@@ -5964,6 +6408,12 @@
       <c r="AC59" t="n">
         <v>226</v>
       </c>
+      <c r="AD59" t="n">
+        <v>314.8293963254593</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>0.5262580616856052</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -5972,23 +6422,25 @@
       <c r="B60" t="n">
         <v>58</v>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="n">
+        <v>58</v>
+      </c>
+      <c r="E60" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>A330-300/333</t>
         </is>
       </c>
-      <c r="E60" t="n">
-        <v>248</v>
-      </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>1994</v>
       </c>
-      <c r="G60" t="inlineStr"/>
       <c r="H60" t="n">
         <v>10371</v>
       </c>
@@ -6065,6 +6517,12 @@
       <c r="AC60" t="n">
         <v>292</v>
       </c>
+      <c r="AD60" t="n">
+        <v>282.9545454545454</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>0.5413043478260869</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -6073,23 +6531,25 @@
       <c r="B61" t="n">
         <v>59</v>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="n">
+        <v>59</v>
+      </c>
+      <c r="E61" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>A330-300/333</t>
         </is>
       </c>
-      <c r="E61" t="n">
-        <v>248</v>
-      </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>1994</v>
       </c>
-      <c r="G61" t="inlineStr"/>
       <c r="H61" t="n">
         <v>10371</v>
       </c>
@@ -6156,6 +6616,12 @@
       <c r="AC61" t="n">
         <v>292</v>
       </c>
+      <c r="AD61" t="n">
+        <v>282.9545454545454</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>0.5413043478260869</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -6164,23 +6630,25 @@
       <c r="B62" t="n">
         <v>60</v>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="n">
+        <v>60</v>
+      </c>
+      <c r="E62" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>A330-300/333</t>
         </is>
       </c>
-      <c r="E62" t="n">
-        <v>248</v>
-      </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
         <v>1994</v>
       </c>
-      <c r="G62" t="inlineStr"/>
       <c r="H62" t="n">
         <v>10371</v>
       </c>
@@ -6247,6 +6715,12 @@
       <c r="AC62" t="n">
         <v>292</v>
       </c>
+      <c r="AD62" t="n">
+        <v>282.9545454545454</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>0.5413043478260869</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -6255,23 +6729,25 @@
       <c r="B63" t="n">
         <v>61</v>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="n">
+        <v>61</v>
+      </c>
+      <c r="E63" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>A330-300/333</t>
         </is>
       </c>
-      <c r="E63" t="n">
-        <v>248</v>
-      </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>1994</v>
       </c>
-      <c r="G63" t="inlineStr"/>
       <c r="H63" t="n">
         <v>10371</v>
       </c>
@@ -6328,6 +6804,12 @@
       <c r="AC63" t="n">
         <v>292</v>
       </c>
+      <c r="AD63" t="n">
+        <v>284.3181818181818</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>0.5439130434782609</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -6336,23 +6818,25 @@
       <c r="B64" t="n">
         <v>62</v>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="n">
+        <v>62</v>
+      </c>
+      <c r="E64" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>A330-300/333</t>
         </is>
       </c>
-      <c r="E64" t="n">
-        <v>248</v>
-      </c>
-      <c r="F64" t="n">
+      <c r="G64" t="n">
         <v>1994</v>
       </c>
-      <c r="G64" t="inlineStr"/>
       <c r="H64" t="n">
         <v>10371</v>
       </c>
@@ -6409,6 +6893,12 @@
       <c r="AC64" t="n">
         <v>292</v>
       </c>
+      <c r="AD64" t="n">
+        <v>284.3181818181818</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>0.5439130434782609</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -6417,23 +6907,25 @@
       <c r="B65" t="n">
         <v>63</v>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="n">
+        <v>63</v>
+      </c>
+      <c r="E65" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>A330-300/333</t>
         </is>
       </c>
-      <c r="E65" t="n">
-        <v>248</v>
-      </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
         <v>1994</v>
       </c>
-      <c r="G65" t="inlineStr"/>
       <c r="H65" t="n">
         <v>10371</v>
       </c>
@@ -6500,6 +6992,12 @@
       <c r="AC65" t="n">
         <v>292</v>
       </c>
+      <c r="AD65" t="n">
+        <v>283.1818181818182</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>0.5417391304347826</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -6508,23 +7006,25 @@
       <c r="B66" t="n">
         <v>64</v>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="n">
+        <v>64</v>
+      </c>
+      <c r="E66" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>A330-300/333</t>
         </is>
       </c>
-      <c r="E66" t="n">
-        <v>248</v>
-      </c>
-      <c r="F66" t="n">
+      <c r="G66" t="n">
         <v>1994</v>
       </c>
-      <c r="G66" t="inlineStr"/>
       <c r="H66" t="n">
         <v>10371</v>
       </c>
@@ -6591,6 +7091,12 @@
       <c r="AC66" t="n">
         <v>292</v>
       </c>
+      <c r="AD66" t="n">
+        <v>283.1818181818182</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>0.5417391304347826</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -6599,23 +7105,25 @@
       <c r="B67" t="n">
         <v>65</v>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="n">
+        <v>65</v>
+      </c>
+      <c r="E67" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>A330-300/333</t>
         </is>
       </c>
-      <c r="E67" t="n">
-        <v>248</v>
-      </c>
-      <c r="F67" t="n">
+      <c r="G67" t="n">
         <v>1994</v>
       </c>
-      <c r="G67" t="inlineStr"/>
       <c r="H67" t="n">
         <v>10371</v>
       </c>
@@ -6682,6 +7190,12 @@
       <c r="AC67" t="n">
         <v>292</v>
       </c>
+      <c r="AD67" t="n">
+        <v>283.1818181818182</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>0.5417391304347826</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -6690,23 +7204,25 @@
       <c r="B68" t="n">
         <v>66</v>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="n">
+        <v>66</v>
+      </c>
+      <c r="E68" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>A330-300/333</t>
         </is>
       </c>
-      <c r="E68" t="n">
-        <v>248</v>
-      </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
         <v>1994</v>
       </c>
-      <c r="G68" t="inlineStr"/>
       <c r="H68" t="n">
         <v>10371</v>
       </c>
@@ -6773,6 +7289,12 @@
       <c r="AC68" t="n">
         <v>292</v>
       </c>
+      <c r="AD68" t="n">
+        <v>283.1818181818182</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>0.5417391304347826</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -6781,23 +7303,25 @@
       <c r="B69" t="n">
         <v>67</v>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="n">
+        <v>67</v>
+      </c>
+      <c r="E69" t="inlineStr">
         <is>
           <t xml:space="preserve">Embraer </t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>Embraer-145</t>
         </is>
       </c>
-      <c r="E69" t="n">
-        <v>247</v>
-      </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>1996</v>
       </c>
-      <c r="G69" t="inlineStr"/>
       <c r="H69" t="n">
         <v>3000</v>
       </c>
@@ -6809,7 +7333,7 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="N69" t="n">
@@ -6864,6 +7388,12 @@
       <c r="AC69" t="n">
         <v>50</v>
       </c>
+      <c r="AD69" t="n">
+        <v>238.8</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>0.5796116504854369</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -6872,23 +7402,25 @@
       <c r="B70" t="n">
         <v>68</v>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="n">
+        <v>68</v>
+      </c>
+      <c r="E70" t="inlineStr">
         <is>
           <t xml:space="preserve">Embraer </t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>Embraer-145</t>
         </is>
       </c>
-      <c r="E70" t="n">
-        <v>247</v>
-      </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>1996</v>
       </c>
-      <c r="G70" t="inlineStr"/>
       <c r="H70" t="n">
         <v>3000</v>
       </c>
@@ -6900,7 +7432,7 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="N70" t="n">
@@ -6955,6 +7487,12 @@
       <c r="AC70" t="n">
         <v>50</v>
       </c>
+      <c r="AD70" t="n">
+        <v>238.8</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>0.5796116504854369</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -6963,23 +7501,25 @@
       <c r="B71" t="n">
         <v>69</v>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="n">
+        <v>69</v>
+      </c>
+      <c r="E71" t="inlineStr">
         <is>
           <t xml:space="preserve">Embraer </t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>Embraer-145</t>
         </is>
       </c>
-      <c r="E71" t="n">
-        <v>247</v>
-      </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>1996</v>
       </c>
-      <c r="G71" t="inlineStr"/>
       <c r="H71" t="n">
         <v>3000</v>
       </c>
@@ -6991,7 +7531,7 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="N71" t="n">
@@ -7046,6 +7586,12 @@
       <c r="AC71" t="n">
         <v>50</v>
       </c>
+      <c r="AD71" t="n">
+        <v>242</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -7054,23 +7600,25 @@
       <c r="B72" t="n">
         <v>70</v>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="n">
+        <v>70</v>
+      </c>
+      <c r="E72" t="inlineStr">
         <is>
           <t xml:space="preserve">Embraer </t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>Embraer-145</t>
         </is>
       </c>
-      <c r="E72" t="n">
-        <v>247</v>
-      </c>
-      <c r="F72" t="n">
+      <c r="G72" t="n">
         <v>1996</v>
       </c>
-      <c r="G72" t="inlineStr"/>
       <c r="H72" t="n">
         <v>3704</v>
       </c>
@@ -7082,7 +7630,7 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="N72" t="n">
@@ -7137,6 +7685,12 @@
       <c r="AC72" t="n">
         <v>50</v>
       </c>
+      <c r="AD72" t="n">
+        <v>251.6</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>0.5219917012448133</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -7145,23 +7699,25 @@
       <c r="B73" t="n">
         <v>71</v>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="n">
+        <v>71</v>
+      </c>
+      <c r="E73" t="inlineStr">
         <is>
           <t xml:space="preserve">Embraer </t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>Embraer-145</t>
         </is>
       </c>
-      <c r="E73" t="n">
-        <v>247</v>
-      </c>
-      <c r="F73" t="n">
+      <c r="G73" t="n">
         <v>1996</v>
       </c>
-      <c r="G73" t="inlineStr"/>
       <c r="H73" t="n">
         <v>3000</v>
       </c>
@@ -7173,7 +7729,7 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="N73" t="n">
@@ -7228,6 +7784,12 @@
       <c r="AC73" t="n">
         <v>50</v>
       </c>
+      <c r="AD73" t="n">
+        <v>238.8</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>0.5796116504854369</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -7236,23 +7798,25 @@
       <c r="B74" t="n">
         <v>72</v>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="n">
+        <v>72</v>
+      </c>
+      <c r="E74" t="inlineStr">
         <is>
           <t xml:space="preserve">Embraer </t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>Embraer-145</t>
         </is>
       </c>
-      <c r="E74" t="n">
-        <v>247</v>
-      </c>
-      <c r="F74" t="n">
+      <c r="G74" t="n">
         <v>1996</v>
       </c>
-      <c r="G74" t="inlineStr"/>
       <c r="H74" t="n">
         <v>3000</v>
       </c>
@@ -7264,7 +7828,7 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="N74" t="n">
@@ -7319,6 +7883,12 @@
       <c r="AC74" t="n">
         <v>50</v>
       </c>
+      <c r="AD74" t="n">
+        <v>242</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -7327,23 +7897,25 @@
       <c r="B75" t="n">
         <v>73</v>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="n">
+        <v>73</v>
+      </c>
+      <c r="E75" t="inlineStr">
         <is>
           <t xml:space="preserve">Embraer </t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>Embraer-145</t>
         </is>
       </c>
-      <c r="E75" t="n">
-        <v>247</v>
-      </c>
-      <c r="F75" t="n">
+      <c r="G75" t="n">
         <v>1996</v>
       </c>
-      <c r="G75" t="inlineStr"/>
       <c r="H75" t="n">
         <v>3704</v>
       </c>
@@ -7355,7 +7927,7 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="N75" t="n">
@@ -7410,6 +7982,12 @@
       <c r="AC75" t="n">
         <v>50</v>
       </c>
+      <c r="AD75" t="n">
+        <v>251.6</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>0.5219917012448133</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -7418,23 +7996,25 @@
       <c r="B76" t="n">
         <v>74</v>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="n">
+        <v>74</v>
+      </c>
+      <c r="E76" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>777-300/300ER/333ER</t>
         </is>
       </c>
-      <c r="E76" t="n">
-        <v>233</v>
-      </c>
-      <c r="F76" t="n">
+      <c r="G76" t="n">
         <v>1997</v>
       </c>
-      <c r="G76" t="inlineStr"/>
       <c r="H76" t="n">
         <v>7185</v>
       </c>
@@ -7495,6 +8075,12 @@
       <c r="AC76" t="n">
         <v>329</v>
       </c>
+      <c r="AD76" t="n">
+        <v>287.3272727272727</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>0.527875204596319</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -7503,23 +8089,25 @@
       <c r="B77" t="n">
         <v>75</v>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="n">
+        <v>75</v>
+      </c>
+      <c r="E77" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>777-300/300ER/333ER</t>
         </is>
       </c>
-      <c r="E77" t="n">
-        <v>233</v>
-      </c>
-      <c r="F77" t="n">
+      <c r="G77" t="n">
         <v>1997</v>
       </c>
-      <c r="G77" t="inlineStr"/>
       <c r="H77" t="n">
         <v>10574</v>
       </c>
@@ -7590,6 +8178,12 @@
       <c r="AC77" t="n">
         <v>329</v>
       </c>
+      <c r="AD77" t="n">
+        <v>288.1545454545454</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>0.529395062965561</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -7598,23 +8192,25 @@
       <c r="B78" t="n">
         <v>76</v>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="n">
+        <v>76</v>
+      </c>
+      <c r="E78" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>777-300/300ER/333ER</t>
         </is>
       </c>
-      <c r="E78" t="n">
-        <v>233</v>
-      </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
         <v>1997</v>
       </c>
-      <c r="G78" t="inlineStr"/>
       <c r="H78" t="n">
         <v>7500</v>
       </c>
@@ -7685,6 +8281,12 @@
       <c r="AC78" t="n">
         <v>329</v>
       </c>
+      <c r="AD78" t="n">
+        <v>282.8</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>0.5912270031929451</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -7693,23 +8295,25 @@
       <c r="B79" t="n">
         <v>77</v>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="n">
+        <v>77</v>
+      </c>
+      <c r="E79" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>777-300/300ER/333ER</t>
         </is>
       </c>
-      <c r="E79" t="n">
-        <v>233</v>
-      </c>
-      <c r="F79" t="n">
+      <c r="G79" t="n">
         <v>1997</v>
       </c>
-      <c r="G79" t="inlineStr"/>
       <c r="H79" t="n">
         <v>11028</v>
       </c>
@@ -7780,6 +8384,12 @@
       <c r="AC79" t="n">
         <v>329</v>
       </c>
+      <c r="AD79" t="n">
+        <v>282.8</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>0.5195577379162909</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -7788,23 +8398,25 @@
       <c r="B80" t="n">
         <v>78</v>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="n">
+        <v>78</v>
+      </c>
+      <c r="E80" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>777-300/300ER/333ER</t>
         </is>
       </c>
-      <c r="E80" t="n">
-        <v>233</v>
-      </c>
-      <c r="F80" t="n">
+      <c r="G80" t="n">
         <v>1997</v>
       </c>
-      <c r="G80" t="inlineStr"/>
       <c r="H80" t="n">
         <v>14593</v>
       </c>
@@ -7865,6 +8477,12 @@
       <c r="AC80" t="n">
         <v>329</v>
       </c>
+      <c r="AD80" t="n">
+        <v>305.1454545454545</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>0.4774204560001138</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -7873,23 +8491,25 @@
       <c r="B81" t="n">
         <v>79</v>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="n">
+        <v>79</v>
+      </c>
+      <c r="E81" t="inlineStr">
         <is>
           <t>Embraer</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>Embraer 190</t>
         </is>
       </c>
-      <c r="E81" t="n">
-        <v>216</v>
-      </c>
-      <c r="F81" t="n">
+      <c r="G81" t="n">
         <v>2004</v>
       </c>
-      <c r="G81" t="inlineStr"/>
       <c r="H81" t="n">
         <v>4259</v>
       </c>
@@ -7960,6 +8580,12 @@
       <c r="AC81" t="n">
         <v>99</v>
       </c>
+      <c r="AD81" t="n">
+        <v>226.4516129032258</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>0.5875706214689266</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -7968,23 +8594,25 @@
       <c r="B82" t="n">
         <v>80</v>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="n">
+        <v>80</v>
+      </c>
+      <c r="E82" t="inlineStr">
         <is>
           <t>Embraer</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>Embraer 190</t>
         </is>
       </c>
-      <c r="E82" t="n">
-        <v>216</v>
-      </c>
-      <c r="F82" t="n">
+      <c r="G82" t="n">
         <v>2004</v>
       </c>
-      <c r="G82" t="inlineStr"/>
       <c r="H82" t="n">
         <v>4259</v>
       </c>
@@ -8055,6 +8683,12 @@
       <c r="AC82" t="n">
         <v>99</v>
       </c>
+      <c r="AD82" t="n">
+        <v>226.4516129032258</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>0.5582504970178926</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -8063,23 +8697,25 @@
       <c r="B83" t="n">
         <v>81</v>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="n">
+        <v>81</v>
+      </c>
+      <c r="E83" t="inlineStr">
         <is>
           <t>Embraer</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>Embraer 190</t>
         </is>
       </c>
-      <c r="E83" t="n">
-        <v>216</v>
-      </c>
-      <c r="F83" t="n">
+      <c r="G83" t="n">
         <v>2004</v>
       </c>
-      <c r="G83" t="inlineStr"/>
       <c r="H83" t="n">
         <v>4259</v>
       </c>
@@ -8150,6 +8786,12 @@
       <c r="AC83" t="n">
         <v>99</v>
       </c>
+      <c r="AD83" t="n">
+        <v>227.258064516129</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>0.544015444015444</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -8158,23 +8800,25 @@
       <c r="B84" t="n">
         <v>82</v>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="n">
+        <v>82</v>
+      </c>
+      <c r="E84" t="inlineStr">
         <is>
           <t>Boeing</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>B787-900 Dreamliner</t>
         </is>
       </c>
-      <c r="E84" t="n">
-        <v>208</v>
-      </c>
-      <c r="F84" t="n">
+      <c r="G84" t="n">
         <v>2014</v>
       </c>
-      <c r="G84" t="inlineStr"/>
       <c r="H84" t="n">
         <v>14140</v>
       </c>
@@ -8231,6 +8875,12 @@
       <c r="AC84" t="n">
         <v>266</v>
       </c>
+      <c r="AD84" t="n">
+        <v>306.7857142857143</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>0.5059051717368429</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -8239,23 +8889,25 @@
       <c r="B85" t="n">
         <v>83</v>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="n">
+        <v>83</v>
+      </c>
+      <c r="E85" t="inlineStr">
         <is>
           <t>Boeing</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>B787-900 Dreamliner</t>
         </is>
       </c>
-      <c r="E85" t="n">
-        <v>208</v>
-      </c>
-      <c r="F85" t="n">
+      <c r="G85" t="n">
         <v>2014</v>
       </c>
-      <c r="G85" t="inlineStr"/>
       <c r="H85" t="n">
         <v>14140</v>
       </c>
@@ -8312,6 +8964,12 @@
       <c r="AC85" t="n">
         <v>266</v>
       </c>
+      <c r="AD85" t="n">
+        <v>306.7857142857143</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>0.5059051717368429</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -8320,24 +8978,24 @@
       <c r="B86" t="n">
         <v>84</v>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="n">
+        <v>84</v>
+      </c>
+      <c r="E86" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>737-900ER</t>
         </is>
       </c>
-      <c r="E86" t="n">
-        <v>164</v>
-      </c>
-      <c r="F86" t="n">
+      <c r="G86" t="n">
         <v>2007</v>
-      </c>
-      <c r="G86" t="n">
-        <v>3334</v>
       </c>
       <c r="H86" t="n">
         <v>5460</v>
@@ -8415,6 +9073,12 @@
       <c r="AC86" t="n">
         <v>179</v>
       </c>
+      <c r="AD86" t="n">
+        <v>203.0772727272727</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>0.524753638168172</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -8423,24 +9087,24 @@
       <c r="B87" t="n">
         <v>85</v>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="n">
+        <v>85</v>
+      </c>
+      <c r="E87" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>737-900ER</t>
         </is>
       </c>
-      <c r="E87" t="n">
-        <v>164</v>
-      </c>
-      <c r="F87" t="n">
+      <c r="G87" t="n">
         <v>2007</v>
-      </c>
-      <c r="G87" t="n">
-        <v>3334</v>
       </c>
       <c r="H87" t="n">
         <v>5460</v>
@@ -8508,6 +9172,12 @@
       <c r="AC87" t="n">
         <v>179</v>
       </c>
+      <c r="AD87" t="n">
+        <v>203.0772727272727</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>0.524753638168172</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -8516,24 +9186,24 @@
       <c r="B88" t="n">
         <v>86</v>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="n">
+        <v>86</v>
+      </c>
+      <c r="E88" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>737-900ER</t>
         </is>
       </c>
-      <c r="E88" t="n">
-        <v>164</v>
-      </c>
-      <c r="F88" t="n">
+      <c r="G88" t="n">
         <v>2007</v>
-      </c>
-      <c r="G88" t="n">
-        <v>3334</v>
       </c>
       <c r="H88" t="n">
         <v>5460</v>
@@ -8601,6 +9271,12 @@
       <c r="AC88" t="n">
         <v>179</v>
       </c>
+      <c r="AD88" t="n">
+        <v>203.0772727272727</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>0.524753638168172</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -8609,24 +9285,24 @@
       <c r="B89" t="n">
         <v>87</v>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="n">
+        <v>87</v>
+      </c>
+      <c r="E89" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>737-900ER</t>
         </is>
       </c>
-      <c r="E89" t="n">
-        <v>164</v>
-      </c>
-      <c r="F89" t="n">
+      <c r="G89" t="n">
         <v>2007</v>
-      </c>
-      <c r="G89" t="n">
-        <v>3334</v>
       </c>
       <c r="H89" t="n">
         <v>5460</v>
@@ -8694,6 +9370,12 @@
       <c r="AC89" t="n">
         <v>179</v>
       </c>
+      <c r="AD89" t="n">
+        <v>203.0772727272727</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>0.524753638168172</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -8702,24 +9384,24 @@
       <c r="B90" t="n">
         <v>88</v>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="n">
+        <v>88</v>
+      </c>
+      <c r="E90" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>737-900ER</t>
         </is>
       </c>
-      <c r="E90" t="n">
-        <v>164</v>
-      </c>
-      <c r="F90" t="n">
+      <c r="G90" t="n">
         <v>2007</v>
-      </c>
-      <c r="G90" t="n">
-        <v>3334</v>
       </c>
       <c r="H90" t="n">
         <v>5460</v>
@@ -8787,6 +9469,12 @@
       <c r="AC90" t="n">
         <v>179</v>
       </c>
+      <c r="AD90" t="n">
+        <v>203.0772727272727</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>0.524753638168172</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -8795,24 +9483,24 @@
       <c r="B91" t="n">
         <v>89</v>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="n">
+        <v>89</v>
+      </c>
+      <c r="E91" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>737-900ER</t>
         </is>
       </c>
-      <c r="E91" t="n">
-        <v>164</v>
-      </c>
-      <c r="F91" t="n">
+      <c r="G91" t="n">
         <v>2007</v>
-      </c>
-      <c r="G91" t="n">
-        <v>3334</v>
       </c>
       <c r="H91" t="n">
         <v>5460</v>
@@ -8880,6 +9568,12 @@
       <c r="AC91" t="n">
         <v>179</v>
       </c>
+      <c r="AD91" t="n">
+        <v>203.0772727272727</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>0.524753638168172</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -8888,24 +9582,24 @@
       <c r="B92" t="n">
         <v>90</v>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="n">
+        <v>90</v>
+      </c>
+      <c r="E92" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>737-900ER</t>
         </is>
       </c>
-      <c r="E92" t="n">
-        <v>164</v>
-      </c>
-      <c r="F92" t="n">
+      <c r="G92" t="n">
         <v>2007</v>
-      </c>
-      <c r="G92" t="n">
-        <v>926</v>
       </c>
       <c r="H92" t="n">
         <v>5460</v>
@@ -8983,6 +9677,12 @@
       <c r="AC92" t="n">
         <v>179</v>
       </c>
+      <c r="AD92" t="n">
+        <v>203.0772727272727</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>0.5987589793073872</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -8991,24 +9691,24 @@
       <c r="B93" t="n">
         <v>91</v>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="n">
+        <v>91</v>
+      </c>
+      <c r="E93" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>737-900ER</t>
         </is>
       </c>
-      <c r="E93" t="n">
-        <v>164</v>
-      </c>
-      <c r="F93" t="n">
+      <c r="G93" t="n">
         <v>2007</v>
-      </c>
-      <c r="G93" t="n">
-        <v>926</v>
       </c>
       <c r="H93" t="n">
         <v>5460</v>
@@ -9076,6 +9776,12 @@
       <c r="AC93" t="n">
         <v>179</v>
       </c>
+      <c r="AD93" t="n">
+        <v>203.0772727272727</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>0.5987589793073872</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -9084,24 +9790,24 @@
       <c r="B94" t="n">
         <v>92</v>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="n">
+        <v>92</v>
+      </c>
+      <c r="E94" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>737-900ER</t>
         </is>
       </c>
-      <c r="E94" t="n">
-        <v>164</v>
-      </c>
-      <c r="F94" t="n">
+      <c r="G94" t="n">
         <v>2007</v>
-      </c>
-      <c r="G94" t="n">
-        <v>926</v>
       </c>
       <c r="H94" t="n">
         <v>5460</v>
@@ -9169,6 +9875,12 @@
       <c r="AC94" t="n">
         <v>179</v>
       </c>
+      <c r="AD94" t="n">
+        <v>203.0772727272727</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>0.5987589793073872</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -9177,24 +9889,24 @@
       <c r="B95" t="n">
         <v>93</v>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="n">
+        <v>93</v>
+      </c>
+      <c r="E95" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>737-900ER</t>
         </is>
       </c>
-      <c r="E95" t="n">
-        <v>164</v>
-      </c>
-      <c r="F95" t="n">
+      <c r="G95" t="n">
         <v>2007</v>
-      </c>
-      <c r="G95" t="n">
-        <v>926</v>
       </c>
       <c r="H95" t="n">
         <v>5460</v>
@@ -9262,6 +9974,12 @@
       <c r="AC95" t="n">
         <v>179</v>
       </c>
+      <c r="AD95" t="n">
+        <v>203.0772727272727</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>0.5987589793073872</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -9270,24 +9988,24 @@
       <c r="B96" t="n">
         <v>94</v>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="n">
+        <v>94</v>
+      </c>
+      <c r="E96" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>737-900ER</t>
         </is>
       </c>
-      <c r="E96" t="n">
-        <v>164</v>
-      </c>
-      <c r="F96" t="n">
+      <c r="G96" t="n">
         <v>2007</v>
-      </c>
-      <c r="G96" t="n">
-        <v>926</v>
       </c>
       <c r="H96" t="n">
         <v>5460</v>
@@ -9355,6 +10073,12 @@
       <c r="AC96" t="n">
         <v>179</v>
       </c>
+      <c r="AD96" t="n">
+        <v>203.0772727272727</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>0.5987589793073872</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -9363,24 +10087,24 @@
       <c r="B97" t="n">
         <v>95</v>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="n">
+        <v>95</v>
+      </c>
+      <c r="E97" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>737-900ER</t>
         </is>
       </c>
-      <c r="E97" t="n">
-        <v>164</v>
-      </c>
-      <c r="F97" t="n">
+      <c r="G97" t="n">
         <v>2007</v>
-      </c>
-      <c r="G97" t="n">
-        <v>926</v>
       </c>
       <c r="H97" t="n">
         <v>5460</v>
@@ -9448,6 +10172,12 @@
       <c r="AC97" t="n">
         <v>179</v>
       </c>
+      <c r="AD97" t="n">
+        <v>203.0772727272727</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>0.5987589793073872</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -9456,23 +10186,25 @@
       <c r="B98" t="n">
         <v>96</v>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="n">
+        <v>96</v>
+      </c>
+      <c r="E98" t="inlineStr">
         <is>
           <t>Embraer</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>Embraer-135</t>
         </is>
       </c>
-      <c r="E98" t="n">
-        <v>154</v>
-      </c>
-      <c r="F98" t="n">
+      <c r="G98" t="n">
         <v>1999</v>
       </c>
-      <c r="G98" t="inlineStr"/>
       <c r="H98" t="n">
         <v>3148</v>
       </c>
@@ -9484,7 +10216,7 @@
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="N98" t="n">
@@ -9539,6 +10271,12 @@
       </c>
       <c r="AB98" t="inlineStr"/>
       <c r="AC98" t="inlineStr"/>
+      <c r="AD98" t="n">
+        <v>307.8378378378378</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>0.5994736842105263</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -9547,23 +10285,25 @@
       <c r="B99" t="n">
         <v>97</v>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="n">
+        <v>97</v>
+      </c>
+      <c r="E99" t="inlineStr">
         <is>
           <t>Embraer</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>Embraer-135</t>
         </is>
       </c>
-      <c r="E99" t="n">
-        <v>154</v>
-      </c>
-      <c r="F99" t="n">
+      <c r="G99" t="n">
         <v>1999</v>
       </c>
-      <c r="G99" t="inlineStr"/>
       <c r="H99" t="n">
         <v>3148</v>
       </c>
@@ -9575,7 +10315,7 @@
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="N99" t="n">
@@ -9630,6 +10370,12 @@
       </c>
       <c r="AB99" t="inlineStr"/>
       <c r="AC99" t="inlineStr"/>
+      <c r="AD99" t="n">
+        <v>307.8378378378378</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>0.5994736842105263</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -9638,23 +10384,25 @@
       <c r="B100" t="n">
         <v>98</v>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="n">
+        <v>98</v>
+      </c>
+      <c r="E100" t="inlineStr">
         <is>
           <t>Embraer</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>Embraer-135</t>
         </is>
       </c>
-      <c r="E100" t="n">
-        <v>154</v>
-      </c>
-      <c r="F100" t="n">
+      <c r="G100" t="n">
         <v>1999</v>
       </c>
-      <c r="G100" t="inlineStr"/>
       <c r="H100" t="n">
         <v>3148</v>
       </c>
@@ -9666,7 +10414,7 @@
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="N100" t="n">
@@ -9721,6 +10469,12 @@
       </c>
       <c r="AB100" t="inlineStr"/>
       <c r="AC100" t="inlineStr"/>
+      <c r="AD100" t="n">
+        <v>310.5405405405405</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>0.5745</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -9729,23 +10483,25 @@
       <c r="B101" t="n">
         <v>99</v>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="n">
+        <v>99</v>
+      </c>
+      <c r="E101" t="inlineStr">
         <is>
           <t>Canadair</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>RJ-200ER /RJ-440</t>
         </is>
       </c>
-      <c r="E101" t="n">
-        <v>146</v>
-      </c>
-      <c r="F101" t="n">
+      <c r="G101" t="n">
         <v>1992</v>
       </c>
-      <c r="G101" t="inlineStr"/>
       <c r="H101" t="n">
         <v>3046</v>
       </c>
@@ -9757,7 +10513,7 @@
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="N101" t="n">
@@ -9822,6 +10578,12 @@
       <c r="AC101" t="n">
         <v>50</v>
       </c>
+      <c r="AD101" t="n">
+        <v>276.7</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>0.5980633726710759</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -9830,23 +10592,25 @@
       <c r="B102" t="n">
         <v>100</v>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="n">
+        <v>100</v>
+      </c>
+      <c r="E102" t="inlineStr">
         <is>
           <t xml:space="preserve">Canadair </t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>CRJ 900</t>
         </is>
       </c>
-      <c r="E102" t="n">
-        <v>144</v>
-      </c>
-      <c r="F102" t="n">
+      <c r="G102" t="n">
         <v>2001</v>
       </c>
-      <c r="G102" t="inlineStr"/>
       <c r="H102" t="n">
         <v>2995</v>
       </c>
@@ -9858,7 +10622,7 @@
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="N102" t="n">
@@ -9913,6 +10677,12 @@
       </c>
       <c r="AB102" t="inlineStr"/>
       <c r="AC102" t="inlineStr"/>
+      <c r="AD102" t="n">
+        <v>238.1333333333333</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>0.5869529495535959</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -9921,23 +10691,25 @@
       <c r="B103" t="n">
         <v>101</v>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="n">
+        <v>101</v>
+      </c>
+      <c r="E103" t="inlineStr">
         <is>
           <t xml:space="preserve">Canadair </t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>CRJ 900</t>
         </is>
       </c>
-      <c r="E103" t="n">
-        <v>144</v>
-      </c>
-      <c r="F103" t="n">
+      <c r="G103" t="n">
         <v>2001</v>
       </c>
-      <c r="G103" t="inlineStr"/>
       <c r="H103" t="n">
         <v>2995</v>
       </c>
@@ -9949,7 +10721,7 @@
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="N103" t="n">
@@ -10004,6 +10776,12 @@
       </c>
       <c r="AB103" t="inlineStr"/>
       <c r="AC103" t="inlineStr"/>
+      <c r="AD103" t="n">
+        <v>238.1333333333333</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>0.5869529495535959</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -10012,23 +10790,25 @@
       <c r="B104" t="n">
         <v>102</v>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C104" t="n">
+        <v>102</v>
+      </c>
+      <c r="D104" t="n">
+        <v>102</v>
+      </c>
+      <c r="E104" t="inlineStr">
         <is>
           <t xml:space="preserve">Canadair </t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>CRJ 900</t>
         </is>
       </c>
-      <c r="E104" t="n">
-        <v>144</v>
-      </c>
-      <c r="F104" t="n">
+      <c r="G104" t="n">
         <v>2001</v>
       </c>
-      <c r="G104" t="inlineStr"/>
       <c r="H104" t="n">
         <v>3407</v>
       </c>
@@ -10040,7 +10820,7 @@
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="N104" t="n">
@@ -10095,6 +10875,12 @@
       </c>
       <c r="AB104" t="inlineStr"/>
       <c r="AC104" t="inlineStr"/>
+      <c r="AD104" t="n">
+        <v>238.1333333333333</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>0.5727265439191898</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -10103,23 +10889,25 @@
       <c r="B105" t="n">
         <v>103</v>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C105" t="n">
+        <v>103</v>
+      </c>
+      <c r="D105" t="n">
+        <v>103</v>
+      </c>
+      <c r="E105" t="inlineStr">
         <is>
           <t xml:space="preserve">Canadair </t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>CRJ 900</t>
         </is>
       </c>
-      <c r="E105" t="n">
-        <v>144</v>
-      </c>
-      <c r="F105" t="n">
+      <c r="G105" t="n">
         <v>2001</v>
       </c>
-      <c r="G105" t="inlineStr"/>
       <c r="H105" t="n">
         <v>3407</v>
       </c>
@@ -10131,7 +10919,7 @@
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="N105" t="n">
@@ -10186,6 +10974,12 @@
       </c>
       <c r="AB105" t="inlineStr"/>
       <c r="AC105" t="inlineStr"/>
+      <c r="AD105" t="n">
+        <v>238.1333333333333</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>0.5793215299364779</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -10194,23 +10988,25 @@
       <c r="B106" t="n">
         <v>104</v>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="C106" t="n">
+        <v>104</v>
+      </c>
+      <c r="D106" t="n">
+        <v>104</v>
+      </c>
+      <c r="E106" t="inlineStr">
         <is>
           <t xml:space="preserve">Canadair </t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>CRJ 900</t>
         </is>
       </c>
-      <c r="E106" t="n">
-        <v>144</v>
-      </c>
-      <c r="F106" t="n">
+      <c r="G106" t="n">
         <v>2001</v>
       </c>
-      <c r="G106" t="inlineStr"/>
       <c r="H106" t="n">
         <v>3659</v>
       </c>
@@ -10222,7 +11018,7 @@
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="N106" t="n">
@@ -10277,6 +11073,12 @@
       </c>
       <c r="AB106" t="inlineStr"/>
       <c r="AC106" t="inlineStr"/>
+      <c r="AD106" t="n">
+        <v>238.1333333333333</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>0.5591734502191609</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -10285,23 +11087,25 @@
       <c r="B107" t="n">
         <v>105</v>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C107" t="n">
+        <v>105</v>
+      </c>
+      <c r="D107" t="n">
+        <v>105</v>
+      </c>
+      <c r="E107" t="inlineStr">
         <is>
           <t xml:space="preserve">Canadair </t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>CRJ 900</t>
         </is>
       </c>
-      <c r="E107" t="n">
-        <v>144</v>
-      </c>
-      <c r="F107" t="n">
+      <c r="G107" t="n">
         <v>2001</v>
       </c>
-      <c r="G107" t="inlineStr"/>
       <c r="H107" t="n">
         <v>3659</v>
       </c>
@@ -10313,7 +11117,7 @@
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="N107" t="n">
@@ -10368,6 +11172,12 @@
       </c>
       <c r="AB107" t="inlineStr"/>
       <c r="AC107" t="inlineStr"/>
+      <c r="AD107" t="n">
+        <v>238.1333333333333</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>0.5383842443729904</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -10376,23 +11186,25 @@
       <c r="B108" t="n">
         <v>106</v>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C108" t="n">
+        <v>106</v>
+      </c>
+      <c r="D108" t="n">
+        <v>106</v>
+      </c>
+      <c r="E108" t="inlineStr">
         <is>
           <t>McDonnell Douglas</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>MD-90</t>
         </is>
       </c>
-      <c r="E108" t="n">
-        <v>140</v>
-      </c>
-      <c r="F108" t="n">
+      <c r="G108" t="n">
         <v>1995</v>
       </c>
-      <c r="G108" t="inlineStr"/>
       <c r="H108" t="n">
         <v>3787</v>
       </c>
@@ -10473,6 +11285,12 @@
       <c r="AC108" t="n">
         <v>148</v>
       </c>
+      <c r="AD108" t="n">
+        <v>239.562874251497</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>0.5653900508762012</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -10481,23 +11299,25 @@
       <c r="B109" t="n">
         <v>107</v>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="C109" t="n">
+        <v>107</v>
+      </c>
+      <c r="D109" t="n">
+        <v>107</v>
+      </c>
+      <c r="E109" t="inlineStr">
         <is>
           <t>McDonnell Douglas</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>MD-90</t>
         </is>
       </c>
-      <c r="E109" t="n">
-        <v>140</v>
-      </c>
-      <c r="F109" t="n">
+      <c r="G109" t="n">
         <v>1995</v>
       </c>
-      <c r="G109" t="inlineStr"/>
       <c r="H109" t="n">
         <v>3787</v>
       </c>
@@ -10568,6 +11388,12 @@
       <c r="AC109" t="n">
         <v>148</v>
       </c>
+      <c r="AD109" t="n">
+        <v>239.562874251497</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>0.5653900508762012</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -10576,23 +11402,25 @@
       <c r="B110" t="n">
         <v>108</v>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C110" t="n">
+        <v>108</v>
+      </c>
+      <c r="D110" t="n">
+        <v>108</v>
+      </c>
+      <c r="E110" t="inlineStr">
         <is>
           <t>Embraer</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>Embraer-140</t>
         </is>
       </c>
-      <c r="E110" t="n">
-        <v>136</v>
-      </c>
-      <c r="F110" t="n">
+      <c r="G110" t="n">
         <v>2001</v>
       </c>
-      <c r="G110" t="inlineStr"/>
       <c r="H110" t="n">
         <v>2278</v>
       </c>
@@ -10604,7 +11432,7 @@
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="N110" t="n">
@@ -10659,6 +11487,12 @@
       </c>
       <c r="AB110" t="inlineStr"/>
       <c r="AC110" t="inlineStr"/>
+      <c r="AD110" t="n">
+        <v>268.1818181818182</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>0.5870646766169154</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -10667,23 +11501,25 @@
       <c r="B111" t="n">
         <v>109</v>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C111" t="n">
+        <v>109</v>
+      </c>
+      <c r="D111" t="n">
+        <v>109</v>
+      </c>
+      <c r="E111" t="inlineStr">
         <is>
           <t>Embraer</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>Embraer-140</t>
         </is>
       </c>
-      <c r="E111" t="n">
-        <v>136</v>
-      </c>
-      <c r="F111" t="n">
+      <c r="G111" t="n">
         <v>2001</v>
       </c>
-      <c r="G111" t="inlineStr"/>
       <c r="H111" t="n">
         <v>2278</v>
       </c>
@@ -10695,7 +11531,7 @@
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="N111" t="n">
@@ -10750,6 +11586,12 @@
       </c>
       <c r="AB111" t="inlineStr"/>
       <c r="AC111" t="inlineStr"/>
+      <c r="AD111" t="n">
+        <v>268.1818181818182</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>0.5870646766169154</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -10758,23 +11600,25 @@
       <c r="B112" t="n">
         <v>110</v>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C112" t="n">
+        <v>110</v>
+      </c>
+      <c r="D112" t="n">
+        <v>110</v>
+      </c>
+      <c r="E112" t="inlineStr">
         <is>
           <t>Embraer</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>Embraer-140</t>
         </is>
       </c>
-      <c r="E112" t="n">
-        <v>136</v>
-      </c>
-      <c r="F112" t="n">
+      <c r="G112" t="n">
         <v>2001</v>
       </c>
-      <c r="G112" t="inlineStr"/>
       <c r="H112" t="n">
         <v>3018</v>
       </c>
@@ -10786,7 +11630,7 @@
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="N112" t="n">
@@ -10841,6 +11685,12 @@
       </c>
       <c r="AB112" t="inlineStr"/>
       <c r="AC112" t="inlineStr"/>
+      <c r="AD112" t="n">
+        <v>268.1818181818182</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>0.5592417061611374</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -10849,23 +11699,25 @@
       <c r="B113" t="n">
         <v>111</v>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="C113" t="n">
+        <v>111</v>
+      </c>
+      <c r="D113" t="n">
+        <v>111</v>
+      </c>
+      <c r="E113" t="inlineStr">
         <is>
           <t>Boeing</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>717-200</t>
         </is>
       </c>
-      <c r="E113" t="n">
-        <v>115</v>
-      </c>
-      <c r="F113" t="n">
+      <c r="G113" t="n">
         <v>1999</v>
       </c>
-      <c r="G113" t="inlineStr"/>
       <c r="H113" t="n">
         <v>3815</v>
       </c>
@@ -10936,6 +11788,12 @@
       <c r="AC113" t="n">
         <v>112</v>
       </c>
+      <c r="AD113" t="n">
+        <v>232.089552238806</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>0.5654545454545454</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -10944,23 +11802,25 @@
       <c r="B114" t="n">
         <v>112</v>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="C114" t="n">
+        <v>112</v>
+      </c>
+      <c r="D114" t="n">
+        <v>112</v>
+      </c>
+      <c r="E114" t="inlineStr">
         <is>
           <t>Boeing</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>717-200</t>
         </is>
       </c>
-      <c r="E114" t="n">
-        <v>115</v>
-      </c>
-      <c r="F114" t="n">
+      <c r="G114" t="n">
         <v>1999</v>
       </c>
-      <c r="G114" t="inlineStr"/>
       <c r="H114" t="n">
         <v>3815</v>
       </c>
@@ -11041,6 +11901,12 @@
       <c r="AC114" t="n">
         <v>112</v>
       </c>
+      <c r="AD114" t="n">
+        <v>232.089552238806</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>0.5654545454545454</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -11049,23 +11915,25 @@
       <c r="B115" t="n">
         <v>113</v>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C115" t="n">
+        <v>113</v>
+      </c>
+      <c r="D115" t="n">
+        <v>113</v>
+      </c>
+      <c r="E115" t="inlineStr">
         <is>
           <t>Boeing</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>717-200</t>
         </is>
       </c>
-      <c r="E115" t="n">
-        <v>115</v>
-      </c>
-      <c r="F115" t="n">
+      <c r="G115" t="n">
         <v>1999</v>
       </c>
-      <c r="G115" t="inlineStr"/>
       <c r="H115" t="n">
         <v>2648</v>
       </c>
@@ -11136,6 +12004,12 @@
       <c r="AC115" t="n">
         <v>112</v>
       </c>
+      <c r="AD115" t="n">
+        <v>228.3582089552239</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>0.612</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -11144,23 +12018,25 @@
       <c r="B116" t="n">
         <v>114</v>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="C116" t="n">
+        <v>114</v>
+      </c>
+      <c r="D116" t="n">
+        <v>114</v>
+      </c>
+      <c r="E116" t="inlineStr">
         <is>
           <t>Boeing</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>717-200</t>
         </is>
       </c>
-      <c r="E116" t="n">
-        <v>115</v>
-      </c>
-      <c r="F116" t="n">
+      <c r="G116" t="n">
         <v>1999</v>
       </c>
-      <c r="G116" t="inlineStr"/>
       <c r="H116" t="n">
         <v>2648</v>
       </c>
@@ -11241,6 +12117,12 @@
       <c r="AC116" t="n">
         <v>112</v>
       </c>
+      <c r="AD116" t="n">
+        <v>228.3582089552239</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>0.612</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -11249,23 +12131,25 @@
       <c r="B117" t="n">
         <v>115</v>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="C117" t="n">
+        <v>115</v>
+      </c>
+      <c r="D117" t="n">
+        <v>115</v>
+      </c>
+      <c r="E117" t="inlineStr">
         <is>
           <t xml:space="preserve">Embraer </t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>Embraer ERJ-175</t>
         </is>
       </c>
-      <c r="E117" t="n">
-        <v>107</v>
-      </c>
-      <c r="F117" t="n">
+      <c r="G117" t="n">
         <v>2005</v>
       </c>
-      <c r="G117" t="inlineStr"/>
       <c r="H117" t="n">
         <v>3518</v>
       </c>
@@ -11277,7 +12161,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="N117" t="n">
@@ -11326,6 +12210,12 @@
       <c r="AC117" t="n">
         <v>75</v>
       </c>
+      <c r="AD117" t="n">
+        <v>247.8409090909091</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>0.5816</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -11334,23 +12224,25 @@
       <c r="B118" t="n">
         <v>116</v>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="C118" t="n">
+        <v>116</v>
+      </c>
+      <c r="D118" t="n">
+        <v>116</v>
+      </c>
+      <c r="E118" t="inlineStr">
         <is>
           <t xml:space="preserve">Embraer </t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>Embraer ERJ-175</t>
         </is>
       </c>
-      <c r="E118" t="n">
-        <v>107</v>
-      </c>
-      <c r="F118" t="n">
+      <c r="G118" t="n">
         <v>2005</v>
       </c>
-      <c r="G118" t="inlineStr"/>
       <c r="H118" t="n">
         <v>3518</v>
       </c>
@@ -11362,7 +12254,7 @@
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="N118" t="n">
@@ -11411,6 +12303,12 @@
       <c r="AC118" t="n">
         <v>75</v>
       </c>
+      <c r="AD118" t="n">
+        <v>247.8409090909091</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>0.5622583139984532</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -11419,23 +12317,25 @@
       <c r="B119" t="n">
         <v>117</v>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="C119" t="n">
+        <v>117</v>
+      </c>
+      <c r="D119" t="n">
+        <v>117</v>
+      </c>
+      <c r="E119" t="inlineStr">
         <is>
           <t>Boeing</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>727-100</t>
         </is>
       </c>
-      <c r="E119" t="n">
-        <v>102</v>
-      </c>
-      <c r="F119" t="n">
+      <c r="G119" t="n">
         <v>1964</v>
       </c>
-      <c r="G119" t="inlineStr"/>
       <c r="H119" t="n">
         <v>4170</v>
       </c>
@@ -11506,6 +12406,12 @@
       <c r="AA119" t="inlineStr"/>
       <c r="AB119" t="inlineStr"/>
       <c r="AC119" t="inlineStr"/>
+      <c r="AD119" t="n">
+        <v>303.8167938931298</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>0.5189048239895697</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -11514,23 +12420,25 @@
       <c r="B120" t="n">
         <v>118</v>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C120" t="n">
+        <v>118</v>
+      </c>
+      <c r="D120" t="n">
+        <v>118</v>
+      </c>
+      <c r="E120" t="inlineStr">
         <is>
           <t>Boeing</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>727-100</t>
         </is>
       </c>
-      <c r="E120" t="n">
-        <v>102</v>
-      </c>
-      <c r="F120" t="n">
+      <c r="G120" t="n">
         <v>1964</v>
       </c>
-      <c r="G120" t="inlineStr"/>
       <c r="H120" t="n">
         <v>4170</v>
       </c>
@@ -11601,6 +12509,12 @@
       <c r="AA120" t="inlineStr"/>
       <c r="AB120" t="inlineStr"/>
       <c r="AC120" t="inlineStr"/>
+      <c r="AD120" t="n">
+        <v>303.8167938931298</v>
+      </c>
+      <c r="AE120" t="n">
+        <v>0.5189048239895697</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -11609,23 +12523,25 @@
       <c r="B121" t="n">
         <v>119</v>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="C121" t="n">
+        <v>119</v>
+      </c>
+      <c r="D121" t="n">
+        <v>119</v>
+      </c>
+      <c r="E121" t="inlineStr">
         <is>
           <t>Boeing</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>727-100</t>
         </is>
       </c>
-      <c r="E121" t="n">
-        <v>102</v>
-      </c>
-      <c r="F121" t="n">
+      <c r="G121" t="n">
         <v>1964</v>
       </c>
-      <c r="G121" t="inlineStr"/>
       <c r="H121" t="n">
         <v>4170</v>
       </c>
@@ -11696,6 +12612,12 @@
       <c r="AA121" t="inlineStr"/>
       <c r="AB121" t="inlineStr"/>
       <c r="AC121" t="inlineStr"/>
+      <c r="AD121" t="n">
+        <v>303.8167938931298</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>0.5189048239895697</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -11704,23 +12626,25 @@
       <c r="B122" t="n">
         <v>120</v>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="C122" t="n">
+        <v>120</v>
+      </c>
+      <c r="D122" t="n">
+        <v>120</v>
+      </c>
+      <c r="E122" t="inlineStr">
         <is>
           <t>Boeing</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>727-100</t>
         </is>
       </c>
-      <c r="E122" t="n">
-        <v>102</v>
-      </c>
-      <c r="F122" t="n">
+      <c r="G122" t="n">
         <v>1964</v>
       </c>
-      <c r="G122" t="inlineStr"/>
       <c r="H122" t="n">
         <v>4170</v>
       </c>
@@ -11781,6 +12705,12 @@
       <c r="AA122" t="inlineStr"/>
       <c r="AB122" t="inlineStr"/>
       <c r="AC122" t="inlineStr"/>
+      <c r="AD122" t="n">
+        <v>303.8167938931298</v>
+      </c>
+      <c r="AE122" t="n">
+        <v>0.5189048239895697</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -11789,23 +12719,25 @@
       <c r="B123" t="n">
         <v>121</v>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C123" t="n">
+        <v>121</v>
+      </c>
+      <c r="D123" t="n">
+        <v>121</v>
+      </c>
+      <c r="E123" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>A321-200n</t>
         </is>
       </c>
-      <c r="E123" t="n">
-        <v>92</v>
-      </c>
-      <c r="F123" t="n">
+      <c r="G123" t="n">
         <v>2007</v>
       </c>
-      <c r="G123" t="inlineStr"/>
       <c r="H123" t="n">
         <v>7410</v>
       </c>
@@ -11858,6 +12790,12 @@
       <c r="AA123" t="inlineStr"/>
       <c r="AB123" t="inlineStr"/>
       <c r="AC123" t="inlineStr"/>
+      <c r="AD123" t="n">
+        <v>208.75</v>
+      </c>
+      <c r="AE123" t="n">
+        <v>0.5164948453608248</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -11866,23 +12804,25 @@
       <c r="B124" t="n">
         <v>122</v>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C124" t="n">
+        <v>122</v>
+      </c>
+      <c r="D124" t="n">
+        <v>122</v>
+      </c>
+      <c r="E124" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>A321-200n</t>
         </is>
       </c>
-      <c r="E124" t="n">
-        <v>92</v>
-      </c>
-      <c r="F124" t="n">
+      <c r="G124" t="n">
         <v>2007</v>
       </c>
-      <c r="G124" t="inlineStr"/>
       <c r="H124" t="n">
         <v>7410</v>
       </c>
@@ -11935,6 +12875,12 @@
       <c r="AA124" t="inlineStr"/>
       <c r="AB124" t="inlineStr"/>
       <c r="AC124" t="inlineStr"/>
+      <c r="AD124" t="n">
+        <v>208.75</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>0.5164948453608248</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -11943,23 +12889,25 @@
       <c r="B125" t="n">
         <v>123</v>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C125" t="n">
+        <v>123</v>
+      </c>
+      <c r="D125" t="n">
+        <v>123</v>
+      </c>
+      <c r="E125" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>737-200C</t>
         </is>
       </c>
-      <c r="E125" t="n">
-        <v>86</v>
-      </c>
-      <c r="F125" t="n">
+      <c r="G125" t="n">
         <v>1968</v>
       </c>
-      <c r="G125" t="inlineStr"/>
       <c r="H125" t="n">
         <v>4800</v>
       </c>
@@ -12030,6 +12978,12 @@
       <c r="AA125" t="inlineStr"/>
       <c r="AB125" t="inlineStr"/>
       <c r="AC125" t="inlineStr"/>
+      <c r="AD125" t="n">
+        <v>217.6470588235294</v>
+      </c>
+      <c r="AE125" t="n">
+        <v>0.5094664371772806</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -12038,23 +12992,25 @@
       <c r="B126" t="n">
         <v>124</v>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C126" t="n">
+        <v>124</v>
+      </c>
+      <c r="D126" t="n">
+        <v>124</v>
+      </c>
+      <c r="E126" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>737-200C</t>
         </is>
       </c>
-      <c r="E126" t="n">
-        <v>86</v>
-      </c>
-      <c r="F126" t="n">
+      <c r="G126" t="n">
         <v>1968</v>
       </c>
-      <c r="G126" t="inlineStr"/>
       <c r="H126" t="n">
         <v>4800</v>
       </c>
@@ -12115,6 +13071,12 @@
       <c r="AA126" t="inlineStr"/>
       <c r="AB126" t="inlineStr"/>
       <c r="AC126" t="inlineStr"/>
+      <c r="AD126" t="n">
+        <v>217.6470588235294</v>
+      </c>
+      <c r="AE126" t="n">
+        <v>0.5094664371772806</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -12123,23 +13085,25 @@
       <c r="B127" t="n">
         <v>125</v>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C127" t="n">
+        <v>125</v>
+      </c>
+      <c r="D127" t="n">
+        <v>125</v>
+      </c>
+      <c r="E127" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>737-200C</t>
         </is>
       </c>
-      <c r="E127" t="n">
-        <v>86</v>
-      </c>
-      <c r="F127" t="n">
+      <c r="G127" t="n">
         <v>1968</v>
       </c>
-      <c r="G127" t="inlineStr"/>
       <c r="H127" t="n">
         <v>4800</v>
       </c>
@@ -12210,6 +13174,12 @@
       <c r="AA127" t="inlineStr"/>
       <c r="AB127" t="inlineStr"/>
       <c r="AC127" t="inlineStr"/>
+      <c r="AD127" t="n">
+        <v>217.6470588235294</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>0.5094664371772806</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -12218,23 +13188,25 @@
       <c r="B128" t="n">
         <v>126</v>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C128" t="n">
+        <v>126</v>
+      </c>
+      <c r="D128" t="n">
+        <v>126</v>
+      </c>
+      <c r="E128" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>737-200C</t>
         </is>
       </c>
-      <c r="E128" t="n">
-        <v>86</v>
-      </c>
-      <c r="F128" t="n">
+      <c r="G128" t="n">
         <v>1968</v>
       </c>
-      <c r="G128" t="inlineStr"/>
       <c r="H128" t="n">
         <v>4800</v>
       </c>
@@ -12305,6 +13277,12 @@
       <c r="AA128" t="inlineStr"/>
       <c r="AB128" t="inlineStr"/>
       <c r="AC128" t="inlineStr"/>
+      <c r="AD128" t="n">
+        <v>217.6470588235294</v>
+      </c>
+      <c r="AE128" t="n">
+        <v>0.5094664371772806</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -12313,23 +13291,25 @@
       <c r="B129" t="n">
         <v>127</v>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C129" t="n">
+        <v>127</v>
+      </c>
+      <c r="D129" t="n">
+        <v>127</v>
+      </c>
+      <c r="E129" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>737-200C</t>
         </is>
       </c>
-      <c r="E129" t="n">
-        <v>86</v>
-      </c>
-      <c r="F129" t="n">
+      <c r="G129" t="n">
         <v>1968</v>
       </c>
-      <c r="G129" t="inlineStr"/>
       <c r="H129" t="n">
         <v>4800</v>
       </c>
@@ -12390,6 +13370,12 @@
       <c r="AA129" t="inlineStr"/>
       <c r="AB129" t="inlineStr"/>
       <c r="AC129" t="inlineStr"/>
+      <c r="AD129" t="n">
+        <v>217.6470588235294</v>
+      </c>
+      <c r="AE129" t="n">
+        <v>0.5094664371772806</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -12398,23 +13384,25 @@
       <c r="B130" t="n">
         <v>128</v>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C130" t="n">
+        <v>128</v>
+      </c>
+      <c r="D130" t="n">
+        <v>128</v>
+      </c>
+      <c r="E130" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>737-200C</t>
         </is>
       </c>
-      <c r="E130" t="n">
-        <v>86</v>
-      </c>
-      <c r="F130" t="n">
+      <c r="G130" t="n">
         <v>1968</v>
       </c>
-      <c r="G130" t="inlineStr"/>
       <c r="H130" t="n">
         <v>4800</v>
       </c>
@@ -12485,6 +13473,12 @@
       <c r="AA130" t="inlineStr"/>
       <c r="AB130" t="inlineStr"/>
       <c r="AC130" t="inlineStr"/>
+      <c r="AD130" t="n">
+        <v>217.6470588235294</v>
+      </c>
+      <c r="AE130" t="n">
+        <v>0.5094664371772806</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -12493,23 +13487,25 @@
       <c r="B131" t="n">
         <v>129</v>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C131" t="n">
+        <v>129</v>
+      </c>
+      <c r="D131" t="n">
+        <v>129</v>
+      </c>
+      <c r="E131" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>737-200C</t>
         </is>
       </c>
-      <c r="E131" t="n">
-        <v>86</v>
-      </c>
-      <c r="F131" t="n">
+      <c r="G131" t="n">
         <v>1968</v>
       </c>
-      <c r="G131" t="inlineStr"/>
       <c r="H131" t="n">
         <v>4800</v>
       </c>
@@ -12580,6 +13576,12 @@
       <c r="AA131" t="inlineStr"/>
       <c r="AB131" t="inlineStr"/>
       <c r="AC131" t="inlineStr"/>
+      <c r="AD131" t="n">
+        <v>217.6470588235294</v>
+      </c>
+      <c r="AE131" t="n">
+        <v>0.5094664371772806</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -12588,23 +13590,25 @@
       <c r="B132" t="n">
         <v>130</v>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C132" t="n">
+        <v>130</v>
+      </c>
+      <c r="D132" t="n">
+        <v>130</v>
+      </c>
+      <c r="E132" t="inlineStr">
         <is>
           <t xml:space="preserve">Fokker </t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>Fokker 100</t>
         </is>
       </c>
-      <c r="E132" t="n">
-        <v>79</v>
-      </c>
-      <c r="F132" t="n">
+      <c r="G132" t="n">
         <v>1988</v>
       </c>
-      <c r="G132" t="inlineStr"/>
       <c r="H132" t="n">
         <v>2505</v>
       </c>
@@ -12669,6 +13673,12 @@
       </c>
       <c r="AB132" t="inlineStr"/>
       <c r="AC132" t="inlineStr"/>
+      <c r="AD132" t="n">
+        <v>199.7950819672131</v>
+      </c>
+      <c r="AE132" t="n">
+        <v>0.5656764910652123</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -12677,23 +13687,25 @@
       <c r="B133" t="n">
         <v>131</v>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C133" t="n">
+        <v>131</v>
+      </c>
+      <c r="D133" t="n">
+        <v>131</v>
+      </c>
+      <c r="E133" t="inlineStr">
         <is>
           <t xml:space="preserve">Fokker </t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>Fokker 100</t>
         </is>
       </c>
-      <c r="E133" t="n">
-        <v>79</v>
-      </c>
-      <c r="F133" t="n">
+      <c r="G133" t="n">
         <v>1988</v>
       </c>
-      <c r="G133" t="inlineStr"/>
       <c r="H133" t="n">
         <v>2505</v>
       </c>
@@ -12758,6 +13770,12 @@
       </c>
       <c r="AB133" t="inlineStr"/>
       <c r="AC133" t="inlineStr"/>
+      <c r="AD133" t="n">
+        <v>199.7950819672131</v>
+      </c>
+      <c r="AE133" t="n">
+        <v>0.5656764910652123</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -12766,23 +13784,25 @@
       <c r="B134" t="n">
         <v>132</v>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="C134" t="n">
+        <v>132</v>
+      </c>
+      <c r="D134" t="n">
+        <v>132</v>
+      </c>
+      <c r="E134" t="inlineStr">
         <is>
           <t xml:space="preserve">Gates Learjet </t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>Lear-31/35/36</t>
         </is>
       </c>
-      <c r="E134" t="n">
-        <v>74</v>
-      </c>
-      <c r="F134" t="n">
+      <c r="G134" t="n">
         <v>1974</v>
       </c>
-      <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -12817,6 +13837,8 @@
       </c>
       <c r="AB134" t="inlineStr"/>
       <c r="AC134" t="inlineStr"/>
+      <c r="AD134" t="inlineStr"/>
+      <c r="AE134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -12825,23 +13847,25 @@
       <c r="B135" t="n">
         <v>133</v>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="C135" t="n">
+        <v>133</v>
+      </c>
+      <c r="D135" t="n">
+        <v>133</v>
+      </c>
+      <c r="E135" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>747SP</t>
         </is>
       </c>
-      <c r="E135" t="n">
-        <v>69</v>
-      </c>
-      <c r="F135" t="n">
+      <c r="G135" t="n">
         <v>1976</v>
       </c>
-      <c r="G135" t="inlineStr"/>
       <c r="H135" t="n">
         <v>12325</v>
       </c>
@@ -12902,6 +13926,12 @@
       <c r="AA135" t="inlineStr"/>
       <c r="AB135" t="inlineStr"/>
       <c r="AC135" t="inlineStr"/>
+      <c r="AD135" t="n">
+        <v>382</v>
+      </c>
+      <c r="AE135" t="n">
+        <v>0.4812598425196851</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -12910,23 +13940,25 @@
       <c r="B136" t="n">
         <v>134</v>
       </c>
-      <c r="C136" t="inlineStr">
+      <c r="C136" t="n">
+        <v>134</v>
+      </c>
+      <c r="D136" t="n">
+        <v>134</v>
+      </c>
+      <c r="E136" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>747SP</t>
         </is>
       </c>
-      <c r="E136" t="n">
-        <v>69</v>
-      </c>
-      <c r="F136" t="n">
+      <c r="G136" t="n">
         <v>1976</v>
       </c>
-      <c r="G136" t="inlineStr"/>
       <c r="H136" t="n">
         <v>12325</v>
       </c>
@@ -12987,6 +14019,12 @@
       <c r="AA136" t="inlineStr"/>
       <c r="AB136" t="inlineStr"/>
       <c r="AC136" t="inlineStr"/>
+      <c r="AD136" t="n">
+        <v>382</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>0.4812598425196851</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -12995,23 +14033,25 @@
       <c r="B137" t="n">
         <v>135</v>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="C137" t="n">
+        <v>135</v>
+      </c>
+      <c r="D137" t="n">
+        <v>135</v>
+      </c>
+      <c r="E137" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>747SP</t>
         </is>
       </c>
-      <c r="E137" t="n">
-        <v>69</v>
-      </c>
-      <c r="F137" t="n">
+      <c r="G137" t="n">
         <v>1976</v>
       </c>
-      <c r="G137" t="inlineStr"/>
       <c r="H137" t="n">
         <v>12325</v>
       </c>
@@ -13072,6 +14112,12 @@
       <c r="AA137" t="inlineStr"/>
       <c r="AB137" t="inlineStr"/>
       <c r="AC137" t="inlineStr"/>
+      <c r="AD137" t="n">
+        <v>382</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>0.4812598425196851</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -13080,23 +14126,25 @@
       <c r="B138" t="n">
         <v>136</v>
       </c>
-      <c r="C138" t="inlineStr">
+      <c r="C138" t="n">
+        <v>136</v>
+      </c>
+      <c r="D138" t="n">
+        <v>136</v>
+      </c>
+      <c r="E138" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>747SP</t>
         </is>
       </c>
-      <c r="E138" t="n">
-        <v>69</v>
-      </c>
-      <c r="F138" t="n">
+      <c r="G138" t="n">
         <v>1976</v>
       </c>
-      <c r="G138" t="inlineStr"/>
       <c r="H138" t="n">
         <v>12325</v>
       </c>
@@ -13167,6 +14215,12 @@
       <c r="AA138" t="inlineStr"/>
       <c r="AB138" t="inlineStr"/>
       <c r="AC138" t="inlineStr"/>
+      <c r="AD138" t="n">
+        <v>382</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>0.4812598425196851</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -13175,23 +14229,25 @@
       <c r="B139" t="n">
         <v>137</v>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="C139" t="n">
+        <v>137</v>
+      </c>
+      <c r="D139" t="n">
+        <v>137</v>
+      </c>
+      <c r="E139" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>A320-200n</t>
         </is>
       </c>
-      <c r="E139" t="n">
-        <v>66</v>
-      </c>
-      <c r="F139" t="n">
+      <c r="G139" t="n">
         <v>2016</v>
       </c>
-      <c r="G139" t="inlineStr"/>
       <c r="H139" t="n">
         <v>6500</v>
       </c>
@@ -13244,6 +14300,12 @@
       <c r="AA139" t="inlineStr"/>
       <c r="AB139" t="inlineStr"/>
       <c r="AC139" t="inlineStr"/>
+      <c r="AD139" t="n">
+        <v>227.1794871794872</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>0.5607594936708861</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -13252,23 +14314,25 @@
       <c r="B140" t="n">
         <v>138</v>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C140" t="n">
+        <v>138</v>
+      </c>
+      <c r="D140" t="n">
+        <v>138</v>
+      </c>
+      <c r="E140" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>A320-200n</t>
         </is>
       </c>
-      <c r="E140" t="n">
-        <v>66</v>
-      </c>
-      <c r="F140" t="n">
+      <c r="G140" t="n">
         <v>2016</v>
       </c>
-      <c r="G140" t="inlineStr"/>
       <c r="H140" t="n">
         <v>6500</v>
       </c>
@@ -13321,6 +14385,12 @@
       <c r="AA140" t="inlineStr"/>
       <c r="AB140" t="inlineStr"/>
       <c r="AC140" t="inlineStr"/>
+      <c r="AD140" t="n">
+        <v>227.1794871794872</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>0.5607594936708861</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -13329,23 +14399,25 @@
       <c r="B141" t="n">
         <v>139</v>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C141" t="n">
+        <v>139</v>
+      </c>
+      <c r="D141" t="n">
+        <v>139</v>
+      </c>
+      <c r="E141" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>A350-900</t>
         </is>
       </c>
-      <c r="E141" t="n">
-        <v>63</v>
-      </c>
-      <c r="F141" t="n">
+      <c r="G141" t="n">
         <v>2014</v>
       </c>
-      <c r="G141" t="inlineStr"/>
       <c r="H141" t="n">
         <v>15372</v>
       </c>
@@ -13398,6 +14470,12 @@
       <c r="AA141" t="inlineStr"/>
       <c r="AB141" t="inlineStr"/>
       <c r="AC141" t="inlineStr"/>
+      <c r="AD141" t="n">
+        <v>323.6363636363636</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>0.5031802120141343</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -13406,23 +14484,25 @@
       <c r="B142" t="n">
         <v>140</v>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C142" t="n">
+        <v>140</v>
+      </c>
+      <c r="D142" t="n">
+        <v>140</v>
+      </c>
+      <c r="E142" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t>B737 Max 800</t>
         </is>
       </c>
-      <c r="E142" t="n">
-        <v>54</v>
-      </c>
-      <c r="F142" t="n">
+      <c r="G142" t="n">
         <v>2017</v>
       </c>
-      <c r="G142" t="inlineStr"/>
       <c r="H142" t="n">
         <v>6570</v>
       </c>
@@ -13479,6 +14559,12 @@
       <c r="AC142" t="n">
         <v>171</v>
       </c>
+      <c r="AD142" t="n">
+        <v>214.6190476190476</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>0.5456416464891041</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -13487,23 +14573,25 @@
       <c r="B143" t="n">
         <v>141</v>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="C143" t="n">
+        <v>141</v>
+      </c>
+      <c r="D143" t="n">
+        <v>141</v>
+      </c>
+      <c r="E143" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="F143" t="inlineStr">
         <is>
           <t>787-10 Dreamliner</t>
         </is>
       </c>
-      <c r="E143" t="n">
-        <v>44</v>
-      </c>
-      <c r="F143" t="n">
+      <c r="G143" t="n">
         <v>2018</v>
       </c>
-      <c r="G143" t="inlineStr"/>
       <c r="H143" t="n">
         <v>11910</v>
       </c>
@@ -13560,6 +14648,12 @@
       <c r="AC143" t="n">
         <v>318</v>
       </c>
+      <c r="AD143" t="n">
+        <v>307.9545454545454</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>0.5334414651333997</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -13568,23 +14662,25 @@
       <c r="B144" t="n">
         <v>142</v>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="C144" t="n">
+        <v>142</v>
+      </c>
+      <c r="D144" t="n">
+        <v>142</v>
+      </c>
+      <c r="E144" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="F144" t="inlineStr">
         <is>
           <t>787-10 Dreamliner</t>
         </is>
       </c>
-      <c r="E144" t="n">
-        <v>44</v>
-      </c>
-      <c r="F144" t="n">
+      <c r="G144" t="n">
         <v>2018</v>
       </c>
-      <c r="G144" t="inlineStr"/>
       <c r="H144" t="n">
         <v>11910</v>
       </c>
@@ -13641,6 +14737,12 @@
       <c r="AC144" t="n">
         <v>318</v>
       </c>
+      <c r="AD144" t="n">
+        <v>307.9545454545454</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>0.5334414651333997</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -13649,23 +14751,25 @@
       <c r="B145" t="n">
         <v>143</v>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="C145" t="n">
+        <v>143</v>
+      </c>
+      <c r="D145" t="n">
+        <v>143</v>
+      </c>
+      <c r="E145" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>A300B/C/F-100/200</t>
         </is>
       </c>
-      <c r="E145" t="n">
-        <v>41</v>
-      </c>
-      <c r="F145" t="n">
+      <c r="G145" t="n">
         <v>1974</v>
       </c>
-      <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -13700,6 +14804,8 @@
       </c>
       <c r="AB145" t="inlineStr"/>
       <c r="AC145" t="inlineStr"/>
+      <c r="AD145" t="inlineStr"/>
+      <c r="AE145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -13708,23 +14814,25 @@
       <c r="B146" t="n">
         <v>144</v>
       </c>
-      <c r="C146" t="inlineStr">
+      <c r="C146" t="n">
+        <v>144</v>
+      </c>
+      <c r="D146" t="n">
+        <v>144</v>
+      </c>
+      <c r="E146" t="inlineStr">
         <is>
           <t xml:space="preserve">Embraer </t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="F146" t="inlineStr">
         <is>
           <t>EMB-120 Brasilia</t>
         </is>
       </c>
-      <c r="E146" t="n">
-        <v>41</v>
-      </c>
-      <c r="F146" t="n">
+      <c r="G146" t="n">
         <v>1985</v>
       </c>
-      <c r="G146" t="inlineStr"/>
       <c r="H146" t="n">
         <v>1750</v>
       </c>
@@ -13734,7 +14842,7 @@
       <c r="L146" t="inlineStr"/>
       <c r="M146" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="N146" t="n">
@@ -13775,6 +14883,12 @@
       <c r="AA146" t="inlineStr"/>
       <c r="AB146" t="inlineStr"/>
       <c r="AC146" t="inlineStr"/>
+      <c r="AD146" t="n">
+        <v>235.6666666666667</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>0.6147826086956522</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -13783,23 +14897,25 @@
       <c r="B147" t="n">
         <v>145</v>
       </c>
-      <c r="C147" t="inlineStr">
+      <c r="C147" t="n">
+        <v>145</v>
+      </c>
+      <c r="D147" t="n">
+        <v>145</v>
+      </c>
+      <c r="E147" t="inlineStr">
         <is>
           <t xml:space="preserve">Embraer </t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>EMB-120 Brasilia</t>
         </is>
       </c>
-      <c r="E147" t="n">
-        <v>41</v>
-      </c>
-      <c r="F147" t="n">
+      <c r="G147" t="n">
         <v>1985</v>
       </c>
-      <c r="G147" t="inlineStr"/>
       <c r="H147" t="n">
         <v>1750</v>
       </c>
@@ -13809,7 +14925,7 @@
       <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="N147" t="n">
@@ -13850,6 +14966,12 @@
       <c r="AA147" t="inlineStr"/>
       <c r="AB147" t="inlineStr"/>
       <c r="AC147" t="inlineStr"/>
+      <c r="AD147" t="n">
+        <v>235.6666666666667</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>0.6147826086956522</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -13858,23 +14980,25 @@
       <c r="B148" t="n">
         <v>146</v>
       </c>
-      <c r="C148" t="inlineStr">
+      <c r="C148" t="n">
+        <v>146</v>
+      </c>
+      <c r="D148" t="n">
+        <v>146</v>
+      </c>
+      <c r="E148" t="inlineStr">
         <is>
           <t xml:space="preserve">Embraer </t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="F148" t="inlineStr">
         <is>
           <t>EMB-120 Brasilia</t>
         </is>
       </c>
-      <c r="E148" t="n">
-        <v>41</v>
-      </c>
-      <c r="F148" t="n">
+      <c r="G148" t="n">
         <v>1985</v>
       </c>
-      <c r="G148" t="inlineStr"/>
       <c r="H148" t="n">
         <v>1750</v>
       </c>
@@ -13884,7 +15008,7 @@
       <c r="L148" t="inlineStr"/>
       <c r="M148" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="N148" t="n">
@@ -13925,6 +15049,12 @@
       <c r="AA148" t="inlineStr"/>
       <c r="AB148" t="inlineStr"/>
       <c r="AC148" t="inlineStr"/>
+      <c r="AD148" t="n">
+        <v>235.6666666666667</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>0.6147826086956522</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -13933,23 +15063,25 @@
       <c r="B149" t="n">
         <v>147</v>
       </c>
-      <c r="C149" t="inlineStr">
+      <c r="C149" t="n">
+        <v>147</v>
+      </c>
+      <c r="D149" t="n">
+        <v>147</v>
+      </c>
+      <c r="E149" t="inlineStr">
         <is>
           <t xml:space="preserve">Saab-Fairchild </t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="F149" t="inlineStr">
         <is>
           <t>340/B</t>
         </is>
       </c>
-      <c r="E149" t="n">
-        <v>39</v>
-      </c>
-      <c r="F149" t="n">
+      <c r="G149" t="n">
         <v>1984</v>
       </c>
-      <c r="G149" t="inlineStr"/>
       <c r="H149" t="n">
         <v>870</v>
       </c>
@@ -13959,7 +15091,7 @@
       <c r="L149" t="inlineStr"/>
       <c r="M149" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="N149" t="n">
@@ -14000,6 +15132,12 @@
       <c r="AA149" t="inlineStr"/>
       <c r="AB149" t="inlineStr"/>
       <c r="AC149" t="inlineStr"/>
+      <c r="AD149" t="n">
+        <v>253.4705882352941</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>0.6551619279306675</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -14008,23 +15146,25 @@
       <c r="B150" t="n">
         <v>148</v>
       </c>
-      <c r="C150" t="inlineStr">
+      <c r="C150" t="n">
+        <v>148</v>
+      </c>
+      <c r="D150" t="n">
+        <v>148</v>
+      </c>
+      <c r="E150" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="F150" t="inlineStr">
         <is>
           <t>A330-900</t>
         </is>
       </c>
-      <c r="E150" t="n">
-        <v>38</v>
-      </c>
-      <c r="F150" t="n">
+      <c r="G150" t="n">
         <v>2018</v>
       </c>
-      <c r="G150" t="inlineStr"/>
       <c r="H150" t="n">
         <v>13334</v>
       </c>
@@ -14081,6 +15221,12 @@
       <c r="AC150" t="n">
         <v>280</v>
       </c>
+      <c r="AD150" t="n">
+        <v>293.4782608695652</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>0.5378486055776892</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -14089,23 +15235,25 @@
       <c r="B151" t="n">
         <v>149</v>
       </c>
-      <c r="C151" t="inlineStr">
+      <c r="C151" t="n">
+        <v>149</v>
+      </c>
+      <c r="D151" t="n">
+        <v>149</v>
+      </c>
+      <c r="E151" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>A-318</t>
         </is>
       </c>
-      <c r="E151" t="n">
-        <v>33</v>
-      </c>
-      <c r="F151" t="n">
+      <c r="G151" t="n">
         <v>2003</v>
       </c>
-      <c r="G151" t="inlineStr"/>
       <c r="H151" t="n">
         <v>5750</v>
       </c>
@@ -14166,6 +15314,12 @@
       <c r="AA151" t="inlineStr"/>
       <c r="AB151" t="inlineStr"/>
       <c r="AC151" t="inlineStr"/>
+      <c r="AD151" t="n">
+        <v>287.0220588235294</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>0.5740441176470589</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -14174,23 +15328,25 @@
       <c r="B152" t="n">
         <v>150</v>
       </c>
-      <c r="C152" t="inlineStr">
+      <c r="C152" t="n">
+        <v>150</v>
+      </c>
+      <c r="D152" t="n">
+        <v>150</v>
+      </c>
+      <c r="E152" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="F152" t="inlineStr">
         <is>
           <t>A-318</t>
         </is>
       </c>
-      <c r="E152" t="n">
-        <v>33</v>
-      </c>
-      <c r="F152" t="n">
+      <c r="G152" t="n">
         <v>2003</v>
       </c>
-      <c r="G152" t="inlineStr"/>
       <c r="H152" t="n">
         <v>5750</v>
       </c>
@@ -14251,6 +15407,12 @@
       <c r="AA152" t="inlineStr"/>
       <c r="AB152" t="inlineStr"/>
       <c r="AC152" t="inlineStr"/>
+      <c r="AD152" t="n">
+        <v>287.0220588235294</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>0.5740441176470589</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -14259,23 +15421,25 @@
       <c r="B153" t="n">
         <v>151</v>
       </c>
-      <c r="C153" t="inlineStr">
+      <c r="C153" t="n">
+        <v>151</v>
+      </c>
+      <c r="D153" t="n">
+        <v>151</v>
+      </c>
+      <c r="E153" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
+      <c r="F153" t="inlineStr">
         <is>
           <t>A-318</t>
         </is>
       </c>
-      <c r="E153" t="n">
-        <v>33</v>
-      </c>
-      <c r="F153" t="n">
+      <c r="G153" t="n">
         <v>2003</v>
       </c>
-      <c r="G153" t="inlineStr"/>
       <c r="H153" t="n">
         <v>5750</v>
       </c>
@@ -14336,6 +15500,12 @@
       <c r="AA153" t="inlineStr"/>
       <c r="AB153" t="inlineStr"/>
       <c r="AC153" t="inlineStr"/>
+      <c r="AD153" t="n">
+        <v>287.0220588235294</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>0.5740441176470589</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -14344,23 +15514,25 @@
       <c r="B154" t="n">
         <v>152</v>
       </c>
-      <c r="C154" t="inlineStr">
+      <c r="C154" t="n">
+        <v>152</v>
+      </c>
+      <c r="D154" t="n">
+        <v>152</v>
+      </c>
+      <c r="E154" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="F154" t="inlineStr">
         <is>
           <t>A-318</t>
         </is>
       </c>
-      <c r="E154" t="n">
-        <v>33</v>
-      </c>
-      <c r="F154" t="n">
+      <c r="G154" t="n">
         <v>2003</v>
       </c>
-      <c r="G154" t="inlineStr"/>
       <c r="H154" t="n">
         <v>5750</v>
       </c>
@@ -14411,6 +15583,12 @@
       <c r="AA154" t="inlineStr"/>
       <c r="AB154" t="inlineStr"/>
       <c r="AC154" t="inlineStr"/>
+      <c r="AD154" t="n">
+        <v>287.0220588235294</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>0.5740441176470589</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -14419,23 +15597,25 @@
       <c r="B155" t="n">
         <v>153</v>
       </c>
-      <c r="C155" t="inlineStr">
+      <c r="C155" t="n">
+        <v>153</v>
+      </c>
+      <c r="D155" t="n">
+        <v>153</v>
+      </c>
+      <c r="E155" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="F155" t="inlineStr">
         <is>
           <t>A310-200C/F</t>
         </is>
       </c>
-      <c r="E155" t="n">
-        <v>30</v>
-      </c>
-      <c r="F155" t="n">
+      <c r="G155" t="n">
         <v>1983</v>
       </c>
-      <c r="G155" t="inlineStr"/>
       <c r="H155" t="n">
         <v>6500</v>
       </c>
@@ -14498,6 +15678,12 @@
       <c r="AA155" t="inlineStr"/>
       <c r="AB155" t="inlineStr"/>
       <c r="AC155" t="inlineStr"/>
+      <c r="AD155" t="n">
+        <v>281.4545454545454</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>0.5375</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -14506,23 +15692,25 @@
       <c r="B156" t="n">
         <v>154</v>
       </c>
-      <c r="C156" t="inlineStr">
+      <c r="C156" t="n">
+        <v>154</v>
+      </c>
+      <c r="D156" t="n">
+        <v>154</v>
+      </c>
+      <c r="E156" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="F156" t="inlineStr">
         <is>
           <t>A310-200C/F</t>
         </is>
       </c>
-      <c r="E156" t="n">
-        <v>30</v>
-      </c>
-      <c r="F156" t="n">
+      <c r="G156" t="n">
         <v>1983</v>
       </c>
-      <c r="G156" t="inlineStr"/>
       <c r="H156" t="n">
         <v>6500</v>
       </c>
@@ -14595,6 +15783,12 @@
       <c r="AA156" t="inlineStr"/>
       <c r="AB156" t="inlineStr"/>
       <c r="AC156" t="inlineStr"/>
+      <c r="AD156" t="n">
+        <v>281.4545454545454</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>0.5375</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -14603,23 +15797,25 @@
       <c r="B157" t="n">
         <v>155</v>
       </c>
-      <c r="C157" t="inlineStr">
+      <c r="C157" t="n">
+        <v>155</v>
+      </c>
+      <c r="D157" t="n">
+        <v>155</v>
+      </c>
+      <c r="E157" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="F157" t="inlineStr">
         <is>
           <t>A310-200C/F</t>
         </is>
       </c>
-      <c r="E157" t="n">
-        <v>30</v>
-      </c>
-      <c r="F157" t="n">
+      <c r="G157" t="n">
         <v>1983</v>
       </c>
-      <c r="G157" t="inlineStr"/>
       <c r="H157" t="n">
         <v>6500</v>
       </c>
@@ -14682,6 +15878,12 @@
       <c r="AA157" t="inlineStr"/>
       <c r="AB157" t="inlineStr"/>
       <c r="AC157" t="inlineStr"/>
+      <c r="AD157" t="n">
+        <v>288</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -14690,23 +15892,25 @@
       <c r="B158" t="n">
         <v>156</v>
       </c>
-      <c r="C158" t="inlineStr">
+      <c r="C158" t="n">
+        <v>156</v>
+      </c>
+      <c r="D158" t="n">
+        <v>156</v>
+      </c>
+      <c r="E158" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="F158" t="inlineStr">
         <is>
           <t>B737 Max 900</t>
         </is>
       </c>
-      <c r="E158" t="n">
-        <v>25</v>
-      </c>
-      <c r="F158" t="n">
+      <c r="G158" t="n">
         <v>2018</v>
       </c>
-      <c r="G158" t="inlineStr"/>
       <c r="H158" t="n">
         <v>6570</v>
       </c>
@@ -14763,6 +15967,12 @@
       <c r="AC158" t="n">
         <v>178</v>
       </c>
+      <c r="AD158" t="n">
+        <v>193.15</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>0.4811799343222738</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -14771,23 +15981,25 @@
       <c r="B159" t="n">
         <v>157</v>
       </c>
-      <c r="C159" t="inlineStr">
+      <c r="C159" t="n">
+        <v>157</v>
+      </c>
+      <c r="D159" t="n">
+        <v>157</v>
+      </c>
+      <c r="E159" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
+      <c r="F159" t="inlineStr">
         <is>
           <t>A320-200n</t>
         </is>
       </c>
-      <c r="E159" t="n">
-        <v>66</v>
-      </c>
-      <c r="F159" t="n">
+      <c r="G159" t="n">
         <v>2016</v>
       </c>
-      <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -14826,6 +16038,8 @@
       <c r="AA159" t="inlineStr"/>
       <c r="AB159" t="inlineStr"/>
       <c r="AC159" t="inlineStr"/>
+      <c r="AD159" t="inlineStr"/>
+      <c r="AE159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -14834,23 +16048,25 @@
       <c r="B160" t="n">
         <v>158</v>
       </c>
-      <c r="C160" t="inlineStr">
+      <c r="C160" t="n">
+        <v>158</v>
+      </c>
+      <c r="D160" t="n">
+        <v>158</v>
+      </c>
+      <c r="E160" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
+      <c r="F160" t="inlineStr">
         <is>
           <t>A320-200n</t>
         </is>
       </c>
-      <c r="E160" t="n">
-        <v>66</v>
-      </c>
-      <c r="F160" t="n">
+      <c r="G160" t="n">
         <v>2016</v>
       </c>
-      <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -14889,6 +16105,8 @@
       <c r="AA160" t="inlineStr"/>
       <c r="AB160" t="inlineStr"/>
       <c r="AC160" t="inlineStr"/>
+      <c r="AD160" t="inlineStr"/>
+      <c r="AE160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -14897,23 +16115,25 @@
       <c r="B161" t="n">
         <v>159</v>
       </c>
-      <c r="C161" t="inlineStr">
+      <c r="C161" t="n">
+        <v>159</v>
+      </c>
+      <c r="D161" t="n">
+        <v>159</v>
+      </c>
+      <c r="E161" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="F161" t="inlineStr">
         <is>
           <t>B757-200</t>
         </is>
       </c>
-      <c r="E161" t="n">
-        <v>1652</v>
-      </c>
-      <c r="F161" t="n">
+      <c r="G161" t="n">
         <v>1984</v>
       </c>
-      <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="n">
         <v>84360</v>
@@ -14966,6 +16186,12 @@
       <c r="AC161" t="n">
         <v>186</v>
       </c>
+      <c r="AD161" t="n">
+        <v>244.5188284518829</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>0.5052740791976483</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -14974,23 +16200,25 @@
       <c r="B162" t="n">
         <v>160</v>
       </c>
-      <c r="C162" t="inlineStr">
+      <c r="C162" t="n">
+        <v>160</v>
+      </c>
+      <c r="D162" t="n">
+        <v>160</v>
+      </c>
+      <c r="E162" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="F162" t="inlineStr">
         <is>
           <t>B767-300/300ER</t>
         </is>
       </c>
-      <c r="E162" t="n">
-        <v>1403</v>
-      </c>
-      <c r="F162" t="n">
+      <c r="G162" t="n">
         <v>1987</v>
       </c>
-      <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="n">
         <v>129950</v>
@@ -15043,6 +16271,12 @@
       <c r="AC162" t="n">
         <v>228</v>
       </c>
+      <c r="AD162" t="n">
+        <v>250.8547008547009</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>0.5179411764705882</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -15051,23 +16285,25 @@
       <c r="B163" t="n">
         <v>161</v>
       </c>
-      <c r="C163" t="inlineStr">
+      <c r="C163" t="n">
+        <v>161</v>
+      </c>
+      <c r="D163" t="n">
+        <v>161</v>
+      </c>
+      <c r="E163" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
+      <c r="F163" t="inlineStr">
         <is>
           <t>B777</t>
         </is>
       </c>
-      <c r="E163" t="n">
-        <v>1227</v>
-      </c>
-      <c r="F163" t="n">
+      <c r="G163" t="n">
         <v>1995</v>
       </c>
-      <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="n">
         <v>195000</v>
@@ -15120,6 +16356,12 @@
       <c r="AC163" t="n">
         <v>273</v>
       </c>
+      <c r="AD163" t="n">
+        <v>311.3068181818182</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>0.5028912345112437</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -15128,23 +16370,25 @@
       <c r="B164" t="n">
         <v>162</v>
       </c>
-      <c r="C164" t="inlineStr">
+      <c r="C164" t="n">
+        <v>162</v>
+      </c>
+      <c r="D164" t="n">
+        <v>162</v>
+      </c>
+      <c r="E164" t="inlineStr">
         <is>
           <t>Airbus Industrie</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
+      <c r="F164" t="inlineStr">
         <is>
           <t>A320-100/200</t>
         </is>
       </c>
-      <c r="E164" t="n">
-        <v>1090</v>
-      </c>
-      <c r="F164" t="n">
+      <c r="G164" t="n">
         <v>1988</v>
       </c>
-      <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="n">
         <v>62500</v>
@@ -15197,6 +16441,12 @@
       <c r="AC164" t="n">
         <v>156</v>
       </c>
+      <c r="AD164" t="n">
+        <v>218.4615384615385</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>0.5461538461538461</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -15205,23 +16455,25 @@
       <c r="B165" t="n">
         <v>163</v>
       </c>
-      <c r="C165" t="inlineStr">
+      <c r="C165" t="n">
+        <v>163</v>
+      </c>
+      <c r="D165" t="n">
+        <v>163</v>
+      </c>
+      <c r="E165" t="inlineStr">
         <is>
           <t>Boeing</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="F165" t="inlineStr">
         <is>
           <t>B767-200/ER/EM</t>
         </is>
       </c>
-      <c r="E165" t="n">
-        <v>982</v>
-      </c>
-      <c r="F165" t="n">
+      <c r="G165" t="n">
         <v>1983</v>
       </c>
-      <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="n">
         <v>115700</v>
@@ -15274,6 +16526,12 @@
       <c r="AC165" t="n">
         <v>186</v>
       </c>
+      <c r="AD165" t="n">
+        <v>280.1724137931034</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>0.5078125</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -15282,23 +16540,25 @@
       <c r="B166" t="n">
         <v>164</v>
       </c>
-      <c r="C166" t="inlineStr">
+      <c r="C166" t="n">
+        <v>164</v>
+      </c>
+      <c r="D166" t="n">
+        <v>164</v>
+      </c>
+      <c r="E166" t="inlineStr">
         <is>
           <t>Boeing</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
+      <c r="F166" t="inlineStr">
         <is>
           <t>B737-300</t>
         </is>
       </c>
-      <c r="E166" t="n">
-        <v>780</v>
-      </c>
-      <c r="F166" t="n">
+      <c r="G166" t="n">
         <v>1984</v>
       </c>
-      <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="n">
         <v>49710</v>
@@ -15351,6 +16611,12 @@
       <c r="AC166" t="n">
         <v>131</v>
       </c>
+      <c r="AD166" t="n">
+        <v>220.2684563758389</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>0.5224450811843362</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -15359,23 +16625,25 @@
       <c r="B167" t="n">
         <v>165</v>
       </c>
-      <c r="C167" t="inlineStr">
+      <c r="C167" t="n">
+        <v>165</v>
+      </c>
+      <c r="D167" t="n">
+        <v>165</v>
+      </c>
+      <c r="E167" t="inlineStr">
         <is>
           <t>McDonnell Douglas</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
+      <c r="F167" t="inlineStr">
         <is>
           <t>MD80/DC9-80</t>
         </is>
       </c>
-      <c r="E167" t="n">
-        <v>778</v>
-      </c>
-      <c r="F167" t="n">
+      <c r="G167" t="n">
         <v>1980</v>
       </c>
-      <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
@@ -15426,6 +16694,12 @@
       <c r="AC167" t="n">
         <v>141</v>
       </c>
+      <c r="AD167" t="n">
+        <v>207.8488372093023</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>0.5107142857142857</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -15434,23 +16708,25 @@
       <c r="B168" t="n">
         <v>166</v>
       </c>
-      <c r="C168" t="inlineStr">
+      <c r="C168" t="n">
+        <v>166</v>
+      </c>
+      <c r="D168" t="n">
+        <v>166</v>
+      </c>
+      <c r="E168" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
+      <c r="F168" t="inlineStr">
         <is>
           <t>B747-400</t>
         </is>
       </c>
-      <c r="E168" t="n">
-        <v>666</v>
-      </c>
-      <c r="F168" t="n">
+      <c r="G168" t="n">
         <v>1989</v>
       </c>
-      <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
@@ -15501,6 +16777,12 @@
       <c r="AC168" t="n">
         <v>386</v>
       </c>
+      <c r="AD168" t="n">
+        <v>332.7272727272727</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>0.4518518518518518</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -15509,23 +16791,25 @@
       <c r="B169" t="n">
         <v>167</v>
       </c>
-      <c r="C169" t="inlineStr">
+      <c r="C169" t="n">
+        <v>167</v>
+      </c>
+      <c r="D169" t="n">
+        <v>167</v>
+      </c>
+      <c r="E169" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
+      <c r="F169" t="inlineStr">
         <is>
           <t>B727-200/231A</t>
         </is>
       </c>
-      <c r="E169" t="n">
-        <v>570</v>
-      </c>
-      <c r="F169" t="n">
+      <c r="G169" t="n">
         <v>1967</v>
       </c>
-      <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
@@ -15576,6 +16860,12 @@
       <c r="AC169" t="n">
         <v>150</v>
       </c>
+      <c r="AD169" t="n">
+        <v>241.9047619047619</v>
+      </c>
+      <c r="AE169" t="n">
+        <v>0.5378823529411765</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -15584,23 +16874,25 @@
       <c r="B170" t="n">
         <v>168</v>
       </c>
-      <c r="C170" t="inlineStr">
+      <c r="C170" t="n">
+        <v>168</v>
+      </c>
+      <c r="D170" t="n">
+        <v>168</v>
+      </c>
+      <c r="E170" t="inlineStr">
         <is>
           <t>McDonnell Douglas</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
+      <c r="F170" t="inlineStr">
         <is>
           <t>DC10-30</t>
         </is>
       </c>
-      <c r="E170" t="n">
-        <v>445</v>
-      </c>
-      <c r="F170" t="n">
+      <c r="G170" t="n">
         <v>1972</v>
       </c>
-      <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
@@ -15651,6 +16943,12 @@
       <c r="AC170" t="n">
         <v>271</v>
       </c>
+      <c r="AD170" t="n">
+        <v>317.7421052631579</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>0.4796221558408542</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -15659,23 +16957,25 @@
       <c r="B171" t="n">
         <v>169</v>
       </c>
-      <c r="C171" t="inlineStr">
+      <c r="C171" t="n">
+        <v>169</v>
+      </c>
+      <c r="D171" t="n">
+        <v>169</v>
+      </c>
+      <c r="E171" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
+      <c r="F171" t="inlineStr">
         <is>
           <t>B737-400</t>
         </is>
       </c>
-      <c r="E171" t="n">
-        <v>389</v>
-      </c>
-      <c r="F171" t="n">
+      <c r="G171" t="n">
         <v>1988</v>
       </c>
-      <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="n">
         <v>53070</v>
@@ -15728,6 +17028,12 @@
       <c r="AC171" t="n">
         <v>143</v>
       </c>
+      <c r="AD171" t="n">
+        <v>185.2127659574468</v>
+      </c>
+      <c r="AE171" t="n">
+        <v>0.5117577895355673</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -15736,23 +17042,25 @@
       <c r="B172" t="n">
         <v>170</v>
       </c>
-      <c r="C172" t="inlineStr">
+      <c r="C172" t="n">
+        <v>170</v>
+      </c>
+      <c r="D172" t="n">
+        <v>170</v>
+      </c>
+      <c r="E172" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
+      <c r="F172" t="inlineStr">
         <is>
           <t>B737-100/200</t>
         </is>
       </c>
-      <c r="E172" t="n">
-        <v>369</v>
-      </c>
-      <c r="F172" t="n">
+      <c r="G172" t="n">
         <v>1967</v>
       </c>
-      <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
@@ -15801,6 +17109,12 @@
       <c r="AC172" t="n">
         <v>109</v>
       </c>
+      <c r="AD172" t="n">
+        <v>221.5384615384615</v>
+      </c>
+      <c r="AE172" t="n">
+        <v>0.5333333333333333</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -15809,23 +17123,25 @@
       <c r="B173" t="n">
         <v>171</v>
       </c>
-      <c r="C173" t="inlineStr">
+      <c r="C173" t="n">
+        <v>171</v>
+      </c>
+      <c r="D173" t="n">
+        <v>171</v>
+      </c>
+      <c r="E173" t="inlineStr">
         <is>
           <t>Boeing</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
+      <c r="F173" t="inlineStr">
         <is>
           <t>B737-500/600</t>
         </is>
       </c>
-      <c r="E173" t="n">
-        <v>338</v>
-      </c>
-      <c r="F173" t="n">
+      <c r="G173" t="n">
         <v>1990</v>
       </c>
-      <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="n">
         <v>46720</v>
@@ -15878,6 +17194,12 @@
       <c r="AC173" t="n">
         <v>113</v>
       </c>
+      <c r="AD173" t="n">
+        <v>220.3448275862069</v>
+      </c>
+      <c r="AE173" t="n">
+        <v>0.5276630883567299</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -15886,23 +17208,25 @@
       <c r="B174" t="n">
         <v>172</v>
       </c>
-      <c r="C174" t="inlineStr">
+      <c r="C174" t="n">
+        <v>172</v>
+      </c>
+      <c r="D174" t="n">
+        <v>172</v>
+      </c>
+      <c r="E174" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>B747-200/300</t>
         </is>
       </c>
-      <c r="E174" t="n">
-        <v>337</v>
-      </c>
-      <c r="F174" t="n">
+      <c r="G174" t="n">
         <v>1970</v>
       </c>
-      <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
@@ -15953,6 +17277,12 @@
       <c r="AC174" t="n">
         <v>391</v>
       </c>
+      <c r="AD174" t="n">
+        <v>320</v>
+      </c>
+      <c r="AE174" t="n">
+        <v>0.4888888888888889</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -15961,23 +17291,25 @@
       <c r="B175" t="n">
         <v>173</v>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="C175" t="n">
+        <v>173</v>
+      </c>
+      <c r="D175" t="n">
+        <v>173</v>
+      </c>
+      <c r="E175" t="inlineStr">
         <is>
           <t xml:space="preserve">McDonnell Douglas </t>
         </is>
       </c>
-      <c r="D175" t="inlineStr">
+      <c r="F175" t="inlineStr">
         <is>
           <t>MD-11</t>
         </is>
       </c>
-      <c r="E175" t="n">
-        <v>313</v>
-      </c>
-      <c r="F175" t="n">
+      <c r="G175" t="n">
         <v>1990</v>
       </c>
-      <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
@@ -16028,6 +17360,12 @@
       <c r="AC175" t="n">
         <v>254</v>
       </c>
+      <c r="AD175" t="n">
+        <v>314.1658536585366</v>
+      </c>
+      <c r="AE175" t="n">
+        <v>0.4600285714285715</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -16036,23 +17374,25 @@
       <c r="B176" t="n">
         <v>174</v>
       </c>
-      <c r="C176" t="inlineStr">
+      <c r="C176" t="n">
+        <v>174</v>
+      </c>
+      <c r="D176" t="n">
+        <v>174</v>
+      </c>
+      <c r="E176" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D176" t="inlineStr">
+      <c r="F176" t="inlineStr">
         <is>
           <t>747-100</t>
         </is>
       </c>
-      <c r="E176" t="n">
-        <v>301</v>
-      </c>
-      <c r="F176" t="n">
+      <c r="G176" t="n">
         <v>1970</v>
       </c>
-      <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
@@ -16103,6 +17443,12 @@
       <c r="AC176" t="n">
         <v>405</v>
       </c>
+      <c r="AD176" t="n">
+        <v>381.1704545454546</v>
+      </c>
+      <c r="AE176" t="n">
+        <v>0.4976706231454006</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -16111,23 +17457,25 @@
       <c r="B177" t="n">
         <v>175</v>
       </c>
-      <c r="C177" t="inlineStr">
+      <c r="C177" t="n">
+        <v>175</v>
+      </c>
+      <c r="D177" t="n">
+        <v>175</v>
+      </c>
+      <c r="E177" t="inlineStr">
         <is>
           <t>McDonnell Douglas</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
+      <c r="F177" t="inlineStr">
         <is>
           <t>DC9-30</t>
         </is>
       </c>
-      <c r="E177" t="n">
-        <v>252</v>
-      </c>
-      <c r="F177" t="n">
+      <c r="G177" t="n">
         <v>1966</v>
       </c>
-      <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="n">
         <v>39460</v>
@@ -16180,6 +17528,12 @@
       <c r="AC177" t="n">
         <v>101</v>
       </c>
+      <c r="AD177" t="n">
+        <v>203.0629921259843</v>
+      </c>
+      <c r="AE177" t="n">
+        <v>0.5264350453172205</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -16188,23 +17542,25 @@
       <c r="B178" t="n">
         <v>176</v>
       </c>
-      <c r="C178" t="inlineStr">
+      <c r="C178" t="n">
+        <v>176</v>
+      </c>
+      <c r="D178" t="n">
+        <v>176</v>
+      </c>
+      <c r="E178" t="inlineStr">
         <is>
           <t xml:space="preserve">McDonnell Douglas </t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
+      <c r="F178" t="inlineStr">
         <is>
           <t>DC10-10</t>
         </is>
       </c>
-      <c r="E178" t="n">
-        <v>192</v>
-      </c>
-      <c r="F178" t="n">
+      <c r="G178" t="n">
         <v>1970</v>
       </c>
-      <c r="G178" t="inlineStr"/>
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
@@ -16255,6 +17611,12 @@
       <c r="AC178" t="n">
         <v>284</v>
       </c>
+      <c r="AD178" t="n">
+        <v>286.6842105263158</v>
+      </c>
+      <c r="AE178" t="n">
+        <v>0.5585377733343587</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -16263,23 +17625,25 @@
       <c r="B179" t="n">
         <v>177</v>
       </c>
-      <c r="C179" t="inlineStr">
+      <c r="C179" t="n">
+        <v>177</v>
+      </c>
+      <c r="D179" t="n">
+        <v>177</v>
+      </c>
+      <c r="E179" t="inlineStr">
         <is>
           <t>Lockheed</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr">
+      <c r="F179" t="inlineStr">
         <is>
           <t>L1011-1/100/200</t>
         </is>
       </c>
-      <c r="E179" t="n">
-        <v>186</v>
-      </c>
-      <c r="F179" t="n">
+      <c r="G179" t="n">
         <v>1973</v>
       </c>
-      <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
@@ -16330,6 +17694,12 @@
       <c r="AC179" t="n">
         <v>313</v>
       </c>
+      <c r="AD179" t="n">
+        <v>278.75</v>
+      </c>
+      <c r="AE179" t="n">
+        <v>0.5439024390243903</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -16338,23 +17708,25 @@
       <c r="B180" t="n">
         <v>178</v>
       </c>
-      <c r="C180" t="inlineStr">
+      <c r="C180" t="n">
+        <v>178</v>
+      </c>
+      <c r="D180" t="n">
+        <v>178</v>
+      </c>
+      <c r="E180" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
+      <c r="F180" t="inlineStr">
         <is>
           <t>A300-600</t>
         </is>
       </c>
-      <c r="E180" t="n">
-        <v>179</v>
-      </c>
-      <c r="F180" t="n">
+      <c r="G180" t="n">
         <v>1984</v>
       </c>
-      <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
@@ -16405,6 +17777,12 @@
       <c r="AC180" t="n">
         <v>261</v>
       </c>
+      <c r="AD180" t="n">
+        <v>256.8869565217391</v>
+      </c>
+      <c r="AE180" t="n">
+        <v>0.5161677344205009</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -16413,23 +17791,25 @@
       <c r="B181" t="n">
         <v>179</v>
       </c>
-      <c r="C181" t="inlineStr">
+      <c r="C181" t="n">
+        <v>179</v>
+      </c>
+      <c r="D181" t="n">
+        <v>179</v>
+      </c>
+      <c r="E181" t="inlineStr">
         <is>
           <t>McDonnell Douglas</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr">
+      <c r="F181" t="inlineStr">
         <is>
           <t>DC9-50</t>
         </is>
       </c>
-      <c r="E181" t="n">
-        <v>146</v>
-      </c>
-      <c r="F181" t="n">
+      <c r="G181" t="n">
         <v>1976</v>
       </c>
-      <c r="G181" t="inlineStr"/>
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="n">
         <v>44670</v>
@@ -16478,6 +17858,12 @@
         <v>2.1014</v>
       </c>
       <c r="AC181" t="inlineStr"/>
+      <c r="AD181" t="n">
+        <v>211.0503597122302</v>
+      </c>
+      <c r="AE181" t="n">
+        <v>0.534499407852783</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -16486,23 +17872,25 @@
       <c r="B182" t="n">
         <v>180</v>
       </c>
-      <c r="C182" t="inlineStr">
+      <c r="C182" t="n">
+        <v>180</v>
+      </c>
+      <c r="D182" t="n">
+        <v>180</v>
+      </c>
+      <c r="E182" t="inlineStr">
         <is>
           <t xml:space="preserve">Lockheed </t>
         </is>
       </c>
-      <c r="D182" t="inlineStr">
+      <c r="F182" t="inlineStr">
         <is>
           <t>L1011-500</t>
         </is>
       </c>
-      <c r="E182" t="n">
-        <v>141</v>
-      </c>
-      <c r="F182" t="n">
+      <c r="G182" t="n">
         <v>1979</v>
       </c>
-      <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
@@ -16551,6 +17939,12 @@
         <v>1.8209</v>
       </c>
       <c r="AC182" t="inlineStr"/>
+      <c r="AD182" t="n">
+        <v>336.3636363636364</v>
+      </c>
+      <c r="AE182" t="n">
+        <v>0.4798298549271177</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -16559,23 +17953,25 @@
       <c r="B183" t="n">
         <v>181</v>
       </c>
-      <c r="C183" t="inlineStr">
+      <c r="C183" t="n">
+        <v>181</v>
+      </c>
+      <c r="D183" t="n">
+        <v>181</v>
+      </c>
+      <c r="E183" t="inlineStr">
         <is>
           <t>McDonnell Douglas</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr">
+      <c r="F183" t="inlineStr">
         <is>
           <t>DC10-40</t>
         </is>
       </c>
-      <c r="E183" t="n">
-        <v>123</v>
-      </c>
-      <c r="F183" t="n">
+      <c r="G183" t="n">
         <v>1972</v>
       </c>
-      <c r="G183" t="inlineStr"/>
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
@@ -16626,6 +18022,12 @@
       <c r="AC183" t="n">
         <v>292</v>
       </c>
+      <c r="AD183" t="n">
+        <v>322.5447368421052</v>
+      </c>
+      <c r="AE183" t="n">
+        <v>0.4868715838311936</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -16634,23 +18036,25 @@
       <c r="B184" t="n">
         <v>182</v>
       </c>
-      <c r="C184" t="inlineStr">
+      <c r="C184" t="n">
+        <v>182</v>
+      </c>
+      <c r="D184" t="n">
+        <v>182</v>
+      </c>
+      <c r="E184" t="inlineStr">
         <is>
           <t>McDonnell Douglas</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr">
+      <c r="F184" t="inlineStr">
         <is>
           <t>DC9-40</t>
         </is>
       </c>
-      <c r="E184" t="n">
-        <v>113</v>
-      </c>
-      <c r="F184" t="n">
+      <c r="G184" t="n">
         <v>1968</v>
       </c>
-      <c r="G184" t="inlineStr"/>
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
@@ -16697,6 +18101,12 @@
         <v>2.0777</v>
       </c>
       <c r="AC184" t="inlineStr"/>
+      <c r="AD184" t="n">
+        <v>217.3515625</v>
+      </c>
+      <c r="AE184" t="n">
+        <v>0.538019725391607</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -16705,23 +18115,25 @@
       <c r="B185" t="n">
         <v>183</v>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="C185" t="n">
+        <v>183</v>
+      </c>
+      <c r="D185" t="n">
+        <v>183</v>
+      </c>
+      <c r="E185" t="inlineStr">
         <is>
           <t xml:space="preserve">McDonnell Douglas </t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
+      <c r="F185" t="inlineStr">
         <is>
           <t>DC9-10</t>
         </is>
       </c>
-      <c r="E185" t="n">
-        <v>98</v>
-      </c>
-      <c r="F185" t="n">
+      <c r="G185" t="n">
         <v>1965</v>
       </c>
-      <c r="G185" t="inlineStr"/>
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
@@ -16768,6 +18180,12 @@
         <v>2.9899</v>
       </c>
       <c r="AC185" t="inlineStr"/>
+      <c r="AD185" t="n">
+        <v>204.5871559633028</v>
+      </c>
+      <c r="AE185" t="n">
+        <v>0.5420383558980093</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -16776,23 +18194,25 @@
       <c r="B186" t="n">
         <v>184</v>
       </c>
-      <c r="C186" t="inlineStr">
+      <c r="C186" t="n">
+        <v>184</v>
+      </c>
+      <c r="D186" t="n">
+        <v>184</v>
+      </c>
+      <c r="E186" t="inlineStr">
         <is>
           <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
-      <c r="D186" t="inlineStr">
+      <c r="F186" t="inlineStr">
         <is>
           <t>A310-300</t>
         </is>
       </c>
-      <c r="E186" t="n">
-        <v>37</v>
-      </c>
-      <c r="F186" t="n">
+      <c r="G186" t="n">
         <v>1985</v>
       </c>
-      <c r="G186" t="inlineStr"/>
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="n">
         <v>116493</v>
@@ -16843,6 +18263,12 @@
         <v>1.4459</v>
       </c>
       <c r="AC186" t="inlineStr"/>
+      <c r="AD186" t="n">
+        <v>300.3636363636364</v>
+      </c>
+      <c r="AE186" t="n">
+        <v>0.5036585365853659</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -16851,18 +18277,22 @@
       <c r="B187" t="n">
         <v>185</v>
       </c>
-      <c r="C187" t="inlineStr">
+      <c r="C187" t="n">
+        <v>185</v>
+      </c>
+      <c r="D187" t="n">
+        <v>185</v>
+      </c>
+      <c r="E187" t="inlineStr">
         <is>
           <t>Boeing</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr">
+      <c r="F187" t="inlineStr">
         <is>
           <t>B707-300</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr"/>
-      <c r="F187" t="inlineStr"/>
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
@@ -16900,6 +18330,8 @@
         <v>2.5574</v>
       </c>
       <c r="AC187" t="inlineStr"/>
+      <c r="AD187" t="inlineStr"/>
+      <c r="AE187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -16908,18 +18340,22 @@
       <c r="B188" t="n">
         <v>186</v>
       </c>
-      <c r="C188" t="inlineStr">
+      <c r="C188" t="n">
+        <v>186</v>
+      </c>
+      <c r="D188" t="n">
+        <v>186</v>
+      </c>
+      <c r="E188" t="inlineStr">
         <is>
           <t xml:space="preserve">Boeing </t>
         </is>
       </c>
-      <c r="D188" t="inlineStr">
+      <c r="F188" t="inlineStr">
         <is>
           <t>B707-100B/300</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr"/>
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
@@ -16957,6 +18393,8 @@
         <v>3.0372</v>
       </c>
       <c r="AC188" t="inlineStr"/>
+      <c r="AD188" t="inlineStr"/>
+      <c r="AE188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -16965,18 +18403,22 @@
       <c r="B189" t="n">
         <v>187</v>
       </c>
-      <c r="C189" t="inlineStr">
+      <c r="C189" t="n">
+        <v>187</v>
+      </c>
+      <c r="D189" t="n">
+        <v>187</v>
+      </c>
+      <c r="E189" t="inlineStr">
         <is>
           <t>Boeing</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr">
+      <c r="F189" t="inlineStr">
         <is>
           <t>B720-000</t>
         </is>
       </c>
-      <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
@@ -17012,6 +18454,8 @@
         <v>3.2365</v>
       </c>
       <c r="AC189" t="inlineStr"/>
+      <c r="AD189" t="inlineStr"/>
+      <c r="AE189" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/overall/data/Databank.xlsx
+++ b/overall/data/Databank.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF188"/>
+  <dimension ref="A1:AF186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,42 +556,42 @@
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>OEW/Exit Limit</t>
+          <t>Fuel Flow [kg/s]</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>OEW/MTOW_2</t>
+          <t>Final Test Date</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Pax</t>
+          <t>B/P Ratio</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Final Test Date</t>
+          <t>Pressure Ratio</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>B/P Ratio</t>
+          <t>Rated Thrust (kN)</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Pressure Ratio</t>
+          <t>TSFC Cruise</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Rated Thrust (kN)</t>
+          <t>Fan diameter</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>TSFC Cruise</t>
+          <t>Air Mass Flow [kg/s]</t>
         </is>
       </c>
     </row>
@@ -683,28 +683,28 @@
         <v>1.119767569977147</v>
       </c>
       <c r="Y2" t="n">
-        <v>217.6984126984127</v>
+        <v>0.9563065737993777</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.5833274261005175</v>
+        <v>1997</v>
       </c>
       <c r="AA2" t="n">
-        <v>163</v>
+        <v>5.283333333333334</v>
       </c>
       <c r="AB2" t="n">
-        <v>1997</v>
+        <v>25.65833333333333</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.283333333333334</v>
+        <v>107.6083333333333</v>
       </c>
       <c r="AD2" t="n">
-        <v>25.65833333333333</v>
+        <v>17.41156078513215</v>
       </c>
       <c r="AE2" t="n">
-        <v>107.6083333333333</v>
+        <v>1.55</v>
       </c>
       <c r="AF2" t="n">
-        <v>17.41156078513215</v>
+        <v>187.2578502496896</v>
       </c>
     </row>
     <row r="3">
@@ -785,28 +785,28 @@
         <v>1.119767569977147</v>
       </c>
       <c r="Y3" t="n">
-        <v>217.6984126984127</v>
+        <v>0.9563065737993777</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.5833274261005175</v>
+        <v>1997</v>
       </c>
       <c r="AA3" t="n">
-        <v>163</v>
+        <v>5.283333333333334</v>
       </c>
       <c r="AB3" t="n">
-        <v>1997</v>
+        <v>25.65833333333333</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.283333333333334</v>
+        <v>107.6083333333333</v>
       </c>
       <c r="AD3" t="n">
-        <v>25.65833333333333</v>
+        <v>17.41156078513215</v>
       </c>
       <c r="AE3" t="n">
-        <v>107.6083333333333</v>
+        <v>1.55</v>
       </c>
       <c r="AF3" t="n">
-        <v>17.41156078513215</v>
+        <v>187.2578502496896</v>
       </c>
     </row>
     <row r="4">
@@ -887,28 +887,28 @@
         <v>1.119767569977147</v>
       </c>
       <c r="Y4" t="n">
-        <v>217.6984126984127</v>
+        <v>0.9563065737993777</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.5207239131810416</v>
+        <v>1997</v>
       </c>
       <c r="AA4" t="n">
-        <v>163</v>
+        <v>5.092857142857143</v>
       </c>
       <c r="AB4" t="n">
-        <v>1997</v>
+        <v>28.98857142857143</v>
       </c>
       <c r="AC4" t="n">
-        <v>5.092857142857143</v>
+        <v>121.4028571428572</v>
       </c>
       <c r="AD4" t="n">
-        <v>28.98857142857143</v>
+        <v>17.8597701932918</v>
       </c>
       <c r="AE4" t="n">
-        <v>121.4028571428572</v>
+        <v>1.55</v>
       </c>
       <c r="AF4" t="n">
-        <v>17.8597701932918</v>
+        <v>187.2578502496896</v>
       </c>
     </row>
     <row r="5">
@@ -989,28 +989,28 @@
         <v>1.119767569977147</v>
       </c>
       <c r="Y5" t="n">
-        <v>217.6984126984127</v>
+        <v>0.9563065737993777</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.5207239131810416</v>
+        <v>1997</v>
       </c>
       <c r="AA5" t="n">
-        <v>163</v>
+        <v>5.092857142857143</v>
       </c>
       <c r="AB5" t="n">
-        <v>1997</v>
+        <v>28.98857142857143</v>
       </c>
       <c r="AC5" t="n">
-        <v>5.092857142857143</v>
+        <v>121.4028571428572</v>
       </c>
       <c r="AD5" t="n">
-        <v>28.98857142857143</v>
+        <v>17.8597701932918</v>
       </c>
       <c r="AE5" t="n">
-        <v>121.4028571428572</v>
+        <v>1.55</v>
       </c>
       <c r="AF5" t="n">
-        <v>17.8597701932918</v>
+        <v>187.2578502496896</v>
       </c>
     </row>
     <row r="6">
@@ -1091,28 +1091,28 @@
         <v>1.368187134684253</v>
       </c>
       <c r="Y6" t="n">
-        <v>251</v>
+        <v>0.9835737540857264</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.6274999999999999</v>
+        <v>1986</v>
       </c>
       <c r="AA6" t="n">
-        <v>130</v>
+        <v>6</v>
       </c>
       <c r="AB6" t="n">
-        <v>1986</v>
+        <v>23.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>6</v>
+        <v>97.89</v>
       </c>
       <c r="AD6" t="n">
-        <v>23.8</v>
+        <v>16.63277098010775</v>
       </c>
       <c r="AE6" t="n">
-        <v>97.89</v>
+        <v>1.73</v>
       </c>
       <c r="AF6" t="n">
-        <v>16.63277098010775</v>
+        <v>233.2753465191658</v>
       </c>
     </row>
     <row r="7">
@@ -1193,28 +1193,28 @@
         <v>1.368187134684253</v>
       </c>
       <c r="Y7" t="n">
-        <v>251</v>
+        <v>0.9835737540857264</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.6274999999999999</v>
+        <v>1986</v>
       </c>
       <c r="AA7" t="n">
-        <v>130</v>
+        <v>6</v>
       </c>
       <c r="AB7" t="n">
-        <v>1986</v>
+        <v>23.8</v>
       </c>
       <c r="AC7" t="n">
-        <v>6</v>
+        <v>97.89</v>
       </c>
       <c r="AD7" t="n">
-        <v>23.8</v>
+        <v>16.63277098010775</v>
       </c>
       <c r="AE7" t="n">
-        <v>97.89</v>
+        <v>1.73</v>
       </c>
       <c r="AF7" t="n">
-        <v>16.63277098010775</v>
+        <v>233.2753465191658</v>
       </c>
     </row>
     <row r="8">
@@ -1295,28 +1295,28 @@
         <v>1.368187134684253</v>
       </c>
       <c r="Y8" t="n">
-        <v>251</v>
+        <v>0.9835737540857264</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.6274999999999999</v>
+        <v>2006</v>
       </c>
       <c r="AA8" t="n">
-        <v>130</v>
+        <v>6</v>
       </c>
       <c r="AB8" t="n">
-        <v>2006</v>
+        <v>23.1</v>
       </c>
       <c r="AC8" t="n">
-        <v>6</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AD8" t="n">
-        <v>23.1</v>
+        <v>16.60642387841355</v>
       </c>
       <c r="AE8" t="n">
-        <v>97.90000000000001</v>
+        <v>1.73</v>
       </c>
       <c r="AF8" t="n">
-        <v>16.60642387841355</v>
+        <v>233.2753465191657</v>
       </c>
     </row>
     <row r="9">
@@ -1397,28 +1397,28 @@
         <v>1.368187134684253</v>
       </c>
       <c r="Y9" t="n">
-        <v>251</v>
+        <v>0.9835737540857264</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.6274999999999999</v>
+        <v>2006</v>
       </c>
       <c r="AA9" t="n">
-        <v>130</v>
+        <v>6</v>
       </c>
       <c r="AB9" t="n">
-        <v>2006</v>
+        <v>23.1</v>
       </c>
       <c r="AC9" t="n">
-        <v>6</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AD9" t="n">
-        <v>23.1</v>
+        <v>16.60642387841355</v>
       </c>
       <c r="AE9" t="n">
-        <v>97.90000000000001</v>
+        <v>1.73</v>
       </c>
       <c r="AF9" t="n">
-        <v>16.60642387841355</v>
+        <v>233.2753465191657</v>
       </c>
     </row>
     <row r="10">
@@ -1509,28 +1509,28 @@
         <v>1.368187134684253</v>
       </c>
       <c r="Y10" t="n">
-        <v>251</v>
+        <v>0.9835737540857264</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.6274999999999999</v>
+        <v>1992</v>
       </c>
       <c r="AA10" t="n">
-        <v>130</v>
+        <v>4.893333333333334</v>
       </c>
       <c r="AB10" t="n">
-        <v>1992</v>
+        <v>25.66666666666667</v>
       </c>
       <c r="AC10" t="n">
-        <v>4.893333333333334</v>
+        <v>102.5533333333333</v>
       </c>
       <c r="AD10" t="n">
-        <v>25.66666666666667</v>
+        <v>16.88715438062552</v>
       </c>
       <c r="AE10" t="n">
-        <v>102.5533333333333</v>
+        <v>1.61</v>
       </c>
       <c r="AF10" t="n">
-        <v>16.88715438062552</v>
+        <v>202.0358266939522</v>
       </c>
     </row>
     <row r="11">
@@ -1611,28 +1611,28 @@
         <v>1.368187134684253</v>
       </c>
       <c r="Y11" t="n">
-        <v>251</v>
+        <v>0.9835737540857264</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.6274999999999999</v>
+        <v>1992</v>
       </c>
       <c r="AA11" t="n">
-        <v>130</v>
+        <v>4.893333333333334</v>
       </c>
       <c r="AB11" t="n">
-        <v>1992</v>
+        <v>25.66666666666667</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.893333333333334</v>
+        <v>102.5533333333333</v>
       </c>
       <c r="AD11" t="n">
-        <v>25.66666666666667</v>
+        <v>16.88715438062552</v>
       </c>
       <c r="AE11" t="n">
-        <v>102.5533333333333</v>
+        <v>1.61</v>
       </c>
       <c r="AF11" t="n">
-        <v>16.88715438062552</v>
+        <v>202.0358266939522</v>
       </c>
     </row>
     <row r="12">
@@ -1713,28 +1713,28 @@
         <v>1.368187134684253</v>
       </c>
       <c r="Y12" t="n">
-        <v>257.51875</v>
+        <v>0.9835737540857264</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.5457350993377483</v>
+        <v>1986</v>
       </c>
       <c r="AA12" t="n">
-        <v>130</v>
+        <v>6</v>
       </c>
       <c r="AB12" t="n">
-        <v>1986</v>
+        <v>25.1</v>
       </c>
       <c r="AC12" t="n">
-        <v>6</v>
+        <v>104.53</v>
       </c>
       <c r="AD12" t="n">
-        <v>25.1</v>
+        <v>16.74575267236204</v>
       </c>
       <c r="AE12" t="n">
-        <v>104.53</v>
+        <v>1.73</v>
       </c>
       <c r="AF12" t="n">
-        <v>16.74575267236204</v>
+        <v>233.2753465191658</v>
       </c>
     </row>
     <row r="13">
@@ -1815,28 +1815,28 @@
         <v>1.368187134684253</v>
       </c>
       <c r="Y13" t="n">
-        <v>257.51875</v>
+        <v>0.9835737540857264</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.5457350993377483</v>
+        <v>1986</v>
       </c>
       <c r="AA13" t="n">
-        <v>130</v>
+        <v>6</v>
       </c>
       <c r="AB13" t="n">
-        <v>1986</v>
+        <v>25.1</v>
       </c>
       <c r="AC13" t="n">
-        <v>6</v>
+        <v>104.53</v>
       </c>
       <c r="AD13" t="n">
-        <v>25.1</v>
+        <v>16.74575267236204</v>
       </c>
       <c r="AE13" t="n">
-        <v>104.53</v>
+        <v>1.73</v>
       </c>
       <c r="AF13" t="n">
-        <v>16.74575267236204</v>
+        <v>233.2753465191658</v>
       </c>
     </row>
     <row r="14">
@@ -1917,28 +1917,28 @@
         <v>1.368187134684253</v>
       </c>
       <c r="Y14" t="n">
-        <v>257.51875</v>
+        <v>0.9835737540857264</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.5457350993377483</v>
+        <v>1995</v>
       </c>
       <c r="AA14" t="n">
-        <v>130</v>
+        <v>5.875</v>
       </c>
       <c r="AB14" t="n">
-        <v>1995</v>
+        <v>24.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>5.875</v>
+        <v>104.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>24.5</v>
+        <v>16.76793943873239</v>
       </c>
       <c r="AE14" t="n">
-        <v>104.5</v>
+        <v>1.73</v>
       </c>
       <c r="AF14" t="n">
-        <v>16.76793943873239</v>
+        <v>233.2753465191658</v>
       </c>
     </row>
     <row r="15">
@@ -2019,28 +2019,28 @@
         <v>1.368187134684253</v>
       </c>
       <c r="Y15" t="n">
-        <v>257.51875</v>
+        <v>0.9835737540857264</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.5457350993377483</v>
+        <v>1995</v>
       </c>
       <c r="AA15" t="n">
-        <v>130</v>
+        <v>5.875</v>
       </c>
       <c r="AB15" t="n">
-        <v>1995</v>
+        <v>24.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>5.875</v>
+        <v>104.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>24.5</v>
+        <v>16.76793943873239</v>
       </c>
       <c r="AE15" t="n">
-        <v>104.5</v>
+        <v>1.73</v>
       </c>
       <c r="AF15" t="n">
-        <v>16.76793943873239</v>
+        <v>233.2753465191658</v>
       </c>
     </row>
     <row r="16">
@@ -2121,28 +2121,28 @@
         <v>1.368187134684253</v>
       </c>
       <c r="Y16" t="n">
-        <v>257.51875</v>
+        <v>0.9835737540857264</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.5457350993377483</v>
+        <v>1992</v>
       </c>
       <c r="AA16" t="n">
-        <v>130</v>
+        <v>4.803333333333334</v>
       </c>
       <c r="AB16" t="n">
-        <v>1992</v>
+        <v>26.96666666666667</v>
       </c>
       <c r="AC16" t="n">
-        <v>4.803333333333334</v>
+        <v>108.9533333333333</v>
       </c>
       <c r="AD16" t="n">
-        <v>26.96666666666667</v>
+        <v>16.95660172354993</v>
       </c>
       <c r="AE16" t="n">
-        <v>108.9533333333333</v>
+        <v>1.61</v>
       </c>
       <c r="AF16" t="n">
-        <v>16.95660172354993</v>
+        <v>202.0358266939522</v>
       </c>
     </row>
     <row r="17">
@@ -2223,28 +2223,28 @@
         <v>1.368187134684253</v>
       </c>
       <c r="Y17" t="n">
-        <v>257.51875</v>
+        <v>0.9835737540857264</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.5457350993377483</v>
+        <v>1992</v>
       </c>
       <c r="AA17" t="n">
-        <v>130</v>
+        <v>4.803333333333334</v>
       </c>
       <c r="AB17" t="n">
-        <v>1992</v>
+        <v>26.96666666666667</v>
       </c>
       <c r="AC17" t="n">
-        <v>4.803333333333334</v>
+        <v>108.9533333333333</v>
       </c>
       <c r="AD17" t="n">
-        <v>26.96666666666667</v>
+        <v>16.95660172354993</v>
       </c>
       <c r="AE17" t="n">
-        <v>108.9533333333333</v>
+        <v>1.61</v>
       </c>
       <c r="AF17" t="n">
-        <v>16.95660172354993</v>
+        <v>202.0358266939522</v>
       </c>
     </row>
     <row r="18">
@@ -2335,28 +2335,28 @@
         <v>1.275189262798983</v>
       </c>
       <c r="Y18" t="n">
-        <v>256.0201342281879</v>
+        <v>0.9119952790029092</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.6323056522459805</v>
+        <v>1997</v>
       </c>
       <c r="AA18" t="n">
-        <v>128</v>
+        <v>5.475</v>
       </c>
       <c r="AB18" t="n">
-        <v>1997</v>
+        <v>22.4925</v>
       </c>
       <c r="AC18" t="n">
-        <v>5.475</v>
+        <v>91.60749999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>22.4925</v>
+        <v>17.16390175228426</v>
       </c>
       <c r="AE18" t="n">
-        <v>91.60749999999999</v>
+        <v>1.55</v>
       </c>
       <c r="AF18" t="n">
-        <v>17.16390175228426</v>
+        <v>187.2578502496896</v>
       </c>
     </row>
     <row r="19">
@@ -2437,28 +2437,28 @@
         <v>1.275189262798983</v>
       </c>
       <c r="Y19" t="n">
-        <v>256.0201342281879</v>
+        <v>0.9119952790029092</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.6323056522459805</v>
+        <v>1997</v>
       </c>
       <c r="AA19" t="n">
-        <v>128</v>
+        <v>5.475</v>
       </c>
       <c r="AB19" t="n">
-        <v>1997</v>
+        <v>22.4925</v>
       </c>
       <c r="AC19" t="n">
-        <v>5.475</v>
+        <v>91.60749999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>22.4925</v>
+        <v>17.16390175228426</v>
       </c>
       <c r="AE19" t="n">
-        <v>91.60749999999999</v>
+        <v>1.55</v>
       </c>
       <c r="AF19" t="n">
-        <v>17.16390175228426</v>
+        <v>187.2578502496896</v>
       </c>
     </row>
     <row r="20">
@@ -2549,28 +2549,28 @@
         <v>1.275189262798983</v>
       </c>
       <c r="Y20" t="n">
-        <v>256.0201342281879</v>
+        <v>0.9119952790029092</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.5443350456621004</v>
+        <v>1997</v>
       </c>
       <c r="AA20" t="n">
-        <v>128</v>
+        <v>5.283333333333334</v>
       </c>
       <c r="AB20" t="n">
-        <v>1997</v>
+        <v>25.65833333333333</v>
       </c>
       <c r="AC20" t="n">
-        <v>5.283333333333334</v>
+        <v>107.6083333333333</v>
       </c>
       <c r="AD20" t="n">
-        <v>25.65833333333333</v>
+        <v>17.41156078513215</v>
       </c>
       <c r="AE20" t="n">
-        <v>107.6083333333333</v>
+        <v>1.55</v>
       </c>
       <c r="AF20" t="n">
-        <v>17.41156078513215</v>
+        <v>187.2578502496896</v>
       </c>
     </row>
     <row r="21">
@@ -2651,28 +2651,28 @@
         <v>1.275189262798983</v>
       </c>
       <c r="Y21" t="n">
-        <v>256.0201342281879</v>
+        <v>0.9119952790029092</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.5443350456621004</v>
+        <v>1997</v>
       </c>
       <c r="AA21" t="n">
-        <v>128</v>
+        <v>5.283333333333334</v>
       </c>
       <c r="AB21" t="n">
-        <v>1997</v>
+        <v>25.65833333333333</v>
       </c>
       <c r="AC21" t="n">
-        <v>5.283333333333334</v>
+        <v>107.6083333333333</v>
       </c>
       <c r="AD21" t="n">
-        <v>25.65833333333333</v>
+        <v>17.41156078513215</v>
       </c>
       <c r="AE21" t="n">
-        <v>107.6083333333333</v>
+        <v>1.55</v>
       </c>
       <c r="AF21" t="n">
-        <v>17.41156078513215</v>
+        <v>187.2578502496896</v>
       </c>
     </row>
     <row r="22">
@@ -2763,28 +2763,28 @@
         <v>1.40477492852807</v>
       </c>
       <c r="Y22" t="n">
-        <v>296.7980295566502</v>
+        <v>2.306385848672282</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.5239130434782608</v>
+        <v>1992</v>
       </c>
       <c r="AA22" t="n">
-        <v>265</v>
+        <v>5.1</v>
       </c>
       <c r="AB22" t="n">
-        <v>1992</v>
+        <v>33.09</v>
       </c>
       <c r="AC22" t="n">
-        <v>5.1</v>
+        <v>287.02</v>
       </c>
       <c r="AD22" t="n">
-        <v>33.09</v>
+        <v>17.03081753422711</v>
       </c>
       <c r="AE22" t="n">
-        <v>287.02</v>
+        <v>2.44</v>
       </c>
       <c r="AF22" t="n">
-        <v>17.03081753422711</v>
+        <v>464.0409312160465</v>
       </c>
     </row>
     <row r="23">
@@ -2865,28 +2865,28 @@
         <v>1.40477492852807</v>
       </c>
       <c r="Y23" t="n">
-        <v>296.7980295566502</v>
+        <v>2.306385848672282</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.5239130434782608</v>
+        <v>1992</v>
       </c>
       <c r="AA23" t="n">
-        <v>265</v>
+        <v>5.1</v>
       </c>
       <c r="AB23" t="n">
-        <v>1992</v>
+        <v>33.09</v>
       </c>
       <c r="AC23" t="n">
-        <v>5.1</v>
+        <v>287.02</v>
       </c>
       <c r="AD23" t="n">
-        <v>33.09</v>
+        <v>17.03081753422711</v>
       </c>
       <c r="AE23" t="n">
-        <v>287.02</v>
+        <v>2.44</v>
       </c>
       <c r="AF23" t="n">
-        <v>17.03081753422711</v>
+        <v>464.0409312160465</v>
       </c>
     </row>
     <row r="24">
@@ -2967,28 +2967,28 @@
         <v>1.40477492852807</v>
       </c>
       <c r="Y24" t="n">
-        <v>296.7980295566502</v>
+        <v>2.306385848672282</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.5239130434782608</v>
+        <v>1995</v>
       </c>
       <c r="AA24" t="n">
-        <v>265</v>
+        <v>5.1</v>
       </c>
       <c r="AB24" t="n">
-        <v>1995</v>
+        <v>35.7</v>
       </c>
       <c r="AC24" t="n">
-        <v>5.1</v>
+        <v>304.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>35.7</v>
+        <v>17.16930236458494</v>
       </c>
       <c r="AE24" t="n">
-        <v>304.8</v>
+        <v>2.44</v>
       </c>
       <c r="AF24" t="n">
-        <v>17.16930236458494</v>
+        <v>464.0409312160465</v>
       </c>
     </row>
     <row r="25">
@@ -3069,28 +3069,28 @@
         <v>1.40477492852807</v>
       </c>
       <c r="Y25" t="n">
-        <v>296.7980295566502</v>
+        <v>2.306385848672282</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.5239130434782608</v>
+        <v>1995</v>
       </c>
       <c r="AA25" t="n">
-        <v>265</v>
+        <v>5.1</v>
       </c>
       <c r="AB25" t="n">
-        <v>1995</v>
+        <v>34.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>5.1</v>
+        <v>297.44</v>
       </c>
       <c r="AD25" t="n">
-        <v>34.5</v>
+        <v>17.13332954902212</v>
       </c>
       <c r="AE25" t="n">
-        <v>297.44</v>
+        <v>2.44</v>
       </c>
       <c r="AF25" t="n">
-        <v>17.13332954902212</v>
+        <v>464.0409312160465</v>
       </c>
     </row>
     <row r="26">
@@ -3171,28 +3171,28 @@
         <v>1.40477492852807</v>
       </c>
       <c r="Y26" t="n">
-        <v>296.7980295566502</v>
+        <v>2.306385848672282</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.5239130434782608</v>
+        <v>1995</v>
       </c>
       <c r="AA26" t="n">
-        <v>265</v>
+        <v>5.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>1995</v>
+        <v>34.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>5.1</v>
+        <v>297.44</v>
       </c>
       <c r="AD26" t="n">
-        <v>34.5</v>
+        <v>17.13332954902212</v>
       </c>
       <c r="AE26" t="n">
-        <v>297.44</v>
+        <v>2.44</v>
       </c>
       <c r="AF26" t="n">
-        <v>17.13332954902212</v>
+        <v>464.0409312160465</v>
       </c>
     </row>
     <row r="27">
@@ -3263,28 +3263,28 @@
         <v>1.40477492852807</v>
       </c>
       <c r="Y27" t="n">
-        <v>298.2758620689655</v>
+        <v>2.306385848672282</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.5265217391304348</v>
+        <v>1993</v>
       </c>
       <c r="AA27" t="n">
-        <v>265</v>
+        <v>5.01</v>
       </c>
       <c r="AB27" t="n">
-        <v>1993</v>
+        <v>33.1</v>
       </c>
       <c r="AC27" t="n">
-        <v>5.01</v>
+        <v>303.79</v>
       </c>
       <c r="AD27" t="n">
-        <v>33.1</v>
+        <v>16.9145531049301</v>
       </c>
       <c r="AE27" t="n">
-        <v>303.79</v>
+        <v>2.54</v>
       </c>
       <c r="AF27" t="n">
-        <v>16.9145531049301</v>
+        <v>502.8565022563567</v>
       </c>
     </row>
     <row r="28">
@@ -3365,20 +3365,20 @@
         <v>1.40477492852807</v>
       </c>
       <c r="Y28" t="n">
-        <v>297.0443349753695</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>0.5243478260869565</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>265</v>
-      </c>
+        <v>2.306385848672282</v>
+      </c>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="inlineStr"/>
-      <c r="AD28" t="inlineStr"/>
-      <c r="AE28" t="inlineStr"/>
+      <c r="AD28" t="n">
+        <v>16.538</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>2.47</v>
+      </c>
       <c r="AF28" t="n">
-        <v>16.538</v>
+        <v>475.521922409295</v>
       </c>
     </row>
     <row r="29">
@@ -3459,28 +3459,28 @@
         <v>1.335323623930043</v>
       </c>
       <c r="Y29" t="n">
-        <v>275.0533333333333</v>
+        <v>1.950030438580859</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.5053278788918012</v>
+        <v>1995</v>
       </c>
       <c r="AA29" t="n">
-        <v>249</v>
+        <v>5.1</v>
       </c>
       <c r="AB29" t="n">
-        <v>1995</v>
+        <v>31.54</v>
       </c>
       <c r="AC29" t="n">
-        <v>5.1</v>
+        <v>267.01</v>
       </c>
       <c r="AD29" t="n">
-        <v>31.54</v>
+        <v>17.09301301922415</v>
       </c>
       <c r="AE29" t="n">
-        <v>267.01</v>
+        <v>2.36</v>
       </c>
       <c r="AF29" t="n">
-        <v>17.09301301922415</v>
+        <v>434.1108523415904</v>
       </c>
     </row>
     <row r="30">
@@ -3561,28 +3561,28 @@
         <v>1.335323623930043</v>
       </c>
       <c r="Y30" t="n">
-        <v>275.0533333333333</v>
+        <v>1.950030438580859</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.5684956044864552</v>
+        <v>1985</v>
       </c>
       <c r="AA30" t="n">
-        <v>249</v>
+        <v>5.1</v>
       </c>
       <c r="AB30" t="n">
-        <v>1985</v>
+        <v>31.755</v>
       </c>
       <c r="AC30" t="n">
-        <v>5.1</v>
+        <v>267.03</v>
       </c>
       <c r="AD30" t="n">
-        <v>31.755</v>
+        <v>17.00804825744825</v>
       </c>
       <c r="AE30" t="n">
-        <v>267.03</v>
+        <v>2.36</v>
       </c>
       <c r="AF30" t="n">
-        <v>17.00804825744825</v>
+        <v>434.1108523415904</v>
       </c>
     </row>
     <row r="31">
@@ -3663,28 +3663,28 @@
         <v>1.335323623930043</v>
       </c>
       <c r="Y31" t="n">
-        <v>275.0533333333333</v>
+        <v>1.950030438580859</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.5684956044864552</v>
+        <v>1985</v>
       </c>
       <c r="AA31" t="n">
-        <v>249</v>
+        <v>5.1</v>
       </c>
       <c r="AB31" t="n">
-        <v>1985</v>
+        <v>31.755</v>
       </c>
       <c r="AC31" t="n">
-        <v>5.1</v>
+        <v>267.03</v>
       </c>
       <c r="AD31" t="n">
-        <v>31.755</v>
+        <v>17.00804825744825</v>
       </c>
       <c r="AE31" t="n">
-        <v>267.03</v>
+        <v>2.36</v>
       </c>
       <c r="AF31" t="n">
-        <v>17.00804825744825</v>
+        <v>434.1108523415904</v>
       </c>
     </row>
     <row r="32">
@@ -3765,28 +3765,28 @@
         <v>1.335323623930043</v>
       </c>
       <c r="Y32" t="n">
-        <v>276.9866666666667</v>
+        <v>1.950030438580859</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.508879798153002</v>
+        <v>1986</v>
       </c>
       <c r="AA32" t="n">
-        <v>249</v>
+        <v>4.7</v>
       </c>
       <c r="AB32" t="n">
-        <v>1986</v>
+        <v>29.3</v>
       </c>
       <c r="AC32" t="n">
-        <v>4.7</v>
+        <v>250.75</v>
       </c>
       <c r="AD32" t="n">
-        <v>29.3</v>
+        <v>16.95732015573155</v>
       </c>
       <c r="AE32" t="n">
-        <v>250.75</v>
+        <v>2.39</v>
       </c>
       <c r="AF32" t="n">
-        <v>16.95732015573155</v>
+        <v>445.2177175489081</v>
       </c>
     </row>
     <row r="33">
@@ -3867,28 +3867,28 @@
         <v>1.335323623930043</v>
       </c>
       <c r="Y33" t="n">
-        <v>276.9866666666667</v>
+        <v>1.950030438580859</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.508879798153002</v>
+        <v>1986</v>
       </c>
       <c r="AA33" t="n">
-        <v>249</v>
+        <v>4.7</v>
       </c>
       <c r="AB33" t="n">
-        <v>1986</v>
+        <v>29.3</v>
       </c>
       <c r="AC33" t="n">
-        <v>4.7</v>
+        <v>250.75</v>
       </c>
       <c r="AD33" t="n">
-        <v>29.3</v>
+        <v>16.95732015573155</v>
       </c>
       <c r="AE33" t="n">
-        <v>250.75</v>
+        <v>2.39</v>
       </c>
       <c r="AF33" t="n">
-        <v>16.95732015573155</v>
+        <v>445.2177175489081</v>
       </c>
     </row>
     <row r="34">
@@ -3969,28 +3969,28 @@
         <v>1.10484603787207</v>
       </c>
       <c r="Y34" t="n">
-        <v>223.6363636363636</v>
+        <v>1.103419965638788</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.5927710843373494</v>
+        <v>1992</v>
       </c>
       <c r="AA34" t="n">
-        <v>198</v>
+        <v>5.62</v>
       </c>
       <c r="AB34" t="n">
-        <v>1992</v>
+        <v>30.26</v>
       </c>
       <c r="AC34" t="n">
-        <v>5.62</v>
+        <v>133.44</v>
       </c>
       <c r="AD34" t="n">
-        <v>30.26</v>
+        <v>17.31578698611336</v>
       </c>
       <c r="AE34" t="n">
-        <v>133.44</v>
+        <v>1.73</v>
       </c>
       <c r="AF34" t="n">
-        <v>17.31578698611336</v>
+        <v>233.2753465191658</v>
       </c>
     </row>
     <row r="35">
@@ -4081,28 +4081,28 @@
         <v>1.10484603787207</v>
       </c>
       <c r="Y35" t="n">
-        <v>223.6363636363636</v>
+        <v>1.103419965638788</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.5927710843373494</v>
+        <v>1992</v>
       </c>
       <c r="AA35" t="n">
-        <v>198</v>
+        <v>5.62</v>
       </c>
       <c r="AB35" t="n">
-        <v>1992</v>
+        <v>30.26</v>
       </c>
       <c r="AC35" t="n">
-        <v>5.62</v>
+        <v>133.44</v>
       </c>
       <c r="AD35" t="n">
-        <v>30.26</v>
+        <v>17.31578698611336</v>
       </c>
       <c r="AE35" t="n">
-        <v>133.44</v>
+        <v>1.73</v>
       </c>
       <c r="AF35" t="n">
-        <v>17.31578698611336</v>
+        <v>233.2753465191658</v>
       </c>
     </row>
     <row r="36">
@@ -4183,28 +4183,28 @@
         <v>1.10484603787207</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.6363636363636</v>
+        <v>1.103419965638788</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.5927710843373494</v>
+        <v>1992</v>
       </c>
       <c r="AA36" t="n">
-        <v>198</v>
+        <v>4.585</v>
       </c>
       <c r="AB36" t="n">
-        <v>1992</v>
+        <v>32.025</v>
       </c>
       <c r="AC36" t="n">
-        <v>4.585</v>
+        <v>133.1</v>
       </c>
       <c r="AD36" t="n">
-        <v>32.025</v>
+        <v>17.30258498023685</v>
       </c>
       <c r="AE36" t="n">
-        <v>133.1</v>
+        <v>1.61</v>
       </c>
       <c r="AF36" t="n">
-        <v>17.30258498023685</v>
+        <v>202.0358266939522</v>
       </c>
     </row>
     <row r="37">
@@ -4285,28 +4285,28 @@
         <v>1.10484603787207</v>
       </c>
       <c r="Y37" t="n">
-        <v>223.6363636363636</v>
+        <v>1.103419965638788</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.5927710843373494</v>
+        <v>1992</v>
       </c>
       <c r="AA37" t="n">
-        <v>198</v>
+        <v>4.585</v>
       </c>
       <c r="AB37" t="n">
-        <v>1992</v>
+        <v>32.025</v>
       </c>
       <c r="AC37" t="n">
-        <v>4.585</v>
+        <v>133.1</v>
       </c>
       <c r="AD37" t="n">
-        <v>32.025</v>
+        <v>17.30258498023685</v>
       </c>
       <c r="AE37" t="n">
-        <v>133.1</v>
+        <v>1.61</v>
       </c>
       <c r="AF37" t="n">
-        <v>17.30258498023685</v>
+        <v>202.0358266939522</v>
       </c>
     </row>
     <row r="38">
@@ -4397,28 +4397,28 @@
         <v>1.10484603787207</v>
       </c>
       <c r="Y38" t="n">
-        <v>223.6363636363636</v>
+        <v>1.103419965638788</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.5927710843373494</v>
+        <v>1992</v>
       </c>
       <c r="AA38" t="n">
-        <v>198</v>
+        <v>5.58</v>
       </c>
       <c r="AB38" t="n">
-        <v>1992</v>
+        <v>31.34</v>
       </c>
       <c r="AC38" t="n">
-        <v>5.58</v>
+        <v>137.9</v>
       </c>
       <c r="AD38" t="n">
-        <v>31.34</v>
+        <v>17.44817154749023</v>
       </c>
       <c r="AE38" t="n">
-        <v>137.9</v>
+        <v>1.73</v>
       </c>
       <c r="AF38" t="n">
-        <v>17.44817154749023</v>
+        <v>233.2753465191658</v>
       </c>
     </row>
     <row r="39">
@@ -4499,28 +4499,28 @@
         <v>1.10484603787207</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.6363636363636</v>
+        <v>1.103419965638788</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.5927710843373494</v>
+        <v>1992</v>
       </c>
       <c r="AA39" t="n">
-        <v>198</v>
+        <v>5.58</v>
       </c>
       <c r="AB39" t="n">
-        <v>1992</v>
+        <v>31.34</v>
       </c>
       <c r="AC39" t="n">
-        <v>5.58</v>
+        <v>137.9</v>
       </c>
       <c r="AD39" t="n">
-        <v>31.34</v>
+        <v>17.44817154749023</v>
       </c>
       <c r="AE39" t="n">
-        <v>137.9</v>
+        <v>1.73</v>
       </c>
       <c r="AF39" t="n">
-        <v>17.44817154749023</v>
+        <v>233.2753465191658</v>
       </c>
     </row>
     <row r="40">
@@ -4601,28 +4601,28 @@
         <v>1.10484603787207</v>
       </c>
       <c r="Y40" t="n">
-        <v>223.6363636363636</v>
+        <v>1.103419965638788</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.5262032085561498</v>
+        <v>1996</v>
       </c>
       <c r="AA40" t="n">
-        <v>198</v>
+        <v>5.466666666666666</v>
       </c>
       <c r="AB40" t="n">
-        <v>1996</v>
+        <v>32.66666666666666</v>
       </c>
       <c r="AC40" t="n">
-        <v>5.466666666666666</v>
+        <v>142.3333333333333</v>
       </c>
       <c r="AD40" t="n">
-        <v>32.66666666666666</v>
+        <v>17.57307514612336</v>
       </c>
       <c r="AE40" t="n">
-        <v>142.3333333333333</v>
+        <v>1.73</v>
       </c>
       <c r="AF40" t="n">
-        <v>17.57307514612336</v>
+        <v>233.2753465191659</v>
       </c>
     </row>
     <row r="41">
@@ -4703,28 +4703,28 @@
         <v>1.10484603787207</v>
       </c>
       <c r="Y41" t="n">
-        <v>223.6363636363636</v>
+        <v>1.103419965638788</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.5262032085561498</v>
+        <v>1996</v>
       </c>
       <c r="AA41" t="n">
-        <v>198</v>
+        <v>5.466666666666666</v>
       </c>
       <c r="AB41" t="n">
-        <v>1996</v>
+        <v>32.66666666666666</v>
       </c>
       <c r="AC41" t="n">
-        <v>5.466666666666666</v>
+        <v>142.3333333333333</v>
       </c>
       <c r="AD41" t="n">
-        <v>32.66666666666666</v>
+        <v>17.57307514612336</v>
       </c>
       <c r="AE41" t="n">
-        <v>142.3333333333333</v>
+        <v>1.73</v>
       </c>
       <c r="AF41" t="n">
-        <v>17.57307514612336</v>
+        <v>233.2753465191659</v>
       </c>
     </row>
     <row r="42">
@@ -4815,28 +4815,28 @@
         <v>1.10484603787207</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.6363636363636</v>
+        <v>1.103419965638788</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.5262032085561498</v>
+        <v>1992</v>
       </c>
       <c r="AA42" t="n">
-        <v>198</v>
+        <v>4.486666666666667</v>
       </c>
       <c r="AB42" t="n">
-        <v>1992</v>
+        <v>33.61333333333334</v>
       </c>
       <c r="AC42" t="n">
-        <v>4.486666666666667</v>
+        <v>140.5866666666667</v>
       </c>
       <c r="AD42" t="n">
-        <v>33.61333333333334</v>
+        <v>17.47797229190496</v>
       </c>
       <c r="AE42" t="n">
-        <v>140.5866666666667</v>
+        <v>1.61</v>
       </c>
       <c r="AF42" t="n">
-        <v>17.47797229190496</v>
+        <v>202.0358266939522</v>
       </c>
     </row>
     <row r="43">
@@ -4917,28 +4917,28 @@
         <v>1.10484603787207</v>
       </c>
       <c r="Y43" t="n">
-        <v>223.6363636363636</v>
+        <v>1.103419965638788</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.5262032085561498</v>
+        <v>1992</v>
       </c>
       <c r="AA43" t="n">
-        <v>198</v>
+        <v>4.486666666666667</v>
       </c>
       <c r="AB43" t="n">
-        <v>1992</v>
+        <v>33.61333333333334</v>
       </c>
       <c r="AC43" t="n">
-        <v>4.486666666666667</v>
+        <v>140.5866666666667</v>
       </c>
       <c r="AD43" t="n">
-        <v>33.61333333333334</v>
+        <v>17.47797229190496</v>
       </c>
       <c r="AE43" t="n">
-        <v>140.5866666666667</v>
+        <v>1.61</v>
       </c>
       <c r="AF43" t="n">
-        <v>17.47797229190496</v>
+        <v>202.0358266939522</v>
       </c>
     </row>
     <row r="44">
@@ -4980,7 +4980,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>PW2043</t>
+          <t>PW2040</t>
         </is>
       </c>
       <c r="N44" t="inlineStr"/>
@@ -5023,19 +5023,29 @@
         <v>1.110620770707444</v>
       </c>
       <c r="Y44" t="n">
-        <v>218.5423728813559</v>
+        <v>1.470677871724747</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.5206331260599208</v>
+        <v>1998</v>
       </c>
       <c r="AA44" t="n">
-        <v>227</v>
-      </c>
-      <c r="AB44" t="inlineStr"/>
-      <c r="AC44" t="inlineStr"/>
-      <c r="AD44" t="inlineStr"/>
-      <c r="AE44" t="inlineStr"/>
-      <c r="AF44" t="inlineStr"/>
+        <v>5.54</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>182.02</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>17.01819665544873</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>308.6617326842021</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5076,7 +5086,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>PW2043</t>
+          <t>PW2040</t>
         </is>
       </c>
       <c r="N45" t="n">
@@ -5129,19 +5139,29 @@
         <v>1.110620770707444</v>
       </c>
       <c r="Y45" t="n">
-        <v>218.5423728813559</v>
+        <v>1.470677871724747</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.5206331260599208</v>
+        <v>1998</v>
       </c>
       <c r="AA45" t="n">
-        <v>227</v>
-      </c>
-      <c r="AB45" t="inlineStr"/>
-      <c r="AC45" t="inlineStr"/>
-      <c r="AD45" t="inlineStr"/>
-      <c r="AE45" t="inlineStr"/>
-      <c r="AF45" t="inlineStr"/>
+        <v>5.54</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>182.02</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>17.01819665544873</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>308.6617326842021</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5235,28 +5255,28 @@
         <v>1.110620770707444</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5423728813559</v>
+        <v>1.470677871724747</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.5922285504317472</v>
+        <v>1998</v>
       </c>
       <c r="AA46" t="n">
-        <v>227</v>
+        <v>5.54</v>
       </c>
       <c r="AB46" t="n">
-        <v>1998</v>
+        <v>29.4</v>
       </c>
       <c r="AC46" t="n">
-        <v>5.54</v>
+        <v>182.02</v>
       </c>
       <c r="AD46" t="n">
-        <v>29.4</v>
+        <v>17.01819665544873</v>
       </c>
       <c r="AE46" t="n">
-        <v>182.02</v>
+        <v>1.99</v>
       </c>
       <c r="AF46" t="n">
-        <v>17.01819665544873</v>
+        <v>308.6617326842021</v>
       </c>
     </row>
     <row r="47">
@@ -5351,28 +5371,28 @@
         <v>1.110620770707444</v>
       </c>
       <c r="Y47" t="n">
-        <v>218.5423728813559</v>
+        <v>1.470677871724747</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.5922285504317472</v>
+        <v>1998</v>
       </c>
       <c r="AA47" t="n">
-        <v>227</v>
+        <v>5.54</v>
       </c>
       <c r="AB47" t="n">
-        <v>1998</v>
+        <v>29.4</v>
       </c>
       <c r="AC47" t="n">
-        <v>5.54</v>
+        <v>182.02</v>
       </c>
       <c r="AD47" t="n">
-        <v>29.4</v>
+        <v>17.01819665544873</v>
       </c>
       <c r="AE47" t="n">
-        <v>182.02</v>
+        <v>1.99</v>
       </c>
       <c r="AF47" t="n">
-        <v>17.01819665544873</v>
+        <v>308.6617326842021</v>
       </c>
     </row>
     <row r="48">
@@ -5457,28 +5477,28 @@
         <v>1.110620770707444</v>
       </c>
       <c r="Y48" t="n">
-        <v>218.8474576271186</v>
+        <v>1.470677871724747</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.5930553003858167</v>
+        <v>1984</v>
       </c>
       <c r="AA48" t="n">
-        <v>227</v>
+        <v>4.1</v>
       </c>
       <c r="AB48" t="n">
-        <v>1984</v>
+        <v>25.4</v>
       </c>
       <c r="AC48" t="n">
-        <v>4.1</v>
+        <v>176.1</v>
       </c>
       <c r="AD48" t="n">
-        <v>25.4</v>
+        <v>17.79983238975954</v>
       </c>
       <c r="AE48" t="n">
-        <v>176.1</v>
+        <v>2.19</v>
       </c>
       <c r="AF48" t="n">
-        <v>17.79983238975954</v>
+        <v>373.8220085671326</v>
       </c>
     </row>
     <row r="49">
@@ -5520,7 +5540,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>RB211-535E4B</t>
+          <t>RB211-535E4</t>
         </is>
       </c>
       <c r="N49" t="n">
@@ -5563,19 +5583,29 @@
         <v>1.110620770707444</v>
       </c>
       <c r="Y49" t="n">
-        <v>218.8474576271186</v>
+        <v>1.470677871724747</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.52135992893483</v>
+        <v>1984</v>
       </c>
       <c r="AA49" t="n">
-        <v>227</v>
-      </c>
-      <c r="AB49" t="inlineStr"/>
-      <c r="AC49" t="inlineStr"/>
-      <c r="AD49" t="inlineStr"/>
-      <c r="AE49" t="inlineStr"/>
-      <c r="AF49" t="inlineStr"/>
+        <v>4.1</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>176.1</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>17.79983238975954</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>373.8220085671326</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5655,28 +5685,28 @@
         <v>1.044394367241605</v>
       </c>
       <c r="Y50" t="n">
-        <v>224.8306878306878</v>
+        <v>1.133497691312587</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.5677846071619455</v>
+        <v>1997</v>
       </c>
       <c r="AA50" t="n">
-        <v>175</v>
+        <v>5.1</v>
       </c>
       <c r="AB50" t="n">
-        <v>1997</v>
+        <v>27.7076923076923</v>
       </c>
       <c r="AC50" t="n">
-        <v>5.1</v>
+        <v>116.9992307692308</v>
       </c>
       <c r="AD50" t="n">
-        <v>27.7076923076923</v>
+        <v>17.63199735962697</v>
       </c>
       <c r="AE50" t="n">
-        <v>116.9992307692308</v>
+        <v>1.55</v>
       </c>
       <c r="AF50" t="n">
-        <v>17.63199735962697</v>
+        <v>187.2578502496896</v>
       </c>
     </row>
     <row r="51">
@@ -5757,28 +5787,28 @@
         <v>1.044394367241605</v>
       </c>
       <c r="Y51" t="n">
-        <v>224.8306878306878</v>
+        <v>1.133497691312587</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.5677846071619455</v>
+        <v>1997</v>
       </c>
       <c r="AA51" t="n">
-        <v>175</v>
+        <v>5.1</v>
       </c>
       <c r="AB51" t="n">
-        <v>1997</v>
+        <v>27.7076923076923</v>
       </c>
       <c r="AC51" t="n">
-        <v>5.1</v>
+        <v>116.9992307692308</v>
       </c>
       <c r="AD51" t="n">
-        <v>27.7076923076923</v>
+        <v>17.63199735962697</v>
       </c>
       <c r="AE51" t="n">
-        <v>116.9992307692308</v>
+        <v>1.55</v>
       </c>
       <c r="AF51" t="n">
-        <v>17.63199735962697</v>
+        <v>187.2578502496896</v>
       </c>
     </row>
     <row r="52">
@@ -5859,28 +5889,28 @@
         <v>1.044394367241605</v>
       </c>
       <c r="Y52" t="n">
-        <v>224.8306878306878</v>
+        <v>1.133497691312587</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.5377839650699234</v>
+        <v>1997</v>
       </c>
       <c r="AA52" t="n">
-        <v>175</v>
+        <v>5.092857142857143</v>
       </c>
       <c r="AB52" t="n">
-        <v>1997</v>
+        <v>28.98857142857143</v>
       </c>
       <c r="AC52" t="n">
-        <v>5.092857142857143</v>
+        <v>121.4028571428572</v>
       </c>
       <c r="AD52" t="n">
-        <v>28.98857142857143</v>
+        <v>17.8597701932918</v>
       </c>
       <c r="AE52" t="n">
-        <v>121.4028571428572</v>
+        <v>1.55</v>
       </c>
       <c r="AF52" t="n">
-        <v>17.8597701932918</v>
+        <v>187.2578502496896</v>
       </c>
     </row>
     <row r="53">
@@ -5961,28 +5991,28 @@
         <v>1.044394367241605</v>
       </c>
       <c r="Y53" t="n">
-        <v>224.8306878306878</v>
+        <v>1.133497691312587</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.5377839650699234</v>
+        <v>1997</v>
       </c>
       <c r="AA53" t="n">
-        <v>175</v>
+        <v>5.092857142857143</v>
       </c>
       <c r="AB53" t="n">
-        <v>1997</v>
+        <v>28.98857142857143</v>
       </c>
       <c r="AC53" t="n">
-        <v>5.092857142857143</v>
+        <v>121.4028571428572</v>
       </c>
       <c r="AD53" t="n">
-        <v>28.98857142857143</v>
+        <v>17.8597701932918</v>
       </c>
       <c r="AE53" t="n">
-        <v>121.4028571428572</v>
+        <v>1.55</v>
       </c>
       <c r="AF53" t="n">
-        <v>17.8597701932918</v>
+        <v>187.2578502496896</v>
       </c>
     </row>
     <row r="54">
@@ -6010,7 +6040,7 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="J54" t="n">
@@ -6063,28 +6093,28 @@
         <v>1.811345791353538</v>
       </c>
       <c r="Y54" t="n">
-        <v>252.9615384615385</v>
+        <v>0.6274811136990935</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.597927209915452</v>
+        <v>1999</v>
       </c>
       <c r="AA54" t="n">
-        <v>67</v>
+        <v>5.13</v>
       </c>
       <c r="AB54" t="n">
-        <v>1999</v>
+        <v>22.59</v>
       </c>
       <c r="AC54" t="n">
-        <v>5.13</v>
+        <v>56.36</v>
       </c>
       <c r="AD54" t="n">
-        <v>22.59</v>
+        <v>17.95993678687839</v>
       </c>
       <c r="AE54" t="n">
-        <v>56.36</v>
+        <v>1.17</v>
       </c>
       <c r="AF54" t="n">
-        <v>17.95993678687839</v>
+        <v>106.6960546126119</v>
       </c>
     </row>
     <row r="55">
@@ -6112,7 +6142,7 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="J55" t="n">
@@ -6165,28 +6195,28 @@
         <v>1.811345791353538</v>
       </c>
       <c r="Y55" t="n">
-        <v>252.9615384615385</v>
+        <v>0.6274811136990935</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.597927209915452</v>
+        <v>1999</v>
       </c>
       <c r="AA55" t="n">
-        <v>67</v>
+        <v>5.13</v>
       </c>
       <c r="AB55" t="n">
-        <v>1999</v>
+        <v>22.59</v>
       </c>
       <c r="AC55" t="n">
-        <v>5.13</v>
+        <v>56.36</v>
       </c>
       <c r="AD55" t="n">
-        <v>22.59</v>
+        <v>17.95993678687839</v>
       </c>
       <c r="AE55" t="n">
-        <v>56.36</v>
+        <v>1.17</v>
       </c>
       <c r="AF55" t="n">
-        <v>17.95993678687839</v>
+        <v>106.6960546126119</v>
       </c>
     </row>
     <row r="56">
@@ -6214,7 +6244,7 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="J56" t="n">
@@ -6267,28 +6297,28 @@
         <v>1.811345791353538</v>
       </c>
       <c r="Y56" t="n">
-        <v>252.9615384615385</v>
+        <v>0.6274811136990935</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.579999412093242</v>
+        <v>1999</v>
       </c>
       <c r="AA56" t="n">
-        <v>67</v>
+        <v>5.13</v>
       </c>
       <c r="AB56" t="n">
-        <v>1999</v>
+        <v>22.59</v>
       </c>
       <c r="AC56" t="n">
-        <v>5.13</v>
+        <v>56.36</v>
       </c>
       <c r="AD56" t="n">
-        <v>22.59</v>
+        <v>17.95993678687839</v>
       </c>
       <c r="AE56" t="n">
-        <v>56.36</v>
+        <v>1.17</v>
       </c>
       <c r="AF56" t="n">
-        <v>17.95993678687839</v>
+        <v>106.6960546126119</v>
       </c>
     </row>
     <row r="57">
@@ -6316,7 +6346,7 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="J57" t="n">
@@ -6369,28 +6399,28 @@
         <v>1.811345791353538</v>
       </c>
       <c r="Y57" t="n">
-        <v>252.9615384615385</v>
+        <v>0.6274811136990935</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.579999412093242</v>
+        <v>1999</v>
       </c>
       <c r="AA57" t="n">
-        <v>67</v>
+        <v>5.13</v>
       </c>
       <c r="AB57" t="n">
-        <v>1999</v>
+        <v>22.59</v>
       </c>
       <c r="AC57" t="n">
-        <v>5.13</v>
+        <v>56.36</v>
       </c>
       <c r="AD57" t="n">
-        <v>22.59</v>
+        <v>17.95993678687839</v>
       </c>
       <c r="AE57" t="n">
-        <v>56.36</v>
+        <v>1.17</v>
       </c>
       <c r="AF57" t="n">
-        <v>17.95993678687839</v>
+        <v>106.6960546126119</v>
       </c>
     </row>
     <row r="58">
@@ -6461,28 +6491,28 @@
         <v>1.256752661572447</v>
       </c>
       <c r="Y58" t="n">
-        <v>314.8293963254593</v>
+        <v>1.759450548280041</v>
       </c>
       <c r="Z58" t="n">
-        <v>0.5262580616856052</v>
+        <v>2009</v>
       </c>
       <c r="AA58" t="n">
-        <v>226</v>
+        <v>8.896170212765956</v>
       </c>
       <c r="AB58" t="n">
-        <v>2009</v>
+        <v>42.65106382978723</v>
       </c>
       <c r="AC58" t="n">
-        <v>8.896170212765956</v>
+        <v>312.512765957447</v>
       </c>
       <c r="AD58" t="n">
-        <v>42.65106382978723</v>
+        <v>15.43950591418038</v>
       </c>
       <c r="AE58" t="n">
-        <v>312.512765957447</v>
+        <v>2.819999999999999</v>
       </c>
       <c r="AF58" t="n">
-        <v>15.43950591418038</v>
+        <v>619.8332271906891</v>
       </c>
     </row>
     <row r="59">
@@ -6553,28 +6583,28 @@
         <v>1.256752661572447</v>
       </c>
       <c r="Y59" t="n">
-        <v>314.8293963254593</v>
+        <v>1.759450548280041</v>
       </c>
       <c r="Z59" t="n">
-        <v>0.5262580616856052</v>
+        <v>2011</v>
       </c>
       <c r="AA59" t="n">
-        <v>226</v>
+        <v>9.132545333333333</v>
       </c>
       <c r="AB59" t="n">
-        <v>2011</v>
+        <v>44.68687455770278</v>
       </c>
       <c r="AC59" t="n">
-        <v>9.132545333333333</v>
+        <v>330.0806611162334</v>
       </c>
       <c r="AD59" t="n">
-        <v>44.68687455770278</v>
+        <v>15.23446673077937</v>
       </c>
       <c r="AE59" t="n">
-        <v>330.0806611162334</v>
+        <v>2.85</v>
       </c>
       <c r="AF59" t="n">
-        <v>15.23446673077937</v>
+        <v>633.0913168171086</v>
       </c>
     </row>
     <row r="60">
@@ -6665,28 +6695,28 @@
         <v>1.229479581294727</v>
       </c>
       <c r="Y60" t="n">
-        <v>282.9545454545454</v>
+        <v>2.143390430218807</v>
       </c>
       <c r="Z60" t="n">
-        <v>0.5413043478260869</v>
+        <v>1992</v>
       </c>
       <c r="AA60" t="n">
-        <v>292</v>
+        <v>5.1</v>
       </c>
       <c r="AB60" t="n">
-        <v>1992</v>
+        <v>33.09</v>
       </c>
       <c r="AC60" t="n">
-        <v>5.1</v>
+        <v>287.02</v>
       </c>
       <c r="AD60" t="n">
-        <v>33.09</v>
+        <v>17.03081753422711</v>
       </c>
       <c r="AE60" t="n">
-        <v>287.02</v>
+        <v>2.44</v>
       </c>
       <c r="AF60" t="n">
-        <v>17.03081753422711</v>
+        <v>464.0409312160465</v>
       </c>
     </row>
     <row r="61">
@@ -6767,28 +6797,28 @@
         <v>1.229479581294727</v>
       </c>
       <c r="Y61" t="n">
-        <v>282.9545454545454</v>
+        <v>2.143390430218807</v>
       </c>
       <c r="Z61" t="n">
-        <v>0.5413043478260869</v>
+        <v>1992</v>
       </c>
       <c r="AA61" t="n">
-        <v>292</v>
+        <v>5.1</v>
       </c>
       <c r="AB61" t="n">
-        <v>1992</v>
+        <v>33.09</v>
       </c>
       <c r="AC61" t="n">
-        <v>5.1</v>
+        <v>287.02</v>
       </c>
       <c r="AD61" t="n">
-        <v>33.09</v>
+        <v>17.03081753422711</v>
       </c>
       <c r="AE61" t="n">
-        <v>287.02</v>
+        <v>2.44</v>
       </c>
       <c r="AF61" t="n">
-        <v>17.03081753422711</v>
+        <v>464.0409312160465</v>
       </c>
     </row>
     <row r="62">
@@ -6869,28 +6899,28 @@
         <v>1.229479581294727</v>
       </c>
       <c r="Y62" t="n">
-        <v>282.9545454545454</v>
+        <v>2.143390430218807</v>
       </c>
       <c r="Z62" t="n">
-        <v>0.5413043478260869</v>
+        <v>1995</v>
       </c>
       <c r="AA62" t="n">
-        <v>292</v>
+        <v>5.1</v>
       </c>
       <c r="AB62" t="n">
-        <v>1995</v>
+        <v>35.7</v>
       </c>
       <c r="AC62" t="n">
-        <v>5.1</v>
+        <v>304.8</v>
       </c>
       <c r="AD62" t="n">
-        <v>35.7</v>
+        <v>17.16930236458494</v>
       </c>
       <c r="AE62" t="n">
-        <v>304.8</v>
+        <v>2.44</v>
       </c>
       <c r="AF62" t="n">
-        <v>17.16930236458494</v>
+        <v>464.0409312160465</v>
       </c>
     </row>
     <row r="63">
@@ -6961,28 +6991,28 @@
         <v>1.229479581294727</v>
       </c>
       <c r="Y63" t="n">
-        <v>284.3181818181818</v>
+        <v>2.143390430218807</v>
       </c>
       <c r="Z63" t="n">
-        <v>0.5439130434782609</v>
+        <v>1993</v>
       </c>
       <c r="AA63" t="n">
-        <v>292</v>
+        <v>5.01</v>
       </c>
       <c r="AB63" t="n">
-        <v>1993</v>
+        <v>33.1</v>
       </c>
       <c r="AC63" t="n">
-        <v>5.01</v>
+        <v>303.79</v>
       </c>
       <c r="AD63" t="n">
-        <v>33.1</v>
+        <v>16.9145531049301</v>
       </c>
       <c r="AE63" t="n">
-        <v>303.79</v>
+        <v>2.54</v>
       </c>
       <c r="AF63" t="n">
-        <v>16.9145531049301</v>
+        <v>502.8565022563567</v>
       </c>
     </row>
     <row r="64">
@@ -7053,28 +7083,28 @@
         <v>1.229479581294727</v>
       </c>
       <c r="Y64" t="n">
-        <v>284.3181818181818</v>
+        <v>2.143390430218807</v>
       </c>
       <c r="Z64" t="n">
-        <v>0.5439130434782609</v>
+        <v>1993</v>
       </c>
       <c r="AA64" t="n">
-        <v>292</v>
+        <v>5.13</v>
       </c>
       <c r="AB64" t="n">
-        <v>1993</v>
+        <v>31.27</v>
       </c>
       <c r="AC64" t="n">
-        <v>5.13</v>
+        <v>285.79</v>
       </c>
       <c r="AD64" t="n">
-        <v>31.27</v>
+        <v>16.79205743212622</v>
       </c>
       <c r="AE64" t="n">
-        <v>285.79</v>
+        <v>2.54</v>
       </c>
       <c r="AF64" t="n">
-        <v>16.79205743212622</v>
+        <v>502.8565022563566</v>
       </c>
     </row>
     <row r="65">
@@ -7155,20 +7185,20 @@
         <v>1.229479581294727</v>
       </c>
       <c r="Y65" t="n">
-        <v>283.1818181818182</v>
-      </c>
-      <c r="Z65" t="n">
-        <v>0.5417391304347826</v>
-      </c>
-      <c r="AA65" t="n">
-        <v>292</v>
-      </c>
+        <v>2.143390430218807</v>
+      </c>
+      <c r="Z65" t="inlineStr"/>
+      <c r="AA65" t="inlineStr"/>
       <c r="AB65" t="inlineStr"/>
       <c r="AC65" t="inlineStr"/>
-      <c r="AD65" t="inlineStr"/>
-      <c r="AE65" t="inlineStr"/>
+      <c r="AD65" t="n">
+        <v>16.269</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>2.47</v>
+      </c>
       <c r="AF65" t="n">
-        <v>16.269</v>
+        <v>475.521922409295</v>
       </c>
     </row>
     <row r="66">
@@ -7249,20 +7279,20 @@
         <v>1.229479581294727</v>
       </c>
       <c r="Y66" t="n">
-        <v>283.1818181818182</v>
-      </c>
-      <c r="Z66" t="n">
-        <v>0.5417391304347826</v>
-      </c>
-      <c r="AA66" t="n">
-        <v>292</v>
-      </c>
+        <v>2.143390430218807</v>
+      </c>
+      <c r="Z66" t="inlineStr"/>
+      <c r="AA66" t="inlineStr"/>
       <c r="AB66" t="inlineStr"/>
       <c r="AC66" t="inlineStr"/>
-      <c r="AD66" t="inlineStr"/>
-      <c r="AE66" t="inlineStr"/>
+      <c r="AD66" t="n">
+        <v>16.269</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>2.47</v>
+      </c>
       <c r="AF66" t="n">
-        <v>16.269</v>
+        <v>475.521922409295</v>
       </c>
     </row>
     <row r="67">
@@ -7343,20 +7373,20 @@
         <v>1.229479581294727</v>
       </c>
       <c r="Y67" t="n">
-        <v>283.1818181818182</v>
-      </c>
-      <c r="Z67" t="n">
-        <v>0.5417391304347826</v>
-      </c>
-      <c r="AA67" t="n">
-        <v>292</v>
-      </c>
+        <v>2.143390430218807</v>
+      </c>
+      <c r="Z67" t="inlineStr"/>
+      <c r="AA67" t="inlineStr"/>
       <c r="AB67" t="inlineStr"/>
       <c r="AC67" t="inlineStr"/>
-      <c r="AD67" t="inlineStr"/>
-      <c r="AE67" t="inlineStr"/>
+      <c r="AD67" t="n">
+        <v>16.269</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>2.47</v>
+      </c>
       <c r="AF67" t="n">
-        <v>16.269</v>
+        <v>475.521922409295</v>
       </c>
     </row>
     <row r="68">
@@ -7437,20 +7467,20 @@
         <v>1.229479581294727</v>
       </c>
       <c r="Y68" t="n">
-        <v>283.1818181818182</v>
-      </c>
-      <c r="Z68" t="n">
-        <v>0.5417391304347826</v>
-      </c>
-      <c r="AA68" t="n">
-        <v>292</v>
-      </c>
+        <v>2.143390430218807</v>
+      </c>
+      <c r="Z68" t="inlineStr"/>
+      <c r="AA68" t="inlineStr"/>
       <c r="AB68" t="inlineStr"/>
       <c r="AC68" t="inlineStr"/>
-      <c r="AD68" t="inlineStr"/>
-      <c r="AE68" t="inlineStr"/>
+      <c r="AD68" t="n">
+        <v>16.269</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>2.47</v>
+      </c>
       <c r="AF68" t="n">
-        <v>16.269</v>
+        <v>475.521922409295</v>
       </c>
     </row>
     <row r="69">
@@ -7478,7 +7508,7 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="J69" t="n">
@@ -7531,28 +7561,28 @@
         <v>2.16826498481953</v>
       </c>
       <c r="Y69" t="n">
-        <v>238.8</v>
+        <v>0.8834002959058085</v>
       </c>
       <c r="Z69" t="n">
-        <v>0.5796116504854369</v>
+        <v>1995</v>
       </c>
       <c r="AA69" t="n">
-        <v>50</v>
+        <v>4.77</v>
       </c>
       <c r="AB69" t="n">
-        <v>1995</v>
+        <v>17.9</v>
       </c>
       <c r="AC69" t="n">
-        <v>4.77</v>
+        <v>34.74</v>
       </c>
       <c r="AD69" t="n">
-        <v>17.9</v>
+        <v>18.12812519816411</v>
       </c>
       <c r="AE69" t="n">
-        <v>34.74</v>
+        <v>0.98</v>
       </c>
       <c r="AF69" t="n">
-        <v>18.12812519816411</v>
+        <v>74.85637435163447</v>
       </c>
     </row>
     <row r="70">
@@ -7580,7 +7610,7 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="J70" t="n">
@@ -7633,28 +7663,28 @@
         <v>2.16826498481953</v>
       </c>
       <c r="Y70" t="n">
-        <v>238.8</v>
+        <v>0.8834002959058085</v>
       </c>
       <c r="Z70" t="n">
-        <v>0.5796116504854369</v>
+        <v>1995</v>
       </c>
       <c r="AA70" t="n">
-        <v>50</v>
+        <v>4.77</v>
       </c>
       <c r="AB70" t="n">
-        <v>1995</v>
+        <v>17.9</v>
       </c>
       <c r="AC70" t="n">
-        <v>4.77</v>
+        <v>34.74</v>
       </c>
       <c r="AD70" t="n">
-        <v>17.9</v>
+        <v>18.12812519816411</v>
       </c>
       <c r="AE70" t="n">
-        <v>34.74</v>
+        <v>0.98</v>
       </c>
       <c r="AF70" t="n">
-        <v>18.12812519816411</v>
+        <v>74.85637435163447</v>
       </c>
     </row>
     <row r="71">
@@ -7682,7 +7712,7 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="J71" t="n">
@@ -7735,28 +7765,28 @@
         <v>2.16826498481953</v>
       </c>
       <c r="Y71" t="n">
-        <v>242</v>
+        <v>0.8834002959058085</v>
       </c>
       <c r="Z71" t="n">
-        <v>0.55</v>
+        <v>1995</v>
       </c>
       <c r="AA71" t="n">
-        <v>50</v>
+        <v>4.77</v>
       </c>
       <c r="AB71" t="n">
-        <v>1995</v>
+        <v>17.9</v>
       </c>
       <c r="AC71" t="n">
-        <v>4.77</v>
+        <v>34.74</v>
       </c>
       <c r="AD71" t="n">
-        <v>17.9</v>
+        <v>18.12812519816411</v>
       </c>
       <c r="AE71" t="n">
-        <v>34.74</v>
+        <v>0.98</v>
       </c>
       <c r="AF71" t="n">
-        <v>18.12812519816411</v>
+        <v>74.85637435163447</v>
       </c>
     </row>
     <row r="72">
@@ -7784,7 +7814,7 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="J72" t="n">
@@ -7837,28 +7867,28 @@
         <v>2.16826498481953</v>
       </c>
       <c r="Y72" t="n">
-        <v>251.6</v>
+        <v>0.8834002959058085</v>
       </c>
       <c r="Z72" t="n">
-        <v>0.5219917012448133</v>
+        <v>1995</v>
       </c>
       <c r="AA72" t="n">
-        <v>50</v>
+        <v>4.77</v>
       </c>
       <c r="AB72" t="n">
-        <v>1995</v>
+        <v>17.9</v>
       </c>
       <c r="AC72" t="n">
-        <v>4.77</v>
+        <v>34.74</v>
       </c>
       <c r="AD72" t="n">
-        <v>17.9</v>
+        <v>18.12812519816411</v>
       </c>
       <c r="AE72" t="n">
-        <v>34.74</v>
+        <v>0.98</v>
       </c>
       <c r="AF72" t="n">
-        <v>18.12812519816411</v>
+        <v>74.85637435163447</v>
       </c>
     </row>
     <row r="73">
@@ -7886,7 +7916,7 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="J73" t="n">
@@ -7939,28 +7969,28 @@
         <v>2.16826498481953</v>
       </c>
       <c r="Y73" t="n">
-        <v>238.8</v>
+        <v>0.8834002959058085</v>
       </c>
       <c r="Z73" t="n">
-        <v>0.5796116504854369</v>
+        <v>1995</v>
       </c>
       <c r="AA73" t="n">
-        <v>50</v>
+        <v>4.783461538461538</v>
       </c>
       <c r="AB73" t="n">
-        <v>1995</v>
+        <v>17.96807692307692</v>
       </c>
       <c r="AC73" t="n">
-        <v>4.783461538461538</v>
+        <v>34.92307692307692</v>
       </c>
       <c r="AD73" t="n">
-        <v>17.96807692307692</v>
+        <v>18.13422425095263</v>
       </c>
       <c r="AE73" t="n">
-        <v>34.92307692307692</v>
+        <v>0.98</v>
       </c>
       <c r="AF73" t="n">
-        <v>18.13422425095263</v>
+        <v>74.85637435163447</v>
       </c>
     </row>
     <row r="74">
@@ -7988,7 +8018,7 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="J74" t="n">
@@ -8041,28 +8071,28 @@
         <v>2.16826498481953</v>
       </c>
       <c r="Y74" t="n">
-        <v>242</v>
+        <v>0.8834002959058085</v>
       </c>
       <c r="Z74" t="n">
-        <v>0.55</v>
+        <v>1995</v>
       </c>
       <c r="AA74" t="n">
-        <v>50</v>
+        <v>4.783461538461538</v>
       </c>
       <c r="AB74" t="n">
-        <v>1995</v>
+        <v>17.96807692307692</v>
       </c>
       <c r="AC74" t="n">
-        <v>4.783461538461538</v>
+        <v>34.92307692307692</v>
       </c>
       <c r="AD74" t="n">
-        <v>17.96807692307692</v>
+        <v>18.13422425095263</v>
       </c>
       <c r="AE74" t="n">
-        <v>34.92307692307692</v>
+        <v>0.98</v>
       </c>
       <c r="AF74" t="n">
-        <v>18.13422425095263</v>
+        <v>74.85637435163447</v>
       </c>
     </row>
     <row r="75">
@@ -8090,7 +8120,7 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="J75" t="n">
@@ -8143,28 +8173,28 @@
         <v>2.16826498481953</v>
       </c>
       <c r="Y75" t="n">
-        <v>251.6</v>
+        <v>0.8834002959058085</v>
       </c>
       <c r="Z75" t="n">
-        <v>0.5219917012448133</v>
+        <v>1995</v>
       </c>
       <c r="AA75" t="n">
-        <v>50</v>
+        <v>4.783461538461538</v>
       </c>
       <c r="AB75" t="n">
-        <v>1995</v>
+        <v>17.96807692307692</v>
       </c>
       <c r="AC75" t="n">
-        <v>4.783461538461538</v>
+        <v>34.92307692307692</v>
       </c>
       <c r="AD75" t="n">
-        <v>17.96807692307692</v>
+        <v>18.13422425095263</v>
       </c>
       <c r="AE75" t="n">
-        <v>34.92307692307692</v>
+        <v>0.98</v>
       </c>
       <c r="AF75" t="n">
-        <v>18.13422425095263</v>
+        <v>74.85637435163447</v>
       </c>
     </row>
     <row r="76">
@@ -8239,28 +8269,28 @@
         <v>1.45127382838302</v>
       </c>
       <c r="Y76" t="n">
-        <v>287.3272727272727</v>
+        <v>2.809431848215119</v>
       </c>
       <c r="Z76" t="n">
-        <v>0.527875204596319</v>
+        <v>1996</v>
       </c>
       <c r="AA76" t="n">
-        <v>329</v>
+        <v>6.05</v>
       </c>
       <c r="AB76" t="n">
-        <v>1996</v>
+        <v>39.03</v>
       </c>
       <c r="AC76" t="n">
-        <v>6.05</v>
+        <v>401.65</v>
       </c>
       <c r="AD76" t="n">
-        <v>39.03</v>
+        <v>17.11547782508713</v>
       </c>
       <c r="AE76" t="n">
-        <v>401.65</v>
+        <v>2.85</v>
       </c>
       <c r="AF76" t="n">
-        <v>17.11547782508713</v>
+        <v>633.0913168171086</v>
       </c>
     </row>
     <row r="77">
@@ -8302,7 +8332,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>PW4098</t>
+          <t>PW4090</t>
         </is>
       </c>
       <c r="N77" t="n">
@@ -8345,19 +8375,29 @@
         <v>1.45127382838302</v>
       </c>
       <c r="Y77" t="n">
-        <v>288.1545454545454</v>
+        <v>2.809431848215119</v>
       </c>
       <c r="Z77" t="n">
-        <v>0.529395062965561</v>
+        <v>1996</v>
       </c>
       <c r="AA77" t="n">
-        <v>329</v>
-      </c>
-      <c r="AB77" t="inlineStr"/>
-      <c r="AC77" t="inlineStr"/>
-      <c r="AD77" t="inlineStr"/>
-      <c r="AE77" t="inlineStr"/>
-      <c r="AF77" t="inlineStr"/>
+        <v>6.05</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>39.03</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>401.65</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>17.11547782508713</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>633.0913168171086</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -8441,20 +8481,20 @@
         <v>1.45127382838302</v>
       </c>
       <c r="Y78" t="n">
-        <v>282.8</v>
-      </c>
-      <c r="Z78" t="n">
-        <v>0.5912270031929451</v>
-      </c>
-      <c r="AA78" t="n">
-        <v>329</v>
-      </c>
+        <v>2.809431848215119</v>
+      </c>
+      <c r="Z78" t="inlineStr"/>
+      <c r="AA78" t="inlineStr"/>
       <c r="AB78" t="inlineStr"/>
       <c r="AC78" t="inlineStr"/>
-      <c r="AD78" t="inlineStr"/>
-      <c r="AE78" t="inlineStr"/>
+      <c r="AD78" t="n">
+        <v>16.0415</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>2.8</v>
+      </c>
       <c r="AF78" t="n">
-        <v>16.0415</v>
+        <v>611.072443686812</v>
       </c>
     </row>
     <row r="79">
@@ -8539,20 +8579,20 @@
         <v>1.45127382838302</v>
       </c>
       <c r="Y79" t="n">
-        <v>282.8</v>
-      </c>
-      <c r="Z79" t="n">
-        <v>0.5195577379162909</v>
-      </c>
-      <c r="AA79" t="n">
-        <v>329</v>
-      </c>
+        <v>2.809431848215119</v>
+      </c>
+      <c r="Z79" t="inlineStr"/>
+      <c r="AA79" t="inlineStr"/>
       <c r="AB79" t="inlineStr"/>
       <c r="AC79" t="inlineStr"/>
-      <c r="AD79" t="inlineStr"/>
-      <c r="AE79" t="inlineStr"/>
+      <c r="AD79" t="n">
+        <v>16.0415</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>2.8</v>
+      </c>
       <c r="AF79" t="n">
-        <v>16.0415</v>
+        <v>611.072443686812</v>
       </c>
     </row>
     <row r="80">
@@ -8627,28 +8667,28 @@
         <v>1.45127382838302</v>
       </c>
       <c r="Y80" t="n">
-        <v>305.1454545454545</v>
+        <v>2.809431848215119</v>
       </c>
       <c r="Z80" t="n">
-        <v>0.4774204560001138</v>
+        <v>2003</v>
       </c>
       <c r="AA80" t="n">
-        <v>329</v>
+        <v>7.093333333333334</v>
       </c>
       <c r="AB80" t="n">
-        <v>2003</v>
+        <v>42.70666666666667</v>
       </c>
       <c r="AC80" t="n">
-        <v>7.093333333333334</v>
+        <v>513.9</v>
       </c>
       <c r="AD80" t="n">
-        <v>42.70666666666667</v>
+        <v>16.50444432675068</v>
       </c>
       <c r="AE80" t="n">
-        <v>513.9</v>
+        <v>3.3</v>
       </c>
       <c r="AF80" t="n">
-        <v>16.50444432675068</v>
+        <v>848.7983305802785</v>
       </c>
     </row>
     <row r="81">
@@ -8733,28 +8773,28 @@
         <v>1.712372106412916</v>
       </c>
       <c r="Y81" t="n">
-        <v>226.4516129032258</v>
+        <v>1.006548862277401</v>
       </c>
       <c r="Z81" t="n">
-        <v>0.5875706214689266</v>
+        <v>2004</v>
       </c>
       <c r="AA81" t="n">
-        <v>99</v>
+        <v>5.09</v>
       </c>
       <c r="AB81" t="n">
-        <v>2004</v>
+        <v>26.45555555555556</v>
       </c>
       <c r="AC81" t="n">
-        <v>5.09</v>
+        <v>80.68222222222224</v>
       </c>
       <c r="AD81" t="n">
-        <v>26.45555555555556</v>
+        <v>17.58758235398228</v>
       </c>
       <c r="AE81" t="n">
-        <v>80.68222222222224</v>
+        <v>1.3</v>
       </c>
       <c r="AF81" t="n">
-        <v>17.58758235398228</v>
+        <v>131.7235242131011</v>
       </c>
     </row>
     <row r="82">
@@ -8839,28 +8879,28 @@
         <v>1.712372106412916</v>
       </c>
       <c r="Y82" t="n">
-        <v>226.4516129032258</v>
+        <v>1.006548862277401</v>
       </c>
       <c r="Z82" t="n">
-        <v>0.5582504970178926</v>
+        <v>2004</v>
       </c>
       <c r="AA82" t="n">
-        <v>99</v>
+        <v>5.09</v>
       </c>
       <c r="AB82" t="n">
-        <v>2004</v>
+        <v>26.45555555555556</v>
       </c>
       <c r="AC82" t="n">
-        <v>5.09</v>
+        <v>80.68222222222224</v>
       </c>
       <c r="AD82" t="n">
-        <v>26.45555555555556</v>
+        <v>17.58758235398228</v>
       </c>
       <c r="AE82" t="n">
-        <v>80.68222222222224</v>
+        <v>1.3</v>
       </c>
       <c r="AF82" t="n">
-        <v>17.58758235398228</v>
+        <v>131.7235242131011</v>
       </c>
     </row>
     <row r="83">
@@ -8945,28 +8985,28 @@
         <v>1.712372106412916</v>
       </c>
       <c r="Y83" t="n">
-        <v>227.258064516129</v>
+        <v>1.006548862277401</v>
       </c>
       <c r="Z83" t="n">
-        <v>0.544015444015444</v>
+        <v>2004</v>
       </c>
       <c r="AA83" t="n">
-        <v>99</v>
+        <v>5.09</v>
       </c>
       <c r="AB83" t="n">
-        <v>2004</v>
+        <v>26.45555555555556</v>
       </c>
       <c r="AC83" t="n">
-        <v>5.09</v>
+        <v>80.68222222222224</v>
       </c>
       <c r="AD83" t="n">
-        <v>26.45555555555556</v>
+        <v>17.58758235398228</v>
       </c>
       <c r="AE83" t="n">
-        <v>80.68222222222224</v>
+        <v>1.3</v>
       </c>
       <c r="AF83" t="n">
-        <v>17.58758235398228</v>
+        <v>131.7235242131011</v>
       </c>
     </row>
     <row r="84">
@@ -9037,28 +9077,28 @@
         <v>1.152019941095649</v>
       </c>
       <c r="Y84" t="n">
-        <v>306.7857142857143</v>
+        <v>1.8740015351479</v>
       </c>
       <c r="Z84" t="n">
-        <v>0.5059051717368429</v>
+        <v>2009</v>
       </c>
       <c r="AA84" t="n">
-        <v>266</v>
+        <v>8.896170212765956</v>
       </c>
       <c r="AB84" t="n">
-        <v>2009</v>
+        <v>42.65106382978723</v>
       </c>
       <c r="AC84" t="n">
-        <v>8.896170212765956</v>
+        <v>312.512765957447</v>
       </c>
       <c r="AD84" t="n">
-        <v>42.65106382978723</v>
+        <v>15.43950591418038</v>
       </c>
       <c r="AE84" t="n">
-        <v>312.512765957447</v>
+        <v>2.819999999999999</v>
       </c>
       <c r="AF84" t="n">
-        <v>15.43950591418038</v>
+        <v>619.8332271906891</v>
       </c>
     </row>
     <row r="85">
@@ -9129,28 +9169,28 @@
         <v>1.152019941095649</v>
       </c>
       <c r="Y85" t="n">
-        <v>306.7857142857143</v>
+        <v>1.8740015351479</v>
       </c>
       <c r="Z85" t="n">
-        <v>0.5059051717368429</v>
+        <v>2011</v>
       </c>
       <c r="AA85" t="n">
-        <v>266</v>
+        <v>9.132545333333333</v>
       </c>
       <c r="AB85" t="n">
-        <v>2011</v>
+        <v>44.68687455770278</v>
       </c>
       <c r="AC85" t="n">
-        <v>9.132545333333333</v>
+        <v>330.0806611162334</v>
       </c>
       <c r="AD85" t="n">
-        <v>44.68687455770278</v>
+        <v>15.23446673077937</v>
       </c>
       <c r="AE85" t="n">
-        <v>330.0806611162334</v>
+        <v>2.85</v>
       </c>
       <c r="AF85" t="n">
-        <v>15.23446673077937</v>
+        <v>633.0913168171086</v>
       </c>
     </row>
     <row r="86">
@@ -9241,28 +9281,28 @@
         <v>1.005997360734154</v>
       </c>
       <c r="Y86" t="n">
-        <v>203.0772727272727</v>
+        <v>0.9670074048158412</v>
       </c>
       <c r="Z86" t="n">
-        <v>0.524753638168172</v>
+        <v>1997</v>
       </c>
       <c r="AA86" t="n">
-        <v>179</v>
+        <v>5.283333333333334</v>
       </c>
       <c r="AB86" t="n">
-        <v>1997</v>
+        <v>25.65833333333333</v>
       </c>
       <c r="AC86" t="n">
-        <v>5.283333333333334</v>
+        <v>107.6083333333333</v>
       </c>
       <c r="AD86" t="n">
-        <v>25.65833333333333</v>
+        <v>17.41156078513215</v>
       </c>
       <c r="AE86" t="n">
-        <v>107.6083333333333</v>
+        <v>1.55</v>
       </c>
       <c r="AF86" t="n">
-        <v>17.41156078513215</v>
+        <v>187.2578502496896</v>
       </c>
     </row>
     <row r="87">
@@ -9343,28 +9383,28 @@
         <v>1.005997360734154</v>
       </c>
       <c r="Y87" t="n">
-        <v>203.0772727272727</v>
+        <v>0.9670074048158412</v>
       </c>
       <c r="Z87" t="n">
-        <v>0.524753638168172</v>
+        <v>1997</v>
       </c>
       <c r="AA87" t="n">
-        <v>179</v>
+        <v>5.283333333333334</v>
       </c>
       <c r="AB87" t="n">
-        <v>1997</v>
+        <v>25.65833333333333</v>
       </c>
       <c r="AC87" t="n">
-        <v>5.283333333333334</v>
+        <v>107.6083333333333</v>
       </c>
       <c r="AD87" t="n">
-        <v>25.65833333333333</v>
+        <v>17.41156078513215</v>
       </c>
       <c r="AE87" t="n">
-        <v>107.6083333333333</v>
+        <v>1.55</v>
       </c>
       <c r="AF87" t="n">
-        <v>17.41156078513215</v>
+        <v>187.2578502496896</v>
       </c>
     </row>
     <row r="88">
@@ -9445,28 +9485,28 @@
         <v>1.005997360734154</v>
       </c>
       <c r="Y88" t="n">
-        <v>203.0772727272727</v>
+        <v>0.9670074048158412</v>
       </c>
       <c r="Z88" t="n">
-        <v>0.524753638168172</v>
+        <v>1997</v>
       </c>
       <c r="AA88" t="n">
-        <v>179</v>
+        <v>5.1</v>
       </c>
       <c r="AB88" t="n">
-        <v>1997</v>
+        <v>27.7076923076923</v>
       </c>
       <c r="AC88" t="n">
-        <v>5.1</v>
+        <v>116.9992307692308</v>
       </c>
       <c r="AD88" t="n">
-        <v>27.7076923076923</v>
+        <v>17.63199735962697</v>
       </c>
       <c r="AE88" t="n">
-        <v>116.9992307692308</v>
+        <v>1.55</v>
       </c>
       <c r="AF88" t="n">
-        <v>17.63199735962697</v>
+        <v>187.2578502496896</v>
       </c>
     </row>
     <row r="89">
@@ -9547,28 +9587,28 @@
         <v>1.005997360734154</v>
       </c>
       <c r="Y89" t="n">
-        <v>203.0772727272727</v>
+        <v>0.9670074048158412</v>
       </c>
       <c r="Z89" t="n">
-        <v>0.524753638168172</v>
+        <v>1997</v>
       </c>
       <c r="AA89" t="n">
-        <v>179</v>
+        <v>5.1</v>
       </c>
       <c r="AB89" t="n">
-        <v>1997</v>
+        <v>27.7076923076923</v>
       </c>
       <c r="AC89" t="n">
-        <v>5.1</v>
+        <v>116.9992307692308</v>
       </c>
       <c r="AD89" t="n">
-        <v>27.7076923076923</v>
+        <v>17.63199735962697</v>
       </c>
       <c r="AE89" t="n">
-        <v>116.9992307692308</v>
+        <v>1.55</v>
       </c>
       <c r="AF89" t="n">
-        <v>17.63199735962697</v>
+        <v>187.2578502496896</v>
       </c>
     </row>
     <row r="90">
@@ -9649,28 +9689,28 @@
         <v>1.005997360734154</v>
       </c>
       <c r="Y90" t="n">
-        <v>203.0772727272727</v>
+        <v>0.9670074048158412</v>
       </c>
       <c r="Z90" t="n">
-        <v>0.524753638168172</v>
+        <v>1997</v>
       </c>
       <c r="AA90" t="n">
-        <v>179</v>
+        <v>5.092857142857143</v>
       </c>
       <c r="AB90" t="n">
-        <v>1997</v>
+        <v>28.98857142857143</v>
       </c>
       <c r="AC90" t="n">
-        <v>5.092857142857143</v>
+        <v>121.4028571428572</v>
       </c>
       <c r="AD90" t="n">
-        <v>28.98857142857143</v>
+        <v>17.8597701932918</v>
       </c>
       <c r="AE90" t="n">
-        <v>121.4028571428572</v>
+        <v>1.55</v>
       </c>
       <c r="AF90" t="n">
-        <v>17.8597701932918</v>
+        <v>187.2578502496896</v>
       </c>
     </row>
     <row r="91">
@@ -9751,28 +9791,28 @@
         <v>1.005997360734154</v>
       </c>
       <c r="Y91" t="n">
-        <v>203.0772727272727</v>
+        <v>0.9670074048158412</v>
       </c>
       <c r="Z91" t="n">
-        <v>0.524753638168172</v>
+        <v>1997</v>
       </c>
       <c r="AA91" t="n">
-        <v>179</v>
+        <v>5.092857142857143</v>
       </c>
       <c r="AB91" t="n">
-        <v>1997</v>
+        <v>28.98857142857143</v>
       </c>
       <c r="AC91" t="n">
-        <v>5.092857142857143</v>
+        <v>121.4028571428572</v>
       </c>
       <c r="AD91" t="n">
-        <v>28.98857142857143</v>
+        <v>17.8597701932918</v>
       </c>
       <c r="AE91" t="n">
-        <v>121.4028571428572</v>
+        <v>1.55</v>
       </c>
       <c r="AF91" t="n">
-        <v>17.8597701932918</v>
+        <v>187.2578502496896</v>
       </c>
     </row>
     <row r="92">
@@ -9863,28 +9903,28 @@
         <v>1.005997360734154</v>
       </c>
       <c r="Y92" t="n">
-        <v>203.0772727272727</v>
+        <v>0.9670074048158412</v>
       </c>
       <c r="Z92" t="n">
-        <v>0.5987589793073872</v>
+        <v>1997</v>
       </c>
       <c r="AA92" t="n">
-        <v>179</v>
+        <v>5.283333333333334</v>
       </c>
       <c r="AB92" t="n">
-        <v>1997</v>
+        <v>25.65833333333333</v>
       </c>
       <c r="AC92" t="n">
-        <v>5.283333333333334</v>
+        <v>107.6083333333333</v>
       </c>
       <c r="AD92" t="n">
-        <v>25.65833333333333</v>
+        <v>17.41156078513215</v>
       </c>
       <c r="AE92" t="n">
-        <v>107.6083333333333</v>
+        <v>1.55</v>
       </c>
       <c r="AF92" t="n">
-        <v>17.41156078513215</v>
+        <v>187.2578502496896</v>
       </c>
     </row>
     <row r="93">
@@ -9965,28 +10005,28 @@
         <v>1.005997360734154</v>
       </c>
       <c r="Y93" t="n">
-        <v>203.0772727272727</v>
+        <v>0.9670074048158412</v>
       </c>
       <c r="Z93" t="n">
-        <v>0.5987589793073872</v>
+        <v>1997</v>
       </c>
       <c r="AA93" t="n">
-        <v>179</v>
+        <v>5.283333333333334</v>
       </c>
       <c r="AB93" t="n">
-        <v>1997</v>
+        <v>25.65833333333333</v>
       </c>
       <c r="AC93" t="n">
-        <v>5.283333333333334</v>
+        <v>107.6083333333333</v>
       </c>
       <c r="AD93" t="n">
-        <v>25.65833333333333</v>
+        <v>17.41156078513215</v>
       </c>
       <c r="AE93" t="n">
-        <v>107.6083333333333</v>
+        <v>1.55</v>
       </c>
       <c r="AF93" t="n">
-        <v>17.41156078513215</v>
+        <v>187.2578502496896</v>
       </c>
     </row>
     <row r="94">
@@ -10067,28 +10107,28 @@
         <v>1.005997360734154</v>
       </c>
       <c r="Y94" t="n">
-        <v>203.0772727272727</v>
+        <v>0.9670074048158412</v>
       </c>
       <c r="Z94" t="n">
-        <v>0.5987589793073872</v>
+        <v>1997</v>
       </c>
       <c r="AA94" t="n">
-        <v>179</v>
+        <v>5.1</v>
       </c>
       <c r="AB94" t="n">
-        <v>1997</v>
+        <v>27.7076923076923</v>
       </c>
       <c r="AC94" t="n">
-        <v>5.1</v>
+        <v>116.9992307692308</v>
       </c>
       <c r="AD94" t="n">
-        <v>27.7076923076923</v>
+        <v>17.63199735962697</v>
       </c>
       <c r="AE94" t="n">
-        <v>116.9992307692308</v>
+        <v>1.55</v>
       </c>
       <c r="AF94" t="n">
-        <v>17.63199735962697</v>
+        <v>187.2578502496896</v>
       </c>
     </row>
     <row r="95">
@@ -10169,28 +10209,28 @@
         <v>1.005997360734154</v>
       </c>
       <c r="Y95" t="n">
-        <v>203.0772727272727</v>
+        <v>0.9670074048158412</v>
       </c>
       <c r="Z95" t="n">
-        <v>0.5987589793073872</v>
+        <v>1997</v>
       </c>
       <c r="AA95" t="n">
-        <v>179</v>
+        <v>5.1</v>
       </c>
       <c r="AB95" t="n">
-        <v>1997</v>
+        <v>27.7076923076923</v>
       </c>
       <c r="AC95" t="n">
-        <v>5.1</v>
+        <v>116.9992307692308</v>
       </c>
       <c r="AD95" t="n">
-        <v>27.7076923076923</v>
+        <v>17.63199735962697</v>
       </c>
       <c r="AE95" t="n">
-        <v>116.9992307692308</v>
+        <v>1.55</v>
       </c>
       <c r="AF95" t="n">
-        <v>17.63199735962697</v>
+        <v>187.2578502496896</v>
       </c>
     </row>
     <row r="96">
@@ -10271,28 +10311,28 @@
         <v>1.005997360734154</v>
       </c>
       <c r="Y96" t="n">
-        <v>203.0772727272727</v>
+        <v>0.9670074048158412</v>
       </c>
       <c r="Z96" t="n">
-        <v>0.5987589793073872</v>
+        <v>1997</v>
       </c>
       <c r="AA96" t="n">
-        <v>179</v>
+        <v>5.092857142857143</v>
       </c>
       <c r="AB96" t="n">
-        <v>1997</v>
+        <v>28.98857142857143</v>
       </c>
       <c r="AC96" t="n">
-        <v>5.092857142857143</v>
+        <v>121.4028571428572</v>
       </c>
       <c r="AD96" t="n">
-        <v>28.98857142857143</v>
+        <v>17.8597701932918</v>
       </c>
       <c r="AE96" t="n">
-        <v>121.4028571428572</v>
+        <v>1.55</v>
       </c>
       <c r="AF96" t="n">
-        <v>17.8597701932918</v>
+        <v>187.2578502496896</v>
       </c>
     </row>
     <row r="97">
@@ -10373,28 +10413,28 @@
         <v>1.005997360734154</v>
       </c>
       <c r="Y97" t="n">
-        <v>203.0772727272727</v>
+        <v>0.9670074048158412</v>
       </c>
       <c r="Z97" t="n">
-        <v>0.5987589793073872</v>
+        <v>1997</v>
       </c>
       <c r="AA97" t="n">
-        <v>179</v>
+        <v>5.092857142857143</v>
       </c>
       <c r="AB97" t="n">
-        <v>1997</v>
+        <v>28.98857142857143</v>
       </c>
       <c r="AC97" t="n">
-        <v>5.092857142857143</v>
+        <v>121.4028571428572</v>
       </c>
       <c r="AD97" t="n">
-        <v>28.98857142857143</v>
+        <v>17.8597701932918</v>
       </c>
       <c r="AE97" t="n">
-        <v>121.4028571428572</v>
+        <v>1.55</v>
       </c>
       <c r="AF97" t="n">
-        <v>17.8597701932918</v>
+        <v>187.2578502496896</v>
       </c>
     </row>
     <row r="98">
@@ -10422,7 +10462,7 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="J98" t="n">
@@ -10476,18 +10516,28 @@
         </is>
       </c>
       <c r="X98" t="inlineStr"/>
-      <c r="Y98" t="n">
-        <v>307.8378378378378</v>
-      </c>
+      <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="n">
-        <v>0.5994736842105263</v>
-      </c>
-      <c r="AA98" t="inlineStr"/>
-      <c r="AB98" t="inlineStr"/>
-      <c r="AC98" t="inlineStr"/>
-      <c r="AD98" t="inlineStr"/>
-      <c r="AE98" t="inlineStr"/>
-      <c r="AF98" t="inlineStr"/>
+        <v>1995</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>33</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>18.04628359249052</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>74.85637435163447</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -10514,7 +10564,7 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="J99" t="n">
@@ -10568,18 +10618,28 @@
         </is>
       </c>
       <c r="X99" t="inlineStr"/>
-      <c r="Y99" t="n">
-        <v>307.8378378378378</v>
-      </c>
+      <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="n">
-        <v>0.5994736842105263</v>
-      </c>
-      <c r="AA99" t="inlineStr"/>
-      <c r="AB99" t="inlineStr"/>
-      <c r="AC99" t="inlineStr"/>
-      <c r="AD99" t="inlineStr"/>
-      <c r="AE99" t="inlineStr"/>
-      <c r="AF99" t="inlineStr"/>
+        <v>1995</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>33</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>18.04628359249052</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>74.85637435163447</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -10606,7 +10666,7 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="J100" t="n">
@@ -10660,18 +10720,28 @@
         </is>
       </c>
       <c r="X100" t="inlineStr"/>
-      <c r="Y100" t="n">
-        <v>310.5405405405405</v>
-      </c>
+      <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="n">
-        <v>0.5745</v>
-      </c>
-      <c r="AA100" t="inlineStr"/>
-      <c r="AB100" t="inlineStr"/>
-      <c r="AC100" t="inlineStr"/>
-      <c r="AD100" t="inlineStr"/>
-      <c r="AE100" t="inlineStr"/>
-      <c r="AF100" t="inlineStr"/>
+        <v>1995</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>33</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>18.04628359249052</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>74.85637435163447</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -10698,7 +10768,7 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="J101" t="n">
@@ -10761,20 +10831,20 @@
         <v>2.214675784779499</v>
       </c>
       <c r="Y101" t="n">
-        <v>276.7</v>
-      </c>
-      <c r="Z101" t="n">
-        <v>0.5980633726710759</v>
-      </c>
-      <c r="AA101" t="n">
-        <v>50</v>
-      </c>
+        <v>1.028215568224031</v>
+      </c>
+      <c r="Z101" t="inlineStr"/>
+      <c r="AA101" t="inlineStr"/>
       <c r="AB101" t="inlineStr"/>
       <c r="AC101" t="inlineStr"/>
-      <c r="AD101" t="inlineStr"/>
-      <c r="AE101" t="inlineStr"/>
+      <c r="AD101" t="n">
+        <v>19.49</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>1.12</v>
+      </c>
       <c r="AF101" t="n">
-        <v>19.49</v>
+        <v>97.77159098988996</v>
       </c>
     </row>
     <row r="102">
@@ -10802,7 +10872,7 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="J102" t="n">
@@ -10856,18 +10926,28 @@
         </is>
       </c>
       <c r="X102" t="inlineStr"/>
-      <c r="Y102" t="n">
-        <v>238.1333333333333</v>
-      </c>
+      <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="n">
-        <v>0.5869529495535959</v>
-      </c>
-      <c r="AA102" t="inlineStr"/>
-      <c r="AB102" t="inlineStr"/>
-      <c r="AC102" t="inlineStr"/>
-      <c r="AD102" t="inlineStr"/>
-      <c r="AE102" t="inlineStr"/>
-      <c r="AF102" t="inlineStr"/>
+        <v>2002</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>5.130000000000001</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>23.48090909090909</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>60.56727272727272</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>18.13689908825537</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>106.6960546126119</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -10894,7 +10974,7 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="J103" t="n">
@@ -10948,18 +11028,28 @@
         </is>
       </c>
       <c r="X103" t="inlineStr"/>
-      <c r="Y103" t="n">
-        <v>238.1333333333333</v>
-      </c>
+      <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="n">
-        <v>0.5869529495535959</v>
-      </c>
-      <c r="AA103" t="inlineStr"/>
-      <c r="AB103" t="inlineStr"/>
-      <c r="AC103" t="inlineStr"/>
-      <c r="AD103" t="inlineStr"/>
-      <c r="AE103" t="inlineStr"/>
-      <c r="AF103" t="inlineStr"/>
+        <v>2002</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>5.130000000000001</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>23.48090909090909</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>60.56727272727272</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>18.13689908825537</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>106.6960546126119</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -10986,7 +11076,7 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="J104" t="n">
@@ -11000,7 +11090,7 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>CF34-8C6</t>
+          <t>CF34-8C5</t>
         </is>
       </c>
       <c r="N104" t="n">
@@ -11040,18 +11130,28 @@
         </is>
       </c>
       <c r="X104" t="inlineStr"/>
-      <c r="Y104" t="n">
-        <v>238.1333333333333</v>
-      </c>
+      <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="n">
-        <v>0.5727265439191898</v>
-      </c>
-      <c r="AA104" t="inlineStr"/>
-      <c r="AB104" t="inlineStr"/>
-      <c r="AC104" t="inlineStr"/>
-      <c r="AD104" t="inlineStr"/>
-      <c r="AE104" t="inlineStr"/>
-      <c r="AF104" t="inlineStr"/>
+        <v>2002</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>5.130000000000001</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>23.48090909090909</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>60.56727272727272</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>18.13689908825537</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>106.6960546126119</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -11078,7 +11178,7 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="J105" t="n">
@@ -11092,7 +11192,7 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>CF34-8C7</t>
+          <t>CF34-8C5</t>
         </is>
       </c>
       <c r="N105" t="n">
@@ -11132,18 +11232,28 @@
         </is>
       </c>
       <c r="X105" t="inlineStr"/>
-      <c r="Y105" t="n">
-        <v>238.1333333333333</v>
-      </c>
+      <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="n">
-        <v>0.5793215299364779</v>
-      </c>
-      <c r="AA105" t="inlineStr"/>
-      <c r="AB105" t="inlineStr"/>
-      <c r="AC105" t="inlineStr"/>
-      <c r="AD105" t="inlineStr"/>
-      <c r="AE105" t="inlineStr"/>
-      <c r="AF105" t="inlineStr"/>
+        <v>2002</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>5.130000000000001</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>23.48090909090909</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>60.56727272727272</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>18.13689908825537</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>106.6960546126119</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -11170,7 +11280,7 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="J106" t="n">
@@ -11184,7 +11294,7 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>CF34-8C8</t>
+          <t>CF34-8C5</t>
         </is>
       </c>
       <c r="N106" t="n">
@@ -11224,18 +11334,28 @@
         </is>
       </c>
       <c r="X106" t="inlineStr"/>
-      <c r="Y106" t="n">
-        <v>238.1333333333333</v>
-      </c>
+      <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="n">
-        <v>0.5591734502191609</v>
-      </c>
-      <c r="AA106" t="inlineStr"/>
-      <c r="AB106" t="inlineStr"/>
-      <c r="AC106" t="inlineStr"/>
-      <c r="AD106" t="inlineStr"/>
-      <c r="AE106" t="inlineStr"/>
-      <c r="AF106" t="inlineStr"/>
+        <v>2002</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>5.130000000000001</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>23.48090909090909</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>60.56727272727272</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>18.13689908825537</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>106.6960546126119</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -11262,7 +11382,7 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="J107" t="n">
@@ -11276,7 +11396,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>CF34-8C9</t>
+          <t>CF34-8C5</t>
         </is>
       </c>
       <c r="N107" t="n">
@@ -11316,18 +11436,28 @@
         </is>
       </c>
       <c r="X107" t="inlineStr"/>
-      <c r="Y107" t="n">
-        <v>238.1333333333333</v>
-      </c>
+      <c r="Y107" t="inlineStr"/>
       <c r="Z107" t="n">
-        <v>0.5383842443729904</v>
-      </c>
-      <c r="AA107" t="inlineStr"/>
-      <c r="AB107" t="inlineStr"/>
-      <c r="AC107" t="inlineStr"/>
-      <c r="AD107" t="inlineStr"/>
-      <c r="AE107" t="inlineStr"/>
-      <c r="AF107" t="inlineStr"/>
+        <v>2002</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>5.130000000000001</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>23.48090909090909</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>60.56727272727272</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>18.13689908825537</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>106.6960546126119</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -11418,31 +11548,31 @@
         </is>
       </c>
       <c r="X108" t="n">
-        <v>1.339423267681455</v>
+        <v>1.340189934684793</v>
       </c>
       <c r="Y108" t="n">
-        <v>239.562874251497</v>
+        <v>1.073558536247685</v>
       </c>
       <c r="Z108" t="n">
-        <v>0.5653900508762012</v>
+        <v>1992</v>
       </c>
       <c r="AA108" t="n">
-        <v>148</v>
+        <v>4.82</v>
       </c>
       <c r="AB108" t="n">
-        <v>1992</v>
+        <v>27.2</v>
       </c>
       <c r="AC108" t="n">
-        <v>4.82</v>
+        <v>111.2</v>
       </c>
       <c r="AD108" t="n">
-        <v>27.2</v>
+        <v>16.88813484187854</v>
       </c>
       <c r="AE108" t="n">
-        <v>111.2</v>
+        <v>1.61</v>
       </c>
       <c r="AF108" t="n">
-        <v>16.88813484187854</v>
+        <v>202.0358266939522</v>
       </c>
     </row>
     <row r="109">
@@ -11524,31 +11654,31 @@
         </is>
       </c>
       <c r="X109" t="n">
-        <v>1.339423267681455</v>
+        <v>1.340189934684793</v>
       </c>
       <c r="Y109" t="n">
-        <v>239.562874251497</v>
+        <v>1.073558536247685</v>
       </c>
       <c r="Z109" t="n">
-        <v>0.5653900508762012</v>
+        <v>1992</v>
       </c>
       <c r="AA109" t="n">
-        <v>148</v>
+        <v>4.82</v>
       </c>
       <c r="AB109" t="n">
-        <v>1992</v>
+        <v>27.2</v>
       </c>
       <c r="AC109" t="n">
-        <v>4.82</v>
+        <v>111.2</v>
       </c>
       <c r="AD109" t="n">
-        <v>27.2</v>
+        <v>16.88813484187854</v>
       </c>
       <c r="AE109" t="n">
-        <v>111.2</v>
+        <v>1.61</v>
       </c>
       <c r="AF109" t="n">
-        <v>16.88813484187854</v>
+        <v>202.0358266939522</v>
       </c>
     </row>
     <row r="110">
@@ -11576,7 +11706,7 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="J110" t="n">
@@ -11630,27 +11760,27 @@
         </is>
       </c>
       <c r="X110" t="inlineStr"/>
-      <c r="Y110" t="n">
-        <v>268.1818181818182</v>
-      </c>
+      <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="n">
-        <v>0.5870646766169154</v>
-      </c>
-      <c r="AA110" t="inlineStr"/>
+        <v>1995</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>4.77</v>
+      </c>
       <c r="AB110" t="n">
-        <v>1995</v>
+        <v>17.9</v>
       </c>
       <c r="AC110" t="n">
-        <v>4.77</v>
+        <v>34.74</v>
       </c>
       <c r="AD110" t="n">
-        <v>17.9</v>
+        <v>18.12812519816411</v>
       </c>
       <c r="AE110" t="n">
-        <v>34.74</v>
+        <v>0.98</v>
       </c>
       <c r="AF110" t="n">
-        <v>18.12812519816411</v>
+        <v>74.85637435163447</v>
       </c>
     </row>
     <row r="111">
@@ -11678,7 +11808,7 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="J111" t="n">
@@ -11732,27 +11862,27 @@
         </is>
       </c>
       <c r="X111" t="inlineStr"/>
-      <c r="Y111" t="n">
-        <v>268.1818181818182</v>
-      </c>
+      <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="n">
-        <v>0.5870646766169154</v>
-      </c>
-      <c r="AA111" t="inlineStr"/>
+        <v>1995</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>4.77</v>
+      </c>
       <c r="AB111" t="n">
-        <v>1995</v>
+        <v>17.9</v>
       </c>
       <c r="AC111" t="n">
-        <v>4.77</v>
+        <v>34.74</v>
       </c>
       <c r="AD111" t="n">
-        <v>17.9</v>
+        <v>18.12812519816411</v>
       </c>
       <c r="AE111" t="n">
-        <v>34.74</v>
+        <v>0.98</v>
       </c>
       <c r="AF111" t="n">
-        <v>18.12812519816411</v>
+        <v>74.85637435163447</v>
       </c>
     </row>
     <row r="112">
@@ -11780,7 +11910,7 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="J112" t="n">
@@ -11834,27 +11964,27 @@
         </is>
       </c>
       <c r="X112" t="inlineStr"/>
-      <c r="Y112" t="n">
-        <v>268.1818181818182</v>
-      </c>
+      <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="n">
-        <v>0.5592417061611374</v>
-      </c>
-      <c r="AA112" t="inlineStr"/>
+        <v>1995</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>4.77</v>
+      </c>
       <c r="AB112" t="n">
-        <v>1995</v>
+        <v>17.9</v>
       </c>
       <c r="AC112" t="n">
-        <v>4.77</v>
+        <v>34.74</v>
       </c>
       <c r="AD112" t="n">
-        <v>17.9</v>
+        <v>18.12812519816411</v>
       </c>
       <c r="AE112" t="n">
-        <v>34.74</v>
+        <v>0.98</v>
       </c>
       <c r="AF112" t="n">
-        <v>18.12812519816411</v>
+        <v>74.85637435163447</v>
       </c>
     </row>
     <row r="113">
@@ -11896,7 +12026,7 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>BR715-C1-30</t>
+          <t>715C1-30</t>
         </is>
       </c>
       <c r="N113" t="n">
@@ -11939,21 +12069,17 @@
         <v>1.789791513631841</v>
       </c>
       <c r="Y113" t="n">
-        <v>232.089552238806</v>
-      </c>
-      <c r="Z113" t="n">
-        <v>0.5654545454545454</v>
-      </c>
-      <c r="AA113" t="n">
-        <v>112</v>
-      </c>
+        <v>0.9781414309915357</v>
+      </c>
+      <c r="Z113" t="inlineStr"/>
+      <c r="AA113" t="inlineStr"/>
       <c r="AB113" t="inlineStr"/>
       <c r="AC113" t="inlineStr"/>
-      <c r="AD113" t="inlineStr"/>
+      <c r="AD113" t="n">
+        <v>17.42</v>
+      </c>
       <c r="AE113" t="inlineStr"/>
-      <c r="AF113" t="n">
-        <v>17.42</v>
-      </c>
+      <c r="AF113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -11994,7 +12120,7 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>BR715-C1-30</t>
+          <t>715C1-30</t>
         </is>
       </c>
       <c r="N114" t="n">
@@ -12047,21 +12173,17 @@
         <v>1.789791513631841</v>
       </c>
       <c r="Y114" t="n">
-        <v>232.089552238806</v>
-      </c>
-      <c r="Z114" t="n">
-        <v>0.5654545454545454</v>
-      </c>
-      <c r="AA114" t="n">
-        <v>112</v>
-      </c>
+        <v>0.9781414309915357</v>
+      </c>
+      <c r="Z114" t="inlineStr"/>
+      <c r="AA114" t="inlineStr"/>
       <c r="AB114" t="inlineStr"/>
       <c r="AC114" t="inlineStr"/>
-      <c r="AD114" t="inlineStr"/>
+      <c r="AD114" t="n">
+        <v>17.42</v>
+      </c>
       <c r="AE114" t="inlineStr"/>
-      <c r="AF114" t="n">
-        <v>17.42</v>
-      </c>
+      <c r="AF114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -12102,7 +12224,7 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>BR715-A1-30</t>
+          <t>715A1-30</t>
         </is>
       </c>
       <c r="N115" t="n">
@@ -12145,21 +12267,17 @@
         <v>1.789791513631841</v>
       </c>
       <c r="Y115" t="n">
-        <v>228.3582089552239</v>
-      </c>
-      <c r="Z115" t="n">
-        <v>0.612</v>
-      </c>
-      <c r="AA115" t="n">
-        <v>112</v>
-      </c>
+        <v>0.9781414309915357</v>
+      </c>
+      <c r="Z115" t="inlineStr"/>
+      <c r="AA115" t="inlineStr"/>
       <c r="AB115" t="inlineStr"/>
       <c r="AC115" t="inlineStr"/>
-      <c r="AD115" t="inlineStr"/>
+      <c r="AD115" t="n">
+        <v>17.42</v>
+      </c>
       <c r="AE115" t="inlineStr"/>
-      <c r="AF115" t="n">
-        <v>17.42</v>
-      </c>
+      <c r="AF115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -12200,7 +12318,7 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>BR715-A1-30</t>
+          <t>715A1-30</t>
         </is>
       </c>
       <c r="N116" t="n">
@@ -12253,21 +12371,17 @@
         <v>1.789791513631841</v>
       </c>
       <c r="Y116" t="n">
-        <v>228.3582089552239</v>
-      </c>
-      <c r="Z116" t="n">
-        <v>0.612</v>
-      </c>
-      <c r="AA116" t="n">
-        <v>112</v>
-      </c>
+        <v>0.9781414309915357</v>
+      </c>
+      <c r="Z116" t="inlineStr"/>
+      <c r="AA116" t="inlineStr"/>
       <c r="AB116" t="inlineStr"/>
       <c r="AC116" t="inlineStr"/>
-      <c r="AD116" t="inlineStr"/>
+      <c r="AD116" t="n">
+        <v>17.42</v>
+      </c>
       <c r="AE116" t="inlineStr"/>
-      <c r="AF116" t="n">
-        <v>17.42</v>
-      </c>
+      <c r="AF116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -12294,7 +12408,7 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="J117" t="n">
@@ -12341,28 +12455,28 @@
         <v>1.431502217381948</v>
       </c>
       <c r="Y117" t="n">
-        <v>247.8409090909091</v>
+        <v>0.6658707280044606</v>
       </c>
       <c r="Z117" t="n">
-        <v>0.5816</v>
+        <v>2002</v>
       </c>
       <c r="AA117" t="n">
-        <v>75</v>
+        <v>5.13</v>
       </c>
       <c r="AB117" t="n">
-        <v>2002</v>
+        <v>23.9425</v>
       </c>
       <c r="AC117" t="n">
-        <v>5.13</v>
+        <v>61.94625000000001</v>
       </c>
       <c r="AD117" t="n">
-        <v>23.9425</v>
+        <v>18.19612006630815</v>
       </c>
       <c r="AE117" t="n">
-        <v>61.94625000000001</v>
+        <v>1.17</v>
       </c>
       <c r="AF117" t="n">
-        <v>18.19612006630815</v>
+        <v>106.6960546126119</v>
       </c>
     </row>
     <row r="118">
@@ -12390,7 +12504,7 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="J118" t="n">
@@ -12437,28 +12551,28 @@
         <v>1.431502217381948</v>
       </c>
       <c r="Y118" t="n">
-        <v>247.8409090909091</v>
+        <v>0.6658707280044606</v>
       </c>
       <c r="Z118" t="n">
-        <v>0.5622583139984532</v>
+        <v>2002</v>
       </c>
       <c r="AA118" t="n">
-        <v>75</v>
+        <v>5.13</v>
       </c>
       <c r="AB118" t="n">
-        <v>2002</v>
+        <v>23.9425</v>
       </c>
       <c r="AC118" t="n">
-        <v>5.13</v>
+        <v>61.94625000000001</v>
       </c>
       <c r="AD118" t="n">
-        <v>23.9425</v>
+        <v>18.19612006630815</v>
       </c>
       <c r="AE118" t="n">
-        <v>61.94625000000001</v>
+        <v>1.17</v>
       </c>
       <c r="AF118" t="n">
-        <v>18.19612006630815</v>
+        <v>106.6960546126119</v>
       </c>
     </row>
     <row r="119">
@@ -12544,18 +12658,28 @@
       </c>
       <c r="W119" t="inlineStr"/>
       <c r="X119" t="inlineStr"/>
-      <c r="Y119" t="n">
-        <v>303.8167938931298</v>
-      </c>
+      <c r="Y119" t="inlineStr"/>
       <c r="Z119" t="n">
-        <v>0.5189048239895697</v>
-      </c>
-      <c r="AA119" t="inlineStr"/>
-      <c r="AB119" t="inlineStr"/>
-      <c r="AC119" t="inlineStr"/>
-      <c r="AD119" t="inlineStr"/>
-      <c r="AE119" t="inlineStr"/>
-      <c r="AF119" t="inlineStr"/>
+        <v>1977</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>15.88</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>22.44014078996885</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>90.91261458116043</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -12640,18 +12764,28 @@
       </c>
       <c r="W120" t="inlineStr"/>
       <c r="X120" t="inlineStr"/>
-      <c r="Y120" t="n">
-        <v>303.8167938931298</v>
-      </c>
+      <c r="Y120" t="inlineStr"/>
       <c r="Z120" t="n">
-        <v>0.5189048239895697</v>
-      </c>
-      <c r="AA120" t="inlineStr"/>
-      <c r="AB120" t="inlineStr"/>
-      <c r="AC120" t="inlineStr"/>
-      <c r="AD120" t="inlineStr"/>
-      <c r="AE120" t="inlineStr"/>
-      <c r="AF120" t="inlineStr"/>
+        <v>1977</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>15.88</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>22.44014078996885</v>
+      </c>
+      <c r="AE120" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>90.91261458116043</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -12690,7 +12824,7 @@
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>JT8D-1/7</t>
+          <t>JT8D-1</t>
         </is>
       </c>
       <c r="N121" t="n">
@@ -12736,18 +12870,28 @@
       </c>
       <c r="W121" t="inlineStr"/>
       <c r="X121" t="inlineStr"/>
-      <c r="Y121" t="n">
-        <v>303.8167938931298</v>
-      </c>
+      <c r="Y121" t="inlineStr"/>
       <c r="Z121" t="n">
-        <v>0.5189048239895697</v>
-      </c>
-      <c r="AA121" t="inlineStr"/>
-      <c r="AB121" t="inlineStr"/>
-      <c r="AC121" t="inlineStr"/>
-      <c r="AD121" t="inlineStr"/>
-      <c r="AE121" t="inlineStr"/>
-      <c r="AF121" t="inlineStr"/>
+        <v>1977</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>1.016666666666667</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>17.07222222222223</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>71.32111111111111</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>23.3148307432791</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>90.91261458116043</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -12786,7 +12930,7 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>JT8D-1/7</t>
+          <t>JT8D-1</t>
         </is>
       </c>
       <c r="N122" t="inlineStr"/>
@@ -12822,18 +12966,28 @@
       </c>
       <c r="W122" t="inlineStr"/>
       <c r="X122" t="inlineStr"/>
-      <c r="Y122" t="n">
-        <v>303.8167938931298</v>
-      </c>
+      <c r="Y122" t="inlineStr"/>
       <c r="Z122" t="n">
-        <v>0.5189048239895697</v>
-      </c>
-      <c r="AA122" t="inlineStr"/>
-      <c r="AB122" t="inlineStr"/>
-      <c r="AC122" t="inlineStr"/>
-      <c r="AD122" t="inlineStr"/>
-      <c r="AE122" t="inlineStr"/>
-      <c r="AF122" t="inlineStr"/>
+        <v>1977</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>1.016666666666667</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>17.07222222222223</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>71.32111111111111</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>23.3148307432791</v>
+      </c>
+      <c r="AE122" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AF122" t="n">
+        <v>90.91261458116043</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -12900,18 +13054,28 @@
       </c>
       <c r="W123" t="inlineStr"/>
       <c r="X123" t="inlineStr"/>
-      <c r="Y123" t="n">
-        <v>208.75</v>
-      </c>
+      <c r="Y123" t="inlineStr"/>
       <c r="Z123" t="n">
-        <v>0.5164948453608248</v>
-      </c>
-      <c r="AA123" t="inlineStr"/>
-      <c r="AB123" t="inlineStr"/>
-      <c r="AC123" t="inlineStr"/>
-      <c r="AD123" t="inlineStr"/>
-      <c r="AE123" t="inlineStr"/>
-      <c r="AF123" t="inlineStr"/>
+        <v>2016</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>10.88571428571429</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>34.58571428571429</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>126.2214285714285</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>14.99919751506516</v>
+      </c>
+      <c r="AE123" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AF123" t="n">
+        <v>305.5673990089003</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -12952,7 +13116,7 @@
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>PW1100G-JM</t>
+          <t>PW1130G-JM</t>
         </is>
       </c>
       <c r="N124" t="inlineStr"/>
@@ -12978,18 +13142,28 @@
       </c>
       <c r="W124" t="inlineStr"/>
       <c r="X124" t="inlineStr"/>
-      <c r="Y124" t="n">
-        <v>208.75</v>
-      </c>
+      <c r="Y124" t="inlineStr"/>
       <c r="Z124" t="n">
-        <v>0.5164948453608248</v>
-      </c>
-      <c r="AA124" t="inlineStr"/>
-      <c r="AB124" t="inlineStr"/>
-      <c r="AC124" t="inlineStr"/>
-      <c r="AD124" t="inlineStr"/>
-      <c r="AE124" t="inlineStr"/>
-      <c r="AF124" t="inlineStr"/>
+        <v>2014</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>11.6103575</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>37.43245782018312</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>143.959981317557</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>14.75059821551237</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AF124" t="n">
+        <v>330.7585487282341</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -13074,18 +13248,28 @@
       </c>
       <c r="W125" t="inlineStr"/>
       <c r="X125" t="inlineStr"/>
-      <c r="Y125" t="n">
-        <v>217.6470588235294</v>
-      </c>
+      <c r="Y125" t="inlineStr"/>
       <c r="Z125" t="n">
-        <v>0.5094664371772806</v>
-      </c>
-      <c r="AA125" t="inlineStr"/>
-      <c r="AB125" t="inlineStr"/>
-      <c r="AC125" t="inlineStr"/>
-      <c r="AD125" t="inlineStr"/>
-      <c r="AE125" t="inlineStr"/>
-      <c r="AF125" t="inlineStr"/>
+        <v>1977</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>15.82</v>
+      </c>
+      <c r="AC125" t="n">
+        <v>62.27</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>22.24126478715755</v>
+      </c>
+      <c r="AE125" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AF125" t="n">
+        <v>90.91261458116043</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -13160,18 +13344,28 @@
       </c>
       <c r="W126" t="inlineStr"/>
       <c r="X126" t="inlineStr"/>
-      <c r="Y126" t="n">
-        <v>217.6470588235294</v>
-      </c>
+      <c r="Y126" t="inlineStr"/>
       <c r="Z126" t="n">
-        <v>0.5094664371772806</v>
-      </c>
-      <c r="AA126" t="inlineStr"/>
-      <c r="AB126" t="inlineStr"/>
-      <c r="AC126" t="inlineStr"/>
-      <c r="AD126" t="inlineStr"/>
-      <c r="AE126" t="inlineStr"/>
-      <c r="AF126" t="inlineStr"/>
+        <v>1977</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>15.82</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>62.27</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>22.24126478715755</v>
+      </c>
+      <c r="AE126" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AF126" t="n">
+        <v>90.91261458116043</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -13256,18 +13450,28 @@
       </c>
       <c r="W127" t="inlineStr"/>
       <c r="X127" t="inlineStr"/>
-      <c r="Y127" t="n">
-        <v>217.6470588235294</v>
-      </c>
+      <c r="Y127" t="inlineStr"/>
       <c r="Z127" t="n">
-        <v>0.5094664371772806</v>
-      </c>
-      <c r="AA127" t="inlineStr"/>
-      <c r="AB127" t="inlineStr"/>
-      <c r="AC127" t="inlineStr"/>
-      <c r="AD127" t="inlineStr"/>
-      <c r="AE127" t="inlineStr"/>
-      <c r="AF127" t="inlineStr"/>
+        <v>1977</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>15.88</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>22.44014078996885</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>90.91261458116043</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -13352,18 +13556,28 @@
       </c>
       <c r="W128" t="inlineStr"/>
       <c r="X128" t="inlineStr"/>
-      <c r="Y128" t="n">
-        <v>217.6470588235294</v>
-      </c>
+      <c r="Y128" t="inlineStr"/>
       <c r="Z128" t="n">
-        <v>0.5094664371772806</v>
-      </c>
-      <c r="AA128" t="inlineStr"/>
-      <c r="AB128" t="inlineStr"/>
-      <c r="AC128" t="inlineStr"/>
-      <c r="AD128" t="inlineStr"/>
-      <c r="AE128" t="inlineStr"/>
-      <c r="AF128" t="inlineStr"/>
+        <v>1977</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>15.88</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>22.44014078996885</v>
+      </c>
+      <c r="AE128" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>90.91261458116043</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -13438,18 +13652,28 @@
       </c>
       <c r="W129" t="inlineStr"/>
       <c r="X129" t="inlineStr"/>
-      <c r="Y129" t="n">
-        <v>217.6470588235294</v>
-      </c>
+      <c r="Y129" t="inlineStr"/>
       <c r="Z129" t="n">
-        <v>0.5094664371772806</v>
-      </c>
-      <c r="AA129" t="inlineStr"/>
-      <c r="AB129" t="inlineStr"/>
-      <c r="AC129" t="inlineStr"/>
-      <c r="AD129" t="inlineStr"/>
-      <c r="AE129" t="inlineStr"/>
-      <c r="AF129" t="inlineStr"/>
+        <v>1977</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>1.046666666666667</v>
+      </c>
+      <c r="AB129" t="n">
+        <v>16.69</v>
+      </c>
+      <c r="AC129" t="n">
+        <v>68.94</v>
+      </c>
+      <c r="AD129" t="n">
+        <v>22.98968304317502</v>
+      </c>
+      <c r="AE129" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AF129" t="n">
+        <v>90.91261458116043</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -13534,18 +13758,28 @@
       </c>
       <c r="W130" t="inlineStr"/>
       <c r="X130" t="inlineStr"/>
-      <c r="Y130" t="n">
-        <v>217.6470588235294</v>
-      </c>
+      <c r="Y130" t="inlineStr"/>
       <c r="Z130" t="n">
-        <v>0.5094664371772806</v>
-      </c>
-      <c r="AA130" t="inlineStr"/>
-      <c r="AB130" t="inlineStr"/>
-      <c r="AC130" t="inlineStr"/>
-      <c r="AD130" t="inlineStr"/>
-      <c r="AE130" t="inlineStr"/>
-      <c r="AF130" t="inlineStr"/>
+        <v>1977</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>1.046666666666667</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>16.69</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>68.94</v>
+      </c>
+      <c r="AD130" t="n">
+        <v>22.98968304317502</v>
+      </c>
+      <c r="AE130" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AF130" t="n">
+        <v>90.91261458116043</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -13630,18 +13864,28 @@
       </c>
       <c r="W131" t="inlineStr"/>
       <c r="X131" t="inlineStr"/>
-      <c r="Y131" t="n">
-        <v>217.6470588235294</v>
-      </c>
+      <c r="Y131" t="inlineStr"/>
       <c r="Z131" t="n">
-        <v>0.5094664371772806</v>
-      </c>
-      <c r="AA131" t="inlineStr"/>
-      <c r="AB131" t="inlineStr"/>
-      <c r="AC131" t="inlineStr"/>
-      <c r="AD131" t="inlineStr"/>
-      <c r="AE131" t="inlineStr"/>
-      <c r="AF131" t="inlineStr"/>
+        <v>1977</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>1.002</v>
+      </c>
+      <c r="AB131" t="n">
+        <v>17.282</v>
+      </c>
+      <c r="AC131" t="n">
+        <v>73.67</v>
+      </c>
+      <c r="AD131" t="n">
+        <v>23.57180369576395</v>
+      </c>
+      <c r="AE131" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AF131" t="n">
+        <v>90.91261458116043</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -13680,7 +13924,7 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>Tay Mk 620-15</t>
+          <t>Tay 620-15</t>
         </is>
       </c>
       <c r="N132" t="n">
@@ -13720,16 +13964,14 @@
         </is>
       </c>
       <c r="X132" t="inlineStr"/>
-      <c r="Y132" t="n">
-        <v>199.7950819672131</v>
-      </c>
-      <c r="Z132" t="n">
-        <v>0.5656764910652123</v>
-      </c>
+      <c r="Y132" t="inlineStr"/>
+      <c r="Z132" t="inlineStr"/>
       <c r="AA132" t="inlineStr"/>
       <c r="AB132" t="inlineStr"/>
       <c r="AC132" t="inlineStr"/>
-      <c r="AD132" t="inlineStr"/>
+      <c r="AD132" t="n">
+        <v>19.5</v>
+      </c>
       <c r="AE132" t="inlineStr"/>
       <c r="AF132" t="inlineStr"/>
     </row>
@@ -13770,7 +14012,7 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>Tay Mk 620-15</t>
+          <t>Tay 620-15</t>
         </is>
       </c>
       <c r="N133" t="n">
@@ -13810,16 +14052,14 @@
         </is>
       </c>
       <c r="X133" t="inlineStr"/>
-      <c r="Y133" t="n">
-        <v>199.7950819672131</v>
-      </c>
-      <c r="Z133" t="n">
-        <v>0.5656764910652123</v>
-      </c>
+      <c r="Y133" t="inlineStr"/>
+      <c r="Z133" t="inlineStr"/>
       <c r="AA133" t="inlineStr"/>
       <c r="AB133" t="inlineStr"/>
       <c r="AC133" t="inlineStr"/>
-      <c r="AD133" t="inlineStr"/>
+      <c r="AD133" t="n">
+        <v>19.5</v>
+      </c>
       <c r="AE133" t="inlineStr"/>
       <c r="AF133" t="inlineStr"/>
     </row>
@@ -13952,18 +14192,28 @@
       </c>
       <c r="W135" t="inlineStr"/>
       <c r="X135" t="inlineStr"/>
-      <c r="Y135" t="n">
-        <v>382</v>
-      </c>
+      <c r="Y135" t="inlineStr"/>
       <c r="Z135" t="n">
-        <v>0.4812598425196851</v>
-      </c>
-      <c r="AA135" t="inlineStr"/>
-      <c r="AB135" t="inlineStr"/>
-      <c r="AC135" t="inlineStr"/>
-      <c r="AD135" t="inlineStr"/>
-      <c r="AE135" t="inlineStr"/>
-      <c r="AF135" t="inlineStr"/>
+        <v>1979</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="AB135" t="n">
+        <v>30.80333333333333</v>
+      </c>
+      <c r="AC135" t="n">
+        <v>239.7833333333333</v>
+      </c>
+      <c r="AD135" t="n">
+        <v>17.63310526409549</v>
+      </c>
+      <c r="AE135" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AF135" t="n">
+        <v>373.8220085671326</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -14038,18 +14288,28 @@
       </c>
       <c r="W136" t="inlineStr"/>
       <c r="X136" t="inlineStr"/>
-      <c r="Y136" t="n">
-        <v>382</v>
-      </c>
+      <c r="Y136" t="inlineStr"/>
       <c r="Z136" t="n">
-        <v>0.4812598425196851</v>
-      </c>
-      <c r="AA136" t="inlineStr"/>
-      <c r="AB136" t="inlineStr"/>
-      <c r="AC136" t="inlineStr"/>
-      <c r="AD136" t="inlineStr"/>
-      <c r="AE136" t="inlineStr"/>
-      <c r="AF136" t="inlineStr"/>
+        <v>1979</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>30.80333333333333</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>239.7833333333333</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>17.63310526409549</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>373.8220085671326</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -14124,18 +14384,28 @@
       </c>
       <c r="W137" t="inlineStr"/>
       <c r="X137" t="inlineStr"/>
-      <c r="Y137" t="n">
-        <v>382</v>
-      </c>
+      <c r="Y137" t="inlineStr"/>
       <c r="Z137" t="n">
-        <v>0.4812598425196851</v>
-      </c>
-      <c r="AA137" t="inlineStr"/>
-      <c r="AB137" t="inlineStr"/>
-      <c r="AC137" t="inlineStr"/>
-      <c r="AD137" t="inlineStr"/>
-      <c r="AE137" t="inlineStr"/>
-      <c r="AF137" t="inlineStr"/>
+        <v>1975</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>4.9375</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>24.575</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>229.495</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>17.33554935847939</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>2.397826086956521</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>448.1382341063763</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -14220,18 +14490,28 @@
       </c>
       <c r="W138" t="inlineStr"/>
       <c r="X138" t="inlineStr"/>
-      <c r="Y138" t="n">
-        <v>382</v>
-      </c>
+      <c r="Y138" t="inlineStr"/>
       <c r="Z138" t="n">
-        <v>0.4812598425196851</v>
-      </c>
-      <c r="AA138" t="inlineStr"/>
-      <c r="AB138" t="inlineStr"/>
-      <c r="AC138" t="inlineStr"/>
-      <c r="AD138" t="inlineStr"/>
-      <c r="AE138" t="inlineStr"/>
-      <c r="AF138" t="inlineStr"/>
+        <v>1975</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>4.9375</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>24.575</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>229.495</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>17.33554935847939</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>2.397826086956521</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>448.1382341063763</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -14272,7 +14552,7 @@
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>PW1100G</t>
+          <t>PW1130G-JM</t>
         </is>
       </c>
       <c r="N139" t="inlineStr"/>
@@ -14298,18 +14578,28 @@
       </c>
       <c r="W139" t="inlineStr"/>
       <c r="X139" t="inlineStr"/>
-      <c r="Y139" t="n">
-        <v>227.1794871794872</v>
-      </c>
+      <c r="Y139" t="inlineStr"/>
       <c r="Z139" t="n">
-        <v>0.5607594936708861</v>
-      </c>
-      <c r="AA139" t="inlineStr"/>
-      <c r="AB139" t="inlineStr"/>
-      <c r="AC139" t="inlineStr"/>
-      <c r="AD139" t="inlineStr"/>
-      <c r="AE139" t="inlineStr"/>
-      <c r="AF139" t="inlineStr"/>
+        <v>2014</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>11.6103575</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>37.43245782018312</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>143.959981317557</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>14.75059821551237</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>330.7585487282341</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -14376,18 +14666,28 @@
       </c>
       <c r="W140" t="inlineStr"/>
       <c r="X140" t="inlineStr"/>
-      <c r="Y140" t="n">
-        <v>227.1794871794872</v>
-      </c>
+      <c r="Y140" t="inlineStr"/>
       <c r="Z140" t="n">
-        <v>0.5607594936708861</v>
-      </c>
-      <c r="AA140" t="inlineStr"/>
-      <c r="AB140" t="inlineStr"/>
-      <c r="AC140" t="inlineStr"/>
-      <c r="AD140" t="inlineStr"/>
-      <c r="AE140" t="inlineStr"/>
-      <c r="AF140" t="inlineStr"/>
+        <v>2016</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>10.88571428571429</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>34.58571428571429</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>126.2214285714285</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>14.99919751506516</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>305.5673990089003</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -14454,18 +14754,28 @@
       </c>
       <c r="W141" t="inlineStr"/>
       <c r="X141" t="inlineStr"/>
-      <c r="Y141" t="n">
-        <v>323.6363636363636</v>
-      </c>
+      <c r="Y141" t="inlineStr"/>
       <c r="Z141" t="n">
-        <v>0.5031802120141343</v>
-      </c>
-      <c r="AA141" t="inlineStr"/>
-      <c r="AB141" t="inlineStr"/>
-      <c r="AC141" t="inlineStr"/>
-      <c r="AD141" t="inlineStr"/>
-      <c r="AE141" t="inlineStr"/>
-      <c r="AF141" t="inlineStr"/>
+        <v>2014</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>8.9312</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>40.79173341298903</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>372.0264902759999</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>15.21464059626216</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>701.4862236200649</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -14535,28 +14845,28 @@
         <v>0.8953661112939827</v>
       </c>
       <c r="Y142" t="n">
-        <v>214.6190476190476</v>
+        <v>0.8630259455813167</v>
       </c>
       <c r="Z142" t="n">
-        <v>0.5456416464891041</v>
+        <v>2016</v>
       </c>
       <c r="AA142" t="n">
-        <v>171</v>
+        <v>8.395000000000001</v>
       </c>
       <c r="AB142" t="n">
-        <v>2016</v>
+        <v>40.0995</v>
       </c>
       <c r="AC142" t="n">
-        <v>8.395000000000001</v>
+        <v>123.295</v>
       </c>
       <c r="AD142" t="n">
-        <v>40.0995</v>
+        <v>15.73636826305148</v>
       </c>
       <c r="AE142" t="n">
-        <v>123.295</v>
+        <v>1.76</v>
       </c>
       <c r="AF142" t="n">
-        <v>15.73636826305148</v>
+        <v>241.4359695872793</v>
       </c>
     </row>
     <row r="143">
@@ -14627,28 +14937,28 @@
         <v>1.005809122765289</v>
       </c>
       <c r="Y143" t="n">
-        <v>307.9545454545454</v>
+        <v>1.907856003361728</v>
       </c>
       <c r="Z143" t="n">
-        <v>0.5334414651333997</v>
+        <v>2009</v>
       </c>
       <c r="AA143" t="n">
-        <v>318</v>
+        <v>8.896170212765956</v>
       </c>
       <c r="AB143" t="n">
-        <v>2009</v>
+        <v>42.65106382978723</v>
       </c>
       <c r="AC143" t="n">
-        <v>8.896170212765956</v>
+        <v>312.512765957447</v>
       </c>
       <c r="AD143" t="n">
-        <v>42.65106382978723</v>
+        <v>15.43950591418038</v>
       </c>
       <c r="AE143" t="n">
-        <v>312.512765957447</v>
+        <v>2.819999999999999</v>
       </c>
       <c r="AF143" t="n">
-        <v>15.43950591418038</v>
+        <v>619.8332271906891</v>
       </c>
     </row>
     <row r="144">
@@ -14719,28 +15029,28 @@
         <v>1.005809122765289</v>
       </c>
       <c r="Y144" t="n">
-        <v>307.9545454545454</v>
+        <v>1.907856003361728</v>
       </c>
       <c r="Z144" t="n">
-        <v>0.5334414651333997</v>
+        <v>2011</v>
       </c>
       <c r="AA144" t="n">
-        <v>318</v>
+        <v>9.132545333333333</v>
       </c>
       <c r="AB144" t="n">
-        <v>2011</v>
+        <v>44.68687455770278</v>
       </c>
       <c r="AC144" t="n">
-        <v>9.132545333333333</v>
+        <v>330.0806611162334</v>
       </c>
       <c r="AD144" t="n">
-        <v>44.68687455770278</v>
+        <v>15.23446673077937</v>
       </c>
       <c r="AE144" t="n">
-        <v>330.0806611162334</v>
+        <v>2.85</v>
       </c>
       <c r="AF144" t="n">
-        <v>15.23446673077937</v>
+        <v>633.0913168171086</v>
       </c>
     </row>
     <row r="145">
@@ -14822,7 +15132,7 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="J146" t="n">
@@ -14862,12 +15172,8 @@
       </c>
       <c r="W146" t="inlineStr"/>
       <c r="X146" t="inlineStr"/>
-      <c r="Y146" t="n">
-        <v>235.6666666666667</v>
-      </c>
-      <c r="Z146" t="n">
-        <v>0.6147826086956522</v>
-      </c>
+      <c r="Y146" t="inlineStr"/>
+      <c r="Z146" t="inlineStr"/>
       <c r="AA146" t="inlineStr"/>
       <c r="AB146" t="inlineStr"/>
       <c r="AC146" t="inlineStr"/>
@@ -14898,7 +15204,7 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="J147" t="n">
@@ -14938,12 +15244,8 @@
       </c>
       <c r="W147" t="inlineStr"/>
       <c r="X147" t="inlineStr"/>
-      <c r="Y147" t="n">
-        <v>235.6666666666667</v>
-      </c>
-      <c r="Z147" t="n">
-        <v>0.6147826086956522</v>
-      </c>
+      <c r="Y147" t="inlineStr"/>
+      <c r="Z147" t="inlineStr"/>
       <c r="AA147" t="inlineStr"/>
       <c r="AB147" t="inlineStr"/>
       <c r="AC147" t="inlineStr"/>
@@ -14974,7 +15276,7 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="J148" t="n">
@@ -15014,12 +15316,8 @@
       </c>
       <c r="W148" t="inlineStr"/>
       <c r="X148" t="inlineStr"/>
-      <c r="Y148" t="n">
-        <v>235.6666666666667</v>
-      </c>
-      <c r="Z148" t="n">
-        <v>0.6147826086956522</v>
-      </c>
+      <c r="Y148" t="inlineStr"/>
+      <c r="Z148" t="inlineStr"/>
       <c r="AA148" t="inlineStr"/>
       <c r="AB148" t="inlineStr"/>
       <c r="AC148" t="inlineStr"/>
@@ -15050,7 +15348,7 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="J149" t="n">
@@ -15090,12 +15388,8 @@
       </c>
       <c r="W149" t="inlineStr"/>
       <c r="X149" t="inlineStr"/>
-      <c r="Y149" t="n">
-        <v>253.4705882352941</v>
-      </c>
-      <c r="Z149" t="n">
-        <v>0.6551619279306675</v>
-      </c>
+      <c r="Y149" t="inlineStr"/>
+      <c r="Z149" t="inlineStr"/>
       <c r="AA149" t="inlineStr"/>
       <c r="AB149" t="inlineStr"/>
       <c r="AC149" t="inlineStr"/>
@@ -15142,7 +15436,7 @@
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>Trent7000-72</t>
+          <t>Trent 7000-72</t>
         </is>
       </c>
       <c r="N150" t="inlineStr"/>
@@ -15171,29 +15465,25 @@
         <v>1.128747954335762</v>
       </c>
       <c r="Y150" t="n">
-        <v>293.4782608695652</v>
+        <v>1.910184505350066</v>
       </c>
       <c r="Z150" t="n">
-        <v>0.5378486055776892</v>
+        <v>2017</v>
       </c>
       <c r="AA150" t="n">
-        <v>280</v>
+        <v>8.998596000000001</v>
       </c>
       <c r="AB150" t="n">
-        <v>2017</v>
+        <v>45.27704776810015</v>
       </c>
       <c r="AC150" t="n">
-        <v>8.998596000000001</v>
+        <v>327.9097521042</v>
       </c>
       <c r="AD150" t="n">
-        <v>45.27704776810015</v>
-      </c>
-      <c r="AE150" t="n">
-        <v>327.9097521042</v>
-      </c>
-      <c r="AF150" t="n">
         <v>15.30993156577482</v>
       </c>
+      <c r="AE150" t="inlineStr"/>
+      <c r="AF150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -15268,18 +15558,20 @@
       </c>
       <c r="W151" t="inlineStr"/>
       <c r="X151" t="inlineStr"/>
-      <c r="Y151" t="n">
-        <v>287.0220588235294</v>
-      </c>
-      <c r="Z151" t="n">
-        <v>0.5740441176470589</v>
-      </c>
+      <c r="Y151" t="inlineStr"/>
+      <c r="Z151" t="inlineStr"/>
       <c r="AA151" t="inlineStr"/>
       <c r="AB151" t="inlineStr"/>
       <c r="AC151" t="inlineStr"/>
-      <c r="AD151" t="inlineStr"/>
-      <c r="AE151" t="inlineStr"/>
-      <c r="AF151" t="inlineStr"/>
+      <c r="AD151" t="n">
+        <v>16.98</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>233.2753465191658</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -15354,18 +15646,20 @@
       </c>
       <c r="W152" t="inlineStr"/>
       <c r="X152" t="inlineStr"/>
-      <c r="Y152" t="n">
-        <v>287.0220588235294</v>
-      </c>
-      <c r="Z152" t="n">
-        <v>0.5740441176470589</v>
-      </c>
+      <c r="Y152" t="inlineStr"/>
+      <c r="Z152" t="inlineStr"/>
       <c r="AA152" t="inlineStr"/>
       <c r="AB152" t="inlineStr"/>
       <c r="AC152" t="inlineStr"/>
-      <c r="AD152" t="inlineStr"/>
-      <c r="AE152" t="inlineStr"/>
-      <c r="AF152" t="inlineStr"/>
+      <c r="AD152" t="n">
+        <v>16.98</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>233.2753465191658</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -15440,18 +15734,28 @@
       </c>
       <c r="W153" t="inlineStr"/>
       <c r="X153" t="inlineStr"/>
-      <c r="Y153" t="n">
-        <v>287.0220588235294</v>
-      </c>
+      <c r="Y153" t="inlineStr"/>
       <c r="Z153" t="n">
-        <v>0.5740441176470589</v>
-      </c>
-      <c r="AA153" t="inlineStr"/>
-      <c r="AB153" t="inlineStr"/>
-      <c r="AC153" t="inlineStr"/>
-      <c r="AD153" t="inlineStr"/>
-      <c r="AE153" t="inlineStr"/>
-      <c r="AF153" t="inlineStr"/>
+        <v>2003</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>98.31</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>17.87308829623048</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>161.6224259220629</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -15516,18 +15820,28 @@
       </c>
       <c r="W154" t="inlineStr"/>
       <c r="X154" t="inlineStr"/>
-      <c r="Y154" t="n">
-        <v>287.0220588235294</v>
-      </c>
+      <c r="Y154" t="inlineStr"/>
       <c r="Z154" t="n">
-        <v>0.5740441176470589</v>
-      </c>
-      <c r="AA154" t="inlineStr"/>
-      <c r="AB154" t="inlineStr"/>
-      <c r="AC154" t="inlineStr"/>
-      <c r="AD154" t="inlineStr"/>
-      <c r="AE154" t="inlineStr"/>
-      <c r="AF154" t="inlineStr"/>
+        <v>2003</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>105.87</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>18.20002027059816</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>161.6224259220629</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -15604,18 +15918,28 @@
       </c>
       <c r="W155" t="inlineStr"/>
       <c r="X155" t="inlineStr"/>
-      <c r="Y155" t="n">
-        <v>281.4545454545454</v>
-      </c>
+      <c r="Y155" t="inlineStr"/>
       <c r="Z155" t="n">
-        <v>0.5375</v>
-      </c>
-      <c r="AA155" t="inlineStr"/>
-      <c r="AB155" t="inlineStr"/>
-      <c r="AC155" t="inlineStr"/>
-      <c r="AD155" t="inlineStr"/>
-      <c r="AE155" t="inlineStr"/>
-      <c r="AF155" t="inlineStr"/>
+        <v>1981</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>24.96</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>230.182</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>17.19412439632841</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>437.7975521612825</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -15702,18 +16026,28 @@
       </c>
       <c r="W156" t="inlineStr"/>
       <c r="X156" t="inlineStr"/>
-      <c r="Y156" t="n">
-        <v>281.4545454545454</v>
-      </c>
+      <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="n">
-        <v>0.5375</v>
-      </c>
-      <c r="AA156" t="inlineStr"/>
-      <c r="AB156" t="inlineStr"/>
-      <c r="AC156" t="inlineStr"/>
-      <c r="AD156" t="inlineStr"/>
-      <c r="AE156" t="inlineStr"/>
-      <c r="AF156" t="inlineStr"/>
+        <v>1981</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>24.96</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>230.182</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>17.19412439632841</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>437.7975521612825</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -15790,18 +16124,28 @@
       </c>
       <c r="W157" t="inlineStr"/>
       <c r="X157" t="inlineStr"/>
-      <c r="Y157" t="n">
-        <v>288</v>
-      </c>
+      <c r="Y157" t="inlineStr"/>
       <c r="Z157" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AA157" t="inlineStr"/>
-      <c r="AB157" t="inlineStr"/>
-      <c r="AC157" t="inlineStr"/>
-      <c r="AD157" t="inlineStr"/>
-      <c r="AE157" t="inlineStr"/>
-      <c r="AF157" t="inlineStr"/>
+        <v>1983</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>5.092307692307693</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>30.95730769230769</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>258.1882692307693</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>16.97875768084768</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>2.351764705882353</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>431.0864515297197</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -15871,147 +16215,183 @@
         <v>0.8889188737585035</v>
       </c>
       <c r="Y158" t="n">
-        <v>193.15</v>
+        <v>0.7698461656651263</v>
       </c>
       <c r="Z158" t="n">
-        <v>0.4811799343222738</v>
+        <v>2016</v>
       </c>
       <c r="AA158" t="n">
-        <v>178</v>
+        <v>8.395000000000001</v>
       </c>
       <c r="AB158" t="n">
-        <v>2016</v>
+        <v>40.0995</v>
       </c>
       <c r="AC158" t="n">
-        <v>8.395000000000001</v>
+        <v>123.295</v>
       </c>
       <c r="AD158" t="n">
-        <v>40.0995</v>
+        <v>15.73636826305148</v>
       </c>
       <c r="AE158" t="n">
-        <v>123.295</v>
+        <v>1.76</v>
       </c>
       <c r="AF158" t="n">
-        <v>15.73636826305148</v>
+        <v>241.4359695872793</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t xml:space="preserve">Airbus Industrie </t>
+          <t xml:space="preserve">Boeing </t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>A320-200n</t>
+          <t>B757-200</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>2016</v>
+        <v>1984</v>
       </c>
       <c r="D159" t="inlineStr"/>
-      <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
-      <c r="H159" t="inlineStr"/>
+      <c r="E159" t="n">
+        <v>84360</v>
+      </c>
+      <c r="F159" t="n">
+        <v>17.4331</v>
+      </c>
+      <c r="G159" t="n">
+        <v>17.0736</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0.54936</v>
+      </c>
       <c r="I159" t="inlineStr">
         <is>
           <t>Narrow</t>
         </is>
       </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="inlineStr">
-        <is>
-          <t>LEAP-1A</t>
-        </is>
-      </c>
+      <c r="J159" t="n">
+        <v>239</v>
+      </c>
+      <c r="K159" t="n">
+        <v>58440</v>
+      </c>
+      <c r="L159" t="n">
+        <v>115660</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr"/>
       <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
+      <c r="Q159" t="n">
+        <v>10.10828538550058</v>
+      </c>
       <c r="R159" t="inlineStr"/>
       <c r="S159" t="inlineStr"/>
       <c r="T159" t="inlineStr"/>
       <c r="U159" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t xml:space="preserve">No </t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="W159" t="inlineStr"/>
-      <c r="X159" t="inlineStr"/>
-      <c r="Y159" t="inlineStr"/>
+      <c r="X159" t="n">
+        <v>1.211559305479796</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>1.272660340563096</v>
+      </c>
       <c r="Z159" t="inlineStr"/>
       <c r="AA159" t="inlineStr"/>
       <c r="AB159" t="inlineStr"/>
       <c r="AC159" t="inlineStr"/>
-      <c r="AD159" t="inlineStr"/>
+      <c r="AD159" t="n">
+        <v>17.42114301159722</v>
+      </c>
       <c r="AE159" t="inlineStr"/>
       <c r="AF159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t xml:space="preserve">Airbus Industrie </t>
+          <t xml:space="preserve">Boeing </t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>A320-200n</t>
+          <t>B767-300/300ER</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>2016</v>
+        <v>1987</v>
       </c>
       <c r="D160" t="inlineStr"/>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
-      <c r="H160" t="inlineStr"/>
+      <c r="E160" t="n">
+        <v>129950</v>
+      </c>
+      <c r="F160" t="n">
+        <v>16.9601</v>
+      </c>
+      <c r="G160" t="n">
+        <v>15.4071</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0.52396</v>
+      </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Narrow</t>
-        </is>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="inlineStr">
-        <is>
-          <t>PW1130G-JM</t>
-        </is>
-      </c>
+          <t>Wide</t>
+        </is>
+      </c>
+      <c r="J160" t="n">
+        <v>351</v>
+      </c>
+      <c r="K160" t="n">
+        <v>88050</v>
+      </c>
+      <c r="L160" t="n">
+        <v>170000</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr"/>
       <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
+      <c r="Q160" t="n">
+        <v>9.563981588032222</v>
+      </c>
       <c r="R160" t="inlineStr"/>
       <c r="S160" t="inlineStr"/>
       <c r="T160" t="inlineStr"/>
       <c r="U160" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="V160" t="inlineStr">
         <is>
-          <t xml:space="preserve">No </t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="W160" t="inlineStr"/>
-      <c r="X160" t="inlineStr"/>
-      <c r="Y160" t="inlineStr"/>
+      <c r="X160" t="n">
+        <v>1.373760790430297</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>1.788482801994616</v>
+      </c>
       <c r="Z160" t="inlineStr"/>
       <c r="AA160" t="inlineStr"/>
       <c r="AB160" t="inlineStr"/>
       <c r="AC160" t="inlineStr"/>
-      <c r="AD160" t="inlineStr"/>
+      <c r="AD160" t="n">
+        <v>16.96702481548398</v>
+      </c>
       <c r="AE160" t="inlineStr"/>
       <c r="AF160" t="inlineStr"/>
     </row>
@@ -16023,45 +16403,45 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>B757-200</t>
+          <t>B777</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>1984</v>
+        <v>1995</v>
       </c>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="n">
-        <v>84360</v>
+        <v>195000</v>
       </c>
       <c r="F161" t="n">
-        <v>17.4331</v>
+        <v>15.8114</v>
       </c>
       <c r="G161" t="n">
-        <v>17.0736</v>
+        <v>18.2805</v>
       </c>
       <c r="H161" t="n">
-        <v>0.54936</v>
+        <v>0.49221</v>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Wide</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>239</v>
+        <v>440</v>
       </c>
       <c r="K161" t="n">
-        <v>58440</v>
+        <v>136975</v>
       </c>
       <c r="L161" t="n">
-        <v>115660</v>
+        <v>272375</v>
       </c>
       <c r="M161" t="inlineStr"/>
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr"/>
       <c r="P161" t="inlineStr"/>
       <c r="Q161" t="n">
-        <v>10.10828538550058</v>
+        <v>8.242117376294594</v>
       </c>
       <c r="R161" t="inlineStr"/>
       <c r="S161" t="inlineStr"/>
@@ -16078,72 +16458,68 @@
       </c>
       <c r="W161" t="inlineStr"/>
       <c r="X161" t="n">
-        <v>1.211559305479796</v>
+        <v>1.392164305643596</v>
       </c>
       <c r="Y161" t="n">
-        <v>244.5188284518829</v>
-      </c>
-      <c r="Z161" t="n">
-        <v>0.5052740791976483</v>
-      </c>
-      <c r="AA161" t="n">
-        <v>186</v>
-      </c>
+        <v>2.675536384827955</v>
+      </c>
+      <c r="Z161" t="inlineStr"/>
+      <c r="AA161" t="inlineStr"/>
       <c r="AB161" t="inlineStr"/>
       <c r="AC161" t="inlineStr"/>
-      <c r="AD161" t="inlineStr"/>
+      <c r="AD161" t="n">
+        <v>15.86418005464829</v>
+      </c>
       <c r="AE161" t="inlineStr"/>
-      <c r="AF161" t="n">
-        <v>17.42114301159722</v>
-      </c>
+      <c r="AF161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t xml:space="preserve">Boeing </t>
+          <t>Airbus Industrie</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>B767-300/300ER</t>
+          <t>A320-100/200</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="n">
-        <v>129950</v>
+        <v>62500</v>
       </c>
       <c r="F162" t="n">
-        <v>16.9601</v>
+        <v>16.8925</v>
       </c>
       <c r="G162" t="n">
-        <v>15.4071</v>
+        <v>15.9818</v>
       </c>
       <c r="H162" t="n">
-        <v>0.52396</v>
+        <v>0.55411</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Wide</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>351</v>
+        <v>195</v>
       </c>
       <c r="K162" t="n">
-        <v>88050</v>
+        <v>42600</v>
       </c>
       <c r="L162" t="n">
-        <v>170000</v>
+        <v>78000</v>
       </c>
       <c r="M162" t="inlineStr"/>
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr"/>
       <c r="P162" t="inlineStr"/>
       <c r="Q162" t="n">
-        <v>9.563981588032222</v>
+        <v>9.486191024165707</v>
       </c>
       <c r="R162" t="inlineStr"/>
       <c r="S162" t="inlineStr"/>
@@ -16160,51 +16536,47 @@
       </c>
       <c r="W162" t="inlineStr"/>
       <c r="X162" t="n">
-        <v>1.373760790430297</v>
+        <v>1.18042831747415</v>
       </c>
       <c r="Y162" t="n">
-        <v>250.8547008547009</v>
-      </c>
-      <c r="Z162" t="n">
-        <v>0.5179411764705882</v>
-      </c>
-      <c r="AA162" t="n">
-        <v>228</v>
-      </c>
+        <v>0.9803600733452963</v>
+      </c>
+      <c r="Z162" t="inlineStr"/>
+      <c r="AA162" t="inlineStr"/>
       <c r="AB162" t="inlineStr"/>
       <c r="AC162" t="inlineStr"/>
-      <c r="AD162" t="inlineStr"/>
+      <c r="AD162" t="n">
+        <v>16.90212335658914</v>
+      </c>
       <c r="AE162" t="inlineStr"/>
-      <c r="AF162" t="n">
-        <v>16.96702481548398</v>
-      </c>
+      <c r="AF162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t xml:space="preserve">Boeing </t>
+          <t>Boeing</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>B777</t>
+          <t>B767-200/ER/EM</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>1995</v>
+        <v>1983</v>
       </c>
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="n">
-        <v>195000</v>
+        <v>115700</v>
       </c>
       <c r="F163" t="n">
-        <v>15.8114</v>
+        <v>17.0953</v>
       </c>
       <c r="G163" t="n">
-        <v>18.2805</v>
+        <v>16.7288</v>
       </c>
       <c r="H163" t="n">
-        <v>0.49221</v>
+        <v>0.53983</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
@@ -16212,20 +16584,20 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>440</v>
+        <v>290</v>
       </c>
       <c r="K163" t="n">
-        <v>136975</v>
+        <v>81250</v>
       </c>
       <c r="L163" t="n">
-        <v>272375</v>
+        <v>160000</v>
       </c>
       <c r="M163" t="inlineStr"/>
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr"/>
       <c r="P163" t="inlineStr"/>
       <c r="Q163" t="n">
-        <v>8.242117376294594</v>
+        <v>9.719562715765251</v>
       </c>
       <c r="R163" t="inlineStr"/>
       <c r="S163" t="inlineStr"/>
@@ -16242,51 +16614,47 @@
       </c>
       <c r="W163" t="inlineStr"/>
       <c r="X163" t="n">
-        <v>1.392219378292582</v>
+        <v>1.515348347251124</v>
       </c>
       <c r="Y163" t="n">
-        <v>311.3068181818182</v>
-      </c>
-      <c r="Z163" t="n">
-        <v>0.5028912345112437</v>
-      </c>
-      <c r="AA163" t="n">
-        <v>273</v>
-      </c>
+        <v>1.735042745851865</v>
+      </c>
+      <c r="Z163" t="inlineStr"/>
+      <c r="AA163" t="inlineStr"/>
       <c r="AB163" t="inlineStr"/>
       <c r="AC163" t="inlineStr"/>
-      <c r="AD163" t="inlineStr"/>
+      <c r="AD163" t="n">
+        <v>17.09682773327364</v>
+      </c>
       <c r="AE163" t="inlineStr"/>
-      <c r="AF163" t="n">
-        <v>15.86418005464829</v>
-      </c>
+      <c r="AF163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Airbus Industrie</t>
+          <t>Boeing</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>A320-100/200</t>
+          <t>B737-300</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="n">
-        <v>62500</v>
+        <v>49710</v>
       </c>
       <c r="F164" t="n">
-        <v>16.8925</v>
+        <v>20.8791</v>
       </c>
       <c r="G164" t="n">
-        <v>15.9818</v>
+        <v>14.2003</v>
       </c>
       <c r="H164" t="n">
-        <v>0.55411</v>
+        <v>0.54777</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
@@ -16294,20 +16662,20 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>195</v>
+        <v>149</v>
       </c>
       <c r="K164" t="n">
-        <v>42600</v>
+        <v>32820</v>
       </c>
       <c r="L164" t="n">
-        <v>78000</v>
+        <v>62820</v>
       </c>
       <c r="M164" t="inlineStr"/>
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr"/>
       <c r="P164" t="inlineStr"/>
       <c r="Q164" t="n">
-        <v>9.486191024165707</v>
+        <v>14.07376294591485</v>
       </c>
       <c r="R164" t="inlineStr"/>
       <c r="S164" t="inlineStr"/>
@@ -16324,72 +16692,66 @@
       </c>
       <c r="W164" t="inlineStr"/>
       <c r="X164" t="n">
-        <v>1.18042831747415</v>
+        <v>1.437114976074366</v>
       </c>
       <c r="Y164" t="n">
-        <v>218.4615384615385</v>
-      </c>
-      <c r="Z164" t="n">
-        <v>0.5461538461538461</v>
-      </c>
-      <c r="AA164" t="n">
-        <v>156</v>
-      </c>
+        <v>0.9592667049584868</v>
+      </c>
+      <c r="Z164" t="inlineStr"/>
+      <c r="AA164" t="inlineStr"/>
       <c r="AB164" t="inlineStr"/>
       <c r="AC164" t="inlineStr"/>
-      <c r="AD164" t="inlineStr"/>
+      <c r="AD164" t="n">
+        <v>20.72958128602899</v>
+      </c>
       <c r="AE164" t="inlineStr"/>
-      <c r="AF164" t="n">
-        <v>16.90212335658914</v>
-      </c>
+      <c r="AF164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Boeing</t>
+          <t>McDonnell Douglas</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>B767-200/ER/EM</t>
+          <t>MD80/DC9-80</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>1983</v>
+        <v>1980</v>
       </c>
       <c r="D165" t="inlineStr"/>
-      <c r="E165" t="n">
-        <v>115700</v>
-      </c>
+      <c r="E165" t="inlineStr"/>
       <c r="F165" t="n">
-        <v>17.0953</v>
+        <v>20.744</v>
       </c>
       <c r="G165" t="n">
-        <v>16.7288</v>
+        <v>13.9129</v>
       </c>
       <c r="H165" t="n">
-        <v>0.53983</v>
+        <v>0.5684</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Wide</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>290</v>
+        <v>172</v>
       </c>
       <c r="K165" t="n">
-        <v>81250</v>
+        <v>35750</v>
       </c>
       <c r="L165" t="n">
-        <v>160000</v>
+        <v>70000</v>
       </c>
       <c r="M165" t="inlineStr"/>
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr"/>
       <c r="P165" t="inlineStr"/>
       <c r="Q165" t="n">
-        <v>9.719562715765251</v>
+        <v>13.91829689298044</v>
       </c>
       <c r="R165" t="inlineStr"/>
       <c r="S165" t="inlineStr"/>
@@ -16406,72 +16768,66 @@
       </c>
       <c r="W165" t="inlineStr"/>
       <c r="X165" t="n">
-        <v>1.515348347251124</v>
+        <v>1.586784427214029</v>
       </c>
       <c r="Y165" t="n">
-        <v>280.1724137931034</v>
-      </c>
-      <c r="Z165" t="n">
-        <v>0.5078125</v>
-      </c>
-      <c r="AA165" t="n">
-        <v>186</v>
-      </c>
+        <v>1.193951685463443</v>
+      </c>
+      <c r="Z165" t="inlineStr"/>
+      <c r="AA165" t="inlineStr"/>
       <c r="AB165" t="inlineStr"/>
       <c r="AC165" t="inlineStr"/>
-      <c r="AD165" t="inlineStr"/>
+      <c r="AD165" t="n">
+        <v>20.59987437631462</v>
+      </c>
       <c r="AE165" t="inlineStr"/>
-      <c r="AF165" t="n">
-        <v>17.09682773327364</v>
-      </c>
+      <c r="AF165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Boeing</t>
+          <t xml:space="preserve">Boeing </t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>B737-300</t>
+          <t>B747-400</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>1984</v>
+        <v>1989</v>
       </c>
       <c r="D166" t="inlineStr"/>
-      <c r="E166" t="n">
-        <v>49710</v>
-      </c>
+      <c r="E166" t="inlineStr"/>
       <c r="F166" t="n">
-        <v>20.8791</v>
+        <v>17.4331</v>
       </c>
       <c r="G166" t="n">
-        <v>14.2003</v>
+        <v>17.1886</v>
       </c>
       <c r="H166" t="n">
-        <v>0.54777</v>
+        <v>0.48269</v>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Wide</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>149</v>
+        <v>550</v>
       </c>
       <c r="K166" t="n">
-        <v>32820</v>
+        <v>183000</v>
       </c>
       <c r="L166" t="n">
-        <v>62820</v>
+        <v>405000</v>
       </c>
       <c r="M166" t="inlineStr"/>
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr"/>
       <c r="P166" t="inlineStr"/>
       <c r="Q166" t="n">
-        <v>14.07376294591485</v>
+        <v>10.10828538550058</v>
       </c>
       <c r="R166" t="inlineStr"/>
       <c r="S166" t="inlineStr"/>
@@ -16488,49 +16844,45 @@
       </c>
       <c r="W166" t="inlineStr"/>
       <c r="X166" t="n">
-        <v>1.437114976074366</v>
+        <v>1.493065291990434</v>
       </c>
       <c r="Y166" t="n">
-        <v>220.2684563758389</v>
-      </c>
-      <c r="Z166" t="n">
-        <v>0.5224450811843362</v>
-      </c>
-      <c r="AA166" t="n">
-        <v>131</v>
-      </c>
+        <v>4.462051537487005</v>
+      </c>
+      <c r="Z166" t="inlineStr"/>
+      <c r="AA166" t="inlineStr"/>
       <c r="AB166" t="inlineStr"/>
       <c r="AC166" t="inlineStr"/>
-      <c r="AD166" t="inlineStr"/>
+      <c r="AD166" t="n">
+        <v>17.42114301159722</v>
+      </c>
       <c r="AE166" t="inlineStr"/>
-      <c r="AF166" t="n">
-        <v>20.72958128602899</v>
-      </c>
+      <c r="AF166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>McDonnell Douglas</t>
+          <t xml:space="preserve">Boeing </t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>MD80/DC9-80</t>
+          <t>B727-200/231A</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>1980</v>
+        <v>1967</v>
       </c>
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="n">
-        <v>20.744</v>
+        <v>23.244</v>
       </c>
       <c r="G167" t="n">
-        <v>13.9129</v>
+        <v>13.798</v>
       </c>
       <c r="H167" t="n">
-        <v>0.5684</v>
+        <v>0.57158</v>
       </c>
       <c r="I167" t="inlineStr">
         <is>
@@ -16538,20 +16890,20 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="K167" t="n">
-        <v>35750</v>
+        <v>45720</v>
       </c>
       <c r="L167" t="n">
-        <v>70000</v>
+        <v>85000</v>
       </c>
       <c r="M167" t="inlineStr"/>
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr"/>
       <c r="P167" t="inlineStr"/>
       <c r="Q167" t="n">
-        <v>13.91829689298044</v>
+        <v>16.795166858458</v>
       </c>
       <c r="R167" t="inlineStr"/>
       <c r="S167" t="inlineStr"/>
@@ -16568,49 +16920,45 @@
       </c>
       <c r="W167" t="inlineStr"/>
       <c r="X167" t="n">
-        <v>1.586784427214029</v>
+        <v>2.109971928009418</v>
       </c>
       <c r="Y167" t="n">
-        <v>207.8488372093023</v>
-      </c>
-      <c r="Z167" t="n">
-        <v>0.5107142857142857</v>
-      </c>
-      <c r="AA167" t="n">
-        <v>141</v>
-      </c>
+        <v>1.674590208786751</v>
+      </c>
+      <c r="Z167" t="inlineStr"/>
+      <c r="AA167" t="inlineStr"/>
       <c r="AB167" t="inlineStr"/>
       <c r="AC167" t="inlineStr"/>
-      <c r="AD167" t="inlineStr"/>
+      <c r="AD167" t="n">
+        <v>23.0000762585199</v>
+      </c>
       <c r="AE167" t="inlineStr"/>
-      <c r="AF167" t="n">
-        <v>20.59987437631462</v>
-      </c>
+      <c r="AF167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t xml:space="preserve">Boeing </t>
+          <t>McDonnell Douglas</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>B747-400</t>
+          <t>DC10-30</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>1989</v>
+        <v>1972</v>
       </c>
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="n">
-        <v>17.4331</v>
+        <v>17.7708</v>
       </c>
       <c r="G168" t="n">
-        <v>17.1886</v>
+        <v>15.2348</v>
       </c>
       <c r="H168" t="n">
-        <v>0.48269</v>
+        <v>0.46047</v>
       </c>
       <c r="I168" t="inlineStr">
         <is>
@@ -16618,20 +16966,20 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>550</v>
+        <v>380</v>
       </c>
       <c r="K168" t="n">
-        <v>183000</v>
+        <v>120742</v>
       </c>
       <c r="L168" t="n">
-        <v>405000</v>
+        <v>251744</v>
       </c>
       <c r="M168" t="inlineStr"/>
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr"/>
       <c r="P168" t="inlineStr"/>
       <c r="Q168" t="n">
-        <v>10.10828538550058</v>
+        <v>10.49689298043729</v>
       </c>
       <c r="R168" t="inlineStr"/>
       <c r="S168" t="inlineStr"/>
@@ -16648,24 +16996,20 @@
       </c>
       <c r="W168" t="inlineStr"/>
       <c r="X168" t="n">
-        <v>1.493118904858319</v>
+        <v>1.76477637091639</v>
       </c>
       <c r="Y168" t="n">
-        <v>332.7272727272727</v>
-      </c>
-      <c r="Z168" t="n">
-        <v>0.4518518518518518</v>
-      </c>
-      <c r="AA168" t="n">
-        <v>386</v>
-      </c>
+        <v>3.096345870967273</v>
+      </c>
+      <c r="Z168" t="inlineStr"/>
+      <c r="AA168" t="inlineStr"/>
       <c r="AB168" t="inlineStr"/>
       <c r="AC168" t="inlineStr"/>
-      <c r="AD168" t="inlineStr"/>
+      <c r="AD168" t="n">
+        <v>17.74536228184551</v>
+      </c>
       <c r="AE168" t="inlineStr"/>
-      <c r="AF168" t="n">
-        <v>17.42114301159722</v>
-      </c>
+      <c r="AF168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -16675,22 +17019,24 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>B727-200/231A</t>
+          <t>B737-400</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>1967</v>
+        <v>1988</v>
       </c>
       <c r="D169" t="inlineStr"/>
-      <c r="E169" t="inlineStr"/>
+      <c r="E169" t="n">
+        <v>53070</v>
+      </c>
       <c r="F169" t="n">
-        <v>23.244</v>
+        <v>17.7708</v>
       </c>
       <c r="G169" t="n">
         <v>13.798</v>
       </c>
       <c r="H169" t="n">
-        <v>0.57158</v>
+        <v>0.52237</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
@@ -16698,20 +17044,20 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K169" t="n">
-        <v>45720</v>
+        <v>34820</v>
       </c>
       <c r="L169" t="n">
-        <v>85000</v>
+        <v>68040</v>
       </c>
       <c r="M169" t="inlineStr"/>
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr"/>
       <c r="P169" t="inlineStr"/>
       <c r="Q169" t="n">
-        <v>16.795166858458</v>
+        <v>10.49689298043729</v>
       </c>
       <c r="R169" t="inlineStr"/>
       <c r="S169" t="inlineStr"/>
@@ -16728,70 +17074,64 @@
       </c>
       <c r="W169" t="inlineStr"/>
       <c r="X169" t="n">
-        <v>2.109971928009418</v>
+        <v>1.351700616656842</v>
       </c>
       <c r="Y169" t="n">
-        <v>241.9047619047619</v>
-      </c>
-      <c r="Z169" t="n">
-        <v>0.5378823529411765</v>
-      </c>
-      <c r="AA169" t="n">
-        <v>150</v>
-      </c>
+        <v>0.9880122327740053</v>
+      </c>
+      <c r="Z169" t="inlineStr"/>
+      <c r="AA169" t="inlineStr"/>
       <c r="AB169" t="inlineStr"/>
       <c r="AC169" t="inlineStr"/>
-      <c r="AD169" t="inlineStr"/>
+      <c r="AD169" t="n">
+        <v>17.74536228184551</v>
+      </c>
       <c r="AE169" t="inlineStr"/>
-      <c r="AF169" t="n">
-        <v>23.0000762585199</v>
-      </c>
+      <c r="AF169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>McDonnell Douglas</t>
+          <t xml:space="preserve">Boeing </t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>DC10-30</t>
+          <t>B737-100/200</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>1972</v>
+        <v>1967</v>
       </c>
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="n">
-        <v>17.7708</v>
+        <v>22.771</v>
       </c>
       <c r="G170" t="n">
-        <v>15.2348</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0.46047</v>
-      </c>
+        <v>13.9129</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Wide</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>380</v>
+        <v>130</v>
       </c>
       <c r="K170" t="n">
-        <v>120742</v>
+        <v>28800</v>
       </c>
       <c r="L170" t="n">
-        <v>251744</v>
+        <v>54000</v>
       </c>
       <c r="M170" t="inlineStr"/>
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr"/>
       <c r="P170" t="inlineStr"/>
       <c r="Q170" t="n">
-        <v>10.49689298043729</v>
+        <v>16.25086306098964</v>
       </c>
       <c r="R170" t="inlineStr"/>
       <c r="S170" t="inlineStr"/>
@@ -16808,51 +17148,47 @@
       </c>
       <c r="W170" t="inlineStr"/>
       <c r="X170" t="n">
-        <v>1.76477637091639</v>
+        <v>1.990574479638952</v>
       </c>
       <c r="Y170" t="n">
-        <v>317.7421052631579</v>
-      </c>
-      <c r="Z170" t="n">
-        <v>0.4796221558408542</v>
-      </c>
-      <c r="AA170" t="n">
-        <v>271</v>
-      </c>
+        <v>1.169637986933404</v>
+      </c>
+      <c r="Z170" t="inlineStr"/>
+      <c r="AA170" t="inlineStr"/>
       <c r="AB170" t="inlineStr"/>
       <c r="AC170" t="inlineStr"/>
-      <c r="AD170" t="inlineStr"/>
+      <c r="AD170" t="n">
+        <v>22.54595806240666</v>
+      </c>
       <c r="AE170" t="inlineStr"/>
-      <c r="AF170" t="n">
-        <v>17.74536228184551</v>
-      </c>
+      <c r="AF170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t xml:space="preserve">Boeing </t>
+          <t>Boeing</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>B737-400</t>
+          <t>B737-500/600</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>1988</v>
+        <v>1990</v>
       </c>
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="n">
-        <v>53070</v>
+        <v>46720</v>
       </c>
       <c r="F171" t="n">
-        <v>17.7708</v>
+        <v>17.9738</v>
       </c>
       <c r="G171" t="n">
-        <v>13.798</v>
+        <v>14.0854</v>
       </c>
       <c r="H171" t="n">
-        <v>0.52237</v>
+        <v>0.58269</v>
       </c>
       <c r="I171" t="inlineStr">
         <is>
@@ -16860,20 +17196,20 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="K171" t="n">
-        <v>34820</v>
+        <v>31950</v>
       </c>
       <c r="L171" t="n">
-        <v>68040</v>
+        <v>60550</v>
       </c>
       <c r="M171" t="inlineStr"/>
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr"/>
       <c r="P171" t="inlineStr"/>
       <c r="Q171" t="n">
-        <v>10.49689298043729</v>
+        <v>10.73049482163406</v>
       </c>
       <c r="R171" t="inlineStr"/>
       <c r="S171" t="inlineStr"/>
@@ -16890,24 +17226,20 @@
       </c>
       <c r="W171" t="inlineStr"/>
       <c r="X171" t="n">
-        <v>1.351700616656842</v>
+        <v>1.653334737118634</v>
       </c>
       <c r="Y171" t="n">
-        <v>185.2127659574468</v>
-      </c>
-      <c r="Z171" t="n">
-        <v>0.5117577895355673</v>
-      </c>
-      <c r="AA171" t="n">
-        <v>143</v>
-      </c>
+        <v>0.9270076131234545</v>
+      </c>
+      <c r="Z171" t="inlineStr"/>
+      <c r="AA171" t="inlineStr"/>
       <c r="AB171" t="inlineStr"/>
       <c r="AC171" t="inlineStr"/>
-      <c r="AD171" t="inlineStr"/>
+      <c r="AD171" t="n">
+        <v>17.94025867468058</v>
+      </c>
       <c r="AE171" t="inlineStr"/>
-      <c r="AF171" t="n">
-        <v>17.74536228184551</v>
-      </c>
+      <c r="AF171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -16917,41 +17249,43 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>B737-100/200</t>
+          <t>B747-200/300</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>1967</v>
+        <v>1970</v>
       </c>
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="n">
-        <v>22.771</v>
+        <v>17.5682</v>
       </c>
       <c r="G172" t="n">
-        <v>13.9129</v>
-      </c>
-      <c r="H172" t="inlineStr"/>
+        <v>16.6141</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0.51444</v>
+      </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Wide</t>
         </is>
       </c>
       <c r="J172" t="n">
-        <v>130</v>
+        <v>550</v>
       </c>
       <c r="K172" t="n">
-        <v>28800</v>
+        <v>176000</v>
       </c>
       <c r="L172" t="n">
-        <v>54000</v>
+        <v>360000</v>
       </c>
       <c r="M172" t="inlineStr"/>
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr"/>
       <c r="P172" t="inlineStr"/>
       <c r="Q172" t="n">
-        <v>16.25086306098964</v>
+        <v>10.26375143843499</v>
       </c>
       <c r="R172" t="inlineStr"/>
       <c r="S172" t="inlineStr"/>
@@ -16968,72 +17302,66 @@
       </c>
       <c r="W172" t="inlineStr"/>
       <c r="X172" t="n">
-        <v>1.990574479638952</v>
+        <v>1.708014148974729</v>
       </c>
       <c r="Y172" t="n">
-        <v>221.5384615384615</v>
-      </c>
-      <c r="Z172" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="AA172" t="n">
-        <v>109</v>
-      </c>
+        <v>4.29627708736841</v>
+      </c>
+      <c r="Z172" t="inlineStr"/>
+      <c r="AA172" t="inlineStr"/>
       <c r="AB172" t="inlineStr"/>
       <c r="AC172" t="inlineStr"/>
-      <c r="AD172" t="inlineStr"/>
+      <c r="AD172" t="n">
+        <v>17.55084992131159</v>
+      </c>
       <c r="AE172" t="inlineStr"/>
-      <c r="AF172" t="n">
-        <v>22.54595806240666</v>
-      </c>
+      <c r="AF172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Boeing</t>
+          <t xml:space="preserve">McDonnell Douglas </t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>B737-500/600</t>
+          <t>MD-11</t>
         </is>
       </c>
       <c r="C173" t="n">
         <v>1990</v>
       </c>
       <c r="D173" t="inlineStr"/>
-      <c r="E173" t="n">
-        <v>46720</v>
-      </c>
+      <c r="E173" t="inlineStr"/>
       <c r="F173" t="n">
-        <v>17.9738</v>
+        <v>16.8925</v>
       </c>
       <c r="G173" t="n">
-        <v>14.0854</v>
+        <v>15.9818</v>
       </c>
       <c r="H173" t="n">
-        <v>0.58269</v>
+        <v>0.45729</v>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Wide</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>145</v>
+        <v>410</v>
       </c>
       <c r="K173" t="n">
-        <v>31950</v>
+        <v>128808</v>
       </c>
       <c r="L173" t="n">
-        <v>60550</v>
+        <v>280000</v>
       </c>
       <c r="M173" t="inlineStr"/>
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr"/>
       <c r="P173" t="inlineStr"/>
       <c r="Q173" t="n">
-        <v>10.73049482163406</v>
+        <v>9.486191024165707</v>
       </c>
       <c r="R173" t="inlineStr"/>
       <c r="S173" t="inlineStr"/>
@@ -17050,24 +17378,20 @@
       </c>
       <c r="W173" t="inlineStr"/>
       <c r="X173" t="n">
-        <v>1.653334737118634</v>
+        <v>1.671304319157368</v>
       </c>
       <c r="Y173" t="n">
-        <v>220.3448275862069</v>
-      </c>
-      <c r="Z173" t="n">
-        <v>0.5276630883567299</v>
-      </c>
-      <c r="AA173" t="n">
-        <v>113</v>
-      </c>
+        <v>2.731788504527286</v>
+      </c>
+      <c r="Z173" t="inlineStr"/>
+      <c r="AA173" t="inlineStr"/>
       <c r="AB173" t="inlineStr"/>
       <c r="AC173" t="inlineStr"/>
-      <c r="AD173" t="inlineStr"/>
+      <c r="AD173" t="n">
+        <v>16.90212335658914</v>
+      </c>
       <c r="AE173" t="inlineStr"/>
-      <c r="AF173" t="n">
-        <v>17.94025867468058</v>
-      </c>
+      <c r="AF173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -17077,7 +17401,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>B747-200/300</t>
+          <t>747-100</t>
         </is>
       </c>
       <c r="C174" t="n">
@@ -17086,13 +17410,13 @@
       <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="n">
-        <v>17.5682</v>
+        <v>17.6358</v>
       </c>
       <c r="G174" t="n">
         <v>16.6141</v>
       </c>
       <c r="H174" t="n">
-        <v>0.51444</v>
+        <v>0.4811</v>
       </c>
       <c r="I174" t="inlineStr">
         <is>
@@ -17100,20 +17424,20 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>550</v>
+        <v>440</v>
       </c>
       <c r="K174" t="n">
-        <v>176000</v>
+        <v>167715</v>
       </c>
       <c r="L174" t="n">
-        <v>360000</v>
+        <v>337000</v>
       </c>
       <c r="M174" t="inlineStr"/>
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr"/>
       <c r="P174" t="inlineStr"/>
       <c r="Q174" t="n">
-        <v>10.26375143843499</v>
+        <v>10.3415420023015</v>
       </c>
       <c r="R174" t="inlineStr"/>
       <c r="S174" t="inlineStr"/>
@@ -17130,70 +17454,68 @@
       </c>
       <c r="W174" t="inlineStr"/>
       <c r="X174" t="n">
-        <v>1.708014148974729</v>
+        <v>1.624457905360284</v>
       </c>
       <c r="Y174" t="n">
-        <v>320</v>
-      </c>
-      <c r="Z174" t="n">
-        <v>0.4888888888888889</v>
-      </c>
-      <c r="AA174" t="n">
-        <v>391</v>
-      </c>
+        <v>4.046266454507949</v>
+      </c>
+      <c r="Z174" t="inlineStr"/>
+      <c r="AA174" t="inlineStr"/>
       <c r="AB174" t="inlineStr"/>
       <c r="AC174" t="inlineStr"/>
-      <c r="AD174" t="inlineStr"/>
+      <c r="AD174" t="n">
+        <v>17.61575138020642</v>
+      </c>
       <c r="AE174" t="inlineStr"/>
-      <c r="AF174" t="n">
-        <v>17.55084992131159</v>
-      </c>
+      <c r="AF174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t xml:space="preserve">McDonnell Douglas </t>
+          <t>McDonnell Douglas</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>MD-11</t>
+          <t>DC9-30</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>1990</v>
+        <v>1966</v>
       </c>
       <c r="D175" t="inlineStr"/>
-      <c r="E175" t="inlineStr"/>
+      <c r="E175" t="n">
+        <v>39460</v>
+      </c>
       <c r="F175" t="n">
-        <v>16.8925</v>
+        <v>22.4331</v>
       </c>
       <c r="G175" t="n">
-        <v>15.9818</v>
+        <v>13.798</v>
       </c>
       <c r="H175" t="n">
-        <v>0.45729</v>
+        <v>0.4684</v>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Wide</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>410</v>
+        <v>127</v>
       </c>
       <c r="K175" t="n">
-        <v>128808</v>
+        <v>25789</v>
       </c>
       <c r="L175" t="n">
-        <v>280000</v>
+        <v>48988</v>
       </c>
       <c r="M175" t="inlineStr"/>
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr"/>
       <c r="P175" t="inlineStr"/>
       <c r="Q175" t="n">
-        <v>9.486191024165707</v>
+        <v>15.8620253164557</v>
       </c>
       <c r="R175" t="inlineStr"/>
       <c r="S175" t="inlineStr"/>
@@ -17210,34 +17532,30 @@
       </c>
       <c r="W175" t="inlineStr"/>
       <c r="X175" t="n">
-        <v>1.671304319157368</v>
+        <v>2.365546939999791</v>
       </c>
       <c r="Y175" t="n">
-        <v>314.1658536585366</v>
-      </c>
-      <c r="Z175" t="n">
-        <v>0.4600285714285715</v>
-      </c>
-      <c r="AA175" t="n">
-        <v>254</v>
-      </c>
+        <v>1.114099340258635</v>
+      </c>
+      <c r="Z175" t="inlineStr"/>
+      <c r="AA175" t="inlineStr"/>
       <c r="AB175" t="inlineStr"/>
       <c r="AC175" t="inlineStr"/>
-      <c r="AD175" t="inlineStr"/>
+      <c r="AD175" t="n">
+        <v>22.22154677600779</v>
+      </c>
       <c r="AE175" t="inlineStr"/>
-      <c r="AF175" t="n">
-        <v>16.90212335658914</v>
-      </c>
+      <c r="AF175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t xml:space="preserve">Boeing </t>
+          <t xml:space="preserve">McDonnell Douglas </t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>747-100</t>
+          <t>DC10-10</t>
         </is>
       </c>
       <c r="C176" t="n">
@@ -17246,13 +17564,13 @@
       <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="n">
-        <v>17.6358</v>
+        <v>17.0953</v>
       </c>
       <c r="G176" t="n">
-        <v>16.6141</v>
+        <v>14.2003</v>
       </c>
       <c r="H176" t="n">
-        <v>0.4811</v>
+        <v>0.53507</v>
       </c>
       <c r="I176" t="inlineStr">
         <is>
@@ -17260,20 +17578,20 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>440</v>
+        <v>380</v>
       </c>
       <c r="K176" t="n">
-        <v>167715</v>
+        <v>108940</v>
       </c>
       <c r="L176" t="n">
-        <v>337000</v>
+        <v>195045</v>
       </c>
       <c r="M176" t="inlineStr"/>
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr"/>
       <c r="P176" t="inlineStr"/>
       <c r="Q176" t="n">
-        <v>10.3415420023015</v>
+        <v>9.719562715765251</v>
       </c>
       <c r="R176" t="inlineStr"/>
       <c r="S176" t="inlineStr"/>
@@ -17290,72 +17608,66 @@
       </c>
       <c r="W176" t="inlineStr"/>
       <c r="X176" t="n">
-        <v>1.624457905360284</v>
+        <v>1.631919202786441</v>
       </c>
       <c r="Y176" t="n">
-        <v>381.1704545454546</v>
-      </c>
-      <c r="Z176" t="n">
-        <v>0.4976706231454006</v>
-      </c>
-      <c r="AA176" t="n">
-        <v>405</v>
-      </c>
+        <v>2.865570410802333</v>
+      </c>
+      <c r="Z176" t="inlineStr"/>
+      <c r="AA176" t="inlineStr"/>
       <c r="AB176" t="inlineStr"/>
       <c r="AC176" t="inlineStr"/>
-      <c r="AD176" t="inlineStr"/>
+      <c r="AD176" t="n">
+        <v>17.09682773327364</v>
+      </c>
       <c r="AE176" t="inlineStr"/>
-      <c r="AF176" t="n">
-        <v>17.61575138020642</v>
-      </c>
+      <c r="AF176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>McDonnell Douglas</t>
+          <t>Lockheed</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>DC9-30</t>
+          <t>L1011-1/100/200</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>1966</v>
+        <v>1973</v>
       </c>
       <c r="D177" t="inlineStr"/>
-      <c r="E177" t="n">
-        <v>39460</v>
-      </c>
+      <c r="E177" t="inlineStr"/>
       <c r="F177" t="n">
-        <v>22.4331</v>
+        <v>17.5682</v>
       </c>
       <c r="G177" t="n">
-        <v>13.798</v>
+        <v>14.3153</v>
       </c>
       <c r="H177" t="n">
-        <v>0.4684</v>
+        <v>0.53665</v>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Wide</t>
         </is>
       </c>
       <c r="J177" t="n">
-        <v>127</v>
+        <v>400</v>
       </c>
       <c r="K177" t="n">
-        <v>25789</v>
+        <v>111500</v>
       </c>
       <c r="L177" t="n">
-        <v>48988</v>
+        <v>205000</v>
       </c>
       <c r="M177" t="inlineStr"/>
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr"/>
       <c r="P177" t="inlineStr"/>
       <c r="Q177" t="n">
-        <v>15.8620253164557</v>
+        <v>10.26375143843499</v>
       </c>
       <c r="R177" t="inlineStr"/>
       <c r="S177" t="inlineStr"/>
@@ -17372,49 +17684,45 @@
       </c>
       <c r="W177" t="inlineStr"/>
       <c r="X177" t="n">
-        <v>2.365546939999791</v>
+        <v>1.667728396230985</v>
       </c>
       <c r="Y177" t="n">
-        <v>203.0629921259843</v>
-      </c>
-      <c r="Z177" t="n">
-        <v>0.5264350453172205</v>
-      </c>
-      <c r="AA177" t="n">
-        <v>101</v>
-      </c>
+        <v>2.836848294279239</v>
+      </c>
+      <c r="Z177" t="inlineStr"/>
+      <c r="AA177" t="inlineStr"/>
       <c r="AB177" t="inlineStr"/>
       <c r="AC177" t="inlineStr"/>
-      <c r="AD177" t="inlineStr"/>
+      <c r="AD177" t="n">
+        <v>17.55084992131159</v>
+      </c>
       <c r="AE177" t="inlineStr"/>
-      <c r="AF177" t="n">
-        <v>22.22154677600779</v>
-      </c>
+      <c r="AF177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t xml:space="preserve">McDonnell Douglas </t>
+          <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>DC10-10</t>
+          <t>A300-600</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>1970</v>
+        <v>1984</v>
       </c>
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="n">
-        <v>17.0953</v>
+        <v>16.8925</v>
       </c>
       <c r="G178" t="n">
-        <v>14.2003</v>
+        <v>14.6026</v>
       </c>
       <c r="H178" t="n">
-        <v>0.53507</v>
+        <v>0.52078</v>
       </c>
       <c r="I178" t="inlineStr">
         <is>
@@ -17422,20 +17730,20 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>380</v>
+        <v>345</v>
       </c>
       <c r="K178" t="n">
-        <v>108940</v>
+        <v>88626</v>
       </c>
       <c r="L178" t="n">
-        <v>195045</v>
+        <v>171700</v>
       </c>
       <c r="M178" t="inlineStr"/>
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr"/>
       <c r="P178" t="inlineStr"/>
       <c r="Q178" t="n">
-        <v>9.719562715765251</v>
+        <v>9.486191024165707</v>
       </c>
       <c r="R178" t="inlineStr"/>
       <c r="S178" t="inlineStr"/>
@@ -17452,70 +17760,66 @@
       </c>
       <c r="W178" t="inlineStr"/>
       <c r="X178" t="n">
-        <v>1.631919202786441</v>
+        <v>1.381799275308872</v>
       </c>
       <c r="Y178" t="n">
-        <v>286.6842105263158</v>
-      </c>
-      <c r="Z178" t="n">
-        <v>0.5585377733343587</v>
-      </c>
-      <c r="AA178" t="n">
-        <v>284</v>
-      </c>
+        <v>2.068558320565076</v>
+      </c>
+      <c r="Z178" t="inlineStr"/>
+      <c r="AA178" t="inlineStr"/>
       <c r="AB178" t="inlineStr"/>
       <c r="AC178" t="inlineStr"/>
-      <c r="AD178" t="inlineStr"/>
+      <c r="AD178" t="n">
+        <v>16.90212335658914</v>
+      </c>
       <c r="AE178" t="inlineStr"/>
-      <c r="AF178" t="n">
-        <v>17.09682773327364</v>
-      </c>
+      <c r="AF178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Lockheed</t>
+          <t>McDonnell Douglas</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>L1011-1/100/200</t>
+          <t>DC9-50</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>1973</v>
+        <v>1976</v>
       </c>
       <c r="D179" t="inlineStr"/>
-      <c r="E179" t="inlineStr"/>
+      <c r="E179" t="n">
+        <v>44670</v>
+      </c>
       <c r="F179" t="n">
-        <v>17.5682</v>
-      </c>
-      <c r="G179" t="n">
-        <v>14.3153</v>
-      </c>
+        <v>21.8926</v>
+      </c>
+      <c r="G179" t="inlineStr"/>
       <c r="H179" t="n">
-        <v>0.53665</v>
+        <v>0.50967</v>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Wide</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="J179" t="n">
-        <v>400</v>
+        <v>139</v>
       </c>
       <c r="K179" t="n">
-        <v>111500</v>
+        <v>29336</v>
       </c>
       <c r="L179" t="n">
-        <v>205000</v>
+        <v>54885</v>
       </c>
       <c r="M179" t="inlineStr"/>
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr"/>
       <c r="P179" t="inlineStr"/>
       <c r="Q179" t="n">
-        <v>10.26375143843499</v>
+        <v>15.24004602991945</v>
       </c>
       <c r="R179" t="inlineStr"/>
       <c r="S179" t="inlineStr"/>
@@ -17527,54 +17831,48 @@
       </c>
       <c r="V179" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t xml:space="preserve">No </t>
         </is>
       </c>
       <c r="W179" t="inlineStr"/>
       <c r="X179" t="n">
-        <v>1.667728396230985</v>
-      </c>
-      <c r="Y179" t="n">
-        <v>278.75</v>
-      </c>
-      <c r="Z179" t="n">
-        <v>0.5439024390243903</v>
-      </c>
-      <c r="AA179" t="n">
-        <v>313</v>
-      </c>
+        <v>2.1014</v>
+      </c>
+      <c r="Y179" t="inlineStr"/>
+      <c r="Z179" t="inlineStr"/>
+      <c r="AA179" t="inlineStr"/>
       <c r="AB179" t="inlineStr"/>
       <c r="AC179" t="inlineStr"/>
-      <c r="AD179" t="inlineStr"/>
+      <c r="AD179" t="n">
+        <v>21.70262312907501</v>
+      </c>
       <c r="AE179" t="inlineStr"/>
-      <c r="AF179" t="n">
-        <v>17.55084992131159</v>
-      </c>
+      <c r="AF179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t xml:space="preserve">Airbus Industrie </t>
+          <t xml:space="preserve">Lockheed </t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>A300-600</t>
+          <t>L1011-500</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>1984</v>
+        <v>1979</v>
       </c>
       <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="n">
-        <v>16.8925</v>
+        <v>17.9738</v>
       </c>
       <c r="G180" t="n">
-        <v>14.6026</v>
+        <v>14.8324</v>
       </c>
       <c r="H180" t="n">
-        <v>0.52078</v>
+        <v>0.47793</v>
       </c>
       <c r="I180" t="inlineStr">
         <is>
@@ -17582,20 +17880,20 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="K180" t="n">
-        <v>88626</v>
+        <v>111000</v>
       </c>
       <c r="L180" t="n">
-        <v>171700</v>
+        <v>231332</v>
       </c>
       <c r="M180" t="inlineStr"/>
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr"/>
       <c r="P180" t="inlineStr"/>
       <c r="Q180" t="n">
-        <v>9.486191024165707</v>
+        <v>10.73049482163406</v>
       </c>
       <c r="R180" t="inlineStr"/>
       <c r="S180" t="inlineStr"/>
@@ -17607,29 +17905,23 @@
       </c>
       <c r="V180" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t xml:space="preserve">No </t>
         </is>
       </c>
       <c r="W180" t="inlineStr"/>
       <c r="X180" t="n">
-        <v>1.381799275308872</v>
-      </c>
-      <c r="Y180" t="n">
-        <v>256.8869565217391</v>
-      </c>
-      <c r="Z180" t="n">
-        <v>0.5161677344205009</v>
-      </c>
-      <c r="AA180" t="n">
-        <v>261</v>
-      </c>
+        <v>1.8209</v>
+      </c>
+      <c r="Y180" t="inlineStr"/>
+      <c r="Z180" t="inlineStr"/>
+      <c r="AA180" t="inlineStr"/>
       <c r="AB180" t="inlineStr"/>
       <c r="AC180" t="inlineStr"/>
-      <c r="AD180" t="inlineStr"/>
+      <c r="AD180" t="n">
+        <v>17.94025867468058</v>
+      </c>
       <c r="AE180" t="inlineStr"/>
-      <c r="AF180" t="n">
-        <v>16.90212335658914</v>
-      </c>
+      <c r="AF180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -17639,43 +17931,43 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>DC9-50</t>
+          <t>DC10-40</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>1976</v>
+        <v>1972</v>
       </c>
       <c r="D181" t="inlineStr"/>
-      <c r="E181" t="n">
-        <v>44670</v>
-      </c>
+      <c r="E181" t="inlineStr"/>
       <c r="F181" t="n">
-        <v>21.8926</v>
-      </c>
-      <c r="G181" t="inlineStr"/>
+        <v>17.4331</v>
+      </c>
+      <c r="G181" t="n">
+        <v>13.9129</v>
+      </c>
       <c r="H181" t="n">
-        <v>0.50967</v>
+        <v>0.47793</v>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Wide</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>139</v>
+        <v>380</v>
       </c>
       <c r="K181" t="n">
-        <v>29336</v>
+        <v>122567</v>
       </c>
       <c r="L181" t="n">
-        <v>54885</v>
+        <v>251744</v>
       </c>
       <c r="M181" t="inlineStr"/>
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr"/>
       <c r="P181" t="inlineStr"/>
       <c r="Q181" t="n">
-        <v>15.24004602991945</v>
+        <v>10.10828538550058</v>
       </c>
       <c r="R181" t="inlineStr"/>
       <c r="S181" t="inlineStr"/>
@@ -17687,73 +17979,69 @@
       </c>
       <c r="V181" t="inlineStr">
         <is>
-          <t xml:space="preserve">No </t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="W181" t="inlineStr"/>
       <c r="X181" t="n">
-        <v>2.1014</v>
+        <v>1.811599634886023</v>
       </c>
       <c r="Y181" t="n">
-        <v>211.0503597122302</v>
-      </c>
-      <c r="Z181" t="n">
-        <v>0.534499407852783</v>
-      </c>
+        <v>3.038135854491939</v>
+      </c>
+      <c r="Z181" t="inlineStr"/>
       <c r="AA181" t="inlineStr"/>
       <c r="AB181" t="inlineStr"/>
       <c r="AC181" t="inlineStr"/>
-      <c r="AD181" t="inlineStr"/>
+      <c r="AD181" t="n">
+        <v>17.42114301159722</v>
+      </c>
       <c r="AE181" t="inlineStr"/>
-      <c r="AF181" t="n">
-        <v>21.70262312907501</v>
-      </c>
+      <c r="AF181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lockheed </t>
+          <t>McDonnell Douglas</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>L1011-500</t>
+          <t>DC9-40</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>1979</v>
+        <v>1968</v>
       </c>
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="n">
-        <v>17.9738</v>
-      </c>
-      <c r="G182" t="n">
-        <v>14.8324</v>
-      </c>
+        <v>23.244</v>
+      </c>
+      <c r="G182" t="inlineStr"/>
       <c r="H182" t="n">
-        <v>0.47793</v>
+        <v>0.48427</v>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Wide</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>330</v>
+        <v>128</v>
       </c>
       <c r="K182" t="n">
-        <v>111000</v>
+        <v>27821</v>
       </c>
       <c r="L182" t="n">
-        <v>231332</v>
+        <v>51710</v>
       </c>
       <c r="M182" t="inlineStr"/>
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr"/>
       <c r="P182" t="inlineStr"/>
       <c r="Q182" t="n">
-        <v>10.73049482163406</v>
+        <v>16.795166858458</v>
       </c>
       <c r="R182" t="inlineStr"/>
       <c r="S182" t="inlineStr"/>
@@ -17770,68 +18058,62 @@
       </c>
       <c r="W182" t="inlineStr"/>
       <c r="X182" t="n">
-        <v>1.8209</v>
-      </c>
-      <c r="Y182" t="n">
-        <v>336.3636363636364</v>
-      </c>
-      <c r="Z182" t="n">
-        <v>0.4798298549271177</v>
-      </c>
+        <v>2.0777</v>
+      </c>
+      <c r="Y182" t="inlineStr"/>
+      <c r="Z182" t="inlineStr"/>
       <c r="AA182" t="inlineStr"/>
       <c r="AB182" t="inlineStr"/>
       <c r="AC182" t="inlineStr"/>
-      <c r="AD182" t="inlineStr"/>
+      <c r="AD182" t="n">
+        <v>23.0000762585199</v>
+      </c>
       <c r="AE182" t="inlineStr"/>
-      <c r="AF182" t="n">
-        <v>17.94025867468058</v>
-      </c>
+      <c r="AF182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>McDonnell Douglas</t>
+          <t xml:space="preserve">McDonnell Douglas </t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>DC10-40</t>
+          <t>DC9-10</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>1972</v>
+        <v>1965</v>
       </c>
       <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="n">
-        <v>17.4331</v>
-      </c>
-      <c r="G183" t="n">
-        <v>13.9129</v>
-      </c>
+        <v>22.298</v>
+      </c>
+      <c r="G183" t="inlineStr"/>
       <c r="H183" t="n">
-        <v>0.47793</v>
+        <v>0.55571</v>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Wide</t>
+          <t>Narrow</t>
         </is>
       </c>
       <c r="J183" t="n">
-        <v>380</v>
+        <v>109</v>
       </c>
       <c r="K183" t="n">
-        <v>122567</v>
+        <v>22300</v>
       </c>
       <c r="L183" t="n">
-        <v>251744</v>
+        <v>41141</v>
       </c>
       <c r="M183" t="inlineStr"/>
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr"/>
       <c r="P183" t="inlineStr"/>
       <c r="Q183" t="n">
-        <v>10.10828538550058</v>
+        <v>15.70655926352129</v>
       </c>
       <c r="R183" t="inlineStr"/>
       <c r="S183" t="inlineStr"/>
@@ -17843,73 +18125,71 @@
       </c>
       <c r="V183" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t xml:space="preserve">No </t>
         </is>
       </c>
       <c r="W183" t="inlineStr"/>
       <c r="X183" t="n">
-        <v>1.811599634886023</v>
-      </c>
-      <c r="Y183" t="n">
-        <v>322.5447368421052</v>
-      </c>
-      <c r="Z183" t="n">
-        <v>0.4868715838311936</v>
-      </c>
-      <c r="AA183" t="n">
-        <v>292</v>
-      </c>
+        <v>2.9899</v>
+      </c>
+      <c r="Y183" t="inlineStr"/>
+      <c r="Z183" t="inlineStr"/>
+      <c r="AA183" t="inlineStr"/>
       <c r="AB183" t="inlineStr"/>
       <c r="AC183" t="inlineStr"/>
-      <c r="AD183" t="inlineStr"/>
+      <c r="AD183" t="n">
+        <v>22.09183986629342</v>
+      </c>
       <c r="AE183" t="inlineStr"/>
-      <c r="AF183" t="n">
-        <v>17.42114301159722</v>
-      </c>
+      <c r="AF183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>McDonnell Douglas</t>
+          <t xml:space="preserve">Airbus Industrie </t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>DC9-40</t>
+          <t>A310-300</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>1968</v>
+        <v>1985</v>
       </c>
       <c r="D184" t="inlineStr"/>
-      <c r="E184" t="inlineStr"/>
+      <c r="E184" t="n">
+        <v>116493</v>
+      </c>
       <c r="F184" t="n">
-        <v>23.244</v>
-      </c>
-      <c r="G184" t="inlineStr"/>
+        <v>16.8925</v>
+      </c>
+      <c r="G184" t="n">
+        <v>16.499</v>
+      </c>
       <c r="H184" t="n">
-        <v>0.48427</v>
+        <v>0.50967</v>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Narrow</t>
+          <t>Wide</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>128</v>
+        <v>275</v>
       </c>
       <c r="K184" t="n">
-        <v>27821</v>
+        <v>82600</v>
       </c>
       <c r="L184" t="n">
-        <v>51710</v>
+        <v>164000</v>
       </c>
       <c r="M184" t="inlineStr"/>
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr"/>
       <c r="P184" t="inlineStr"/>
       <c r="Q184" t="n">
-        <v>16.795166858458</v>
+        <v>9.486191024165707</v>
       </c>
       <c r="R184" t="inlineStr"/>
       <c r="S184" t="inlineStr"/>
@@ -17926,66 +18206,52 @@
       </c>
       <c r="W184" t="inlineStr"/>
       <c r="X184" t="n">
-        <v>2.0777</v>
-      </c>
-      <c r="Y184" t="n">
-        <v>217.3515625</v>
-      </c>
-      <c r="Z184" t="n">
-        <v>0.538019725391607</v>
-      </c>
+        <v>1.4459</v>
+      </c>
+      <c r="Y184" t="inlineStr"/>
+      <c r="Z184" t="inlineStr"/>
       <c r="AA184" t="inlineStr"/>
       <c r="AB184" t="inlineStr"/>
       <c r="AC184" t="inlineStr"/>
-      <c r="AD184" t="inlineStr"/>
+      <c r="AD184" t="n">
+        <v>16.90212335658914</v>
+      </c>
       <c r="AE184" t="inlineStr"/>
-      <c r="AF184" t="n">
-        <v>23.0000762585199</v>
-      </c>
+      <c r="AF184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t xml:space="preserve">McDonnell Douglas </t>
+          <t xml:space="preserve">Boeing </t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>DC9-10</t>
+          <t>B707-100B/300</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>1965</v>
+        <v>1959</v>
       </c>
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="n">
-        <v>22.298</v>
-      </c>
-      <c r="G185" t="inlineStr"/>
-      <c r="H185" t="n">
-        <v>0.55571</v>
-      </c>
-      <c r="I185" t="inlineStr">
-        <is>
-          <t>Narrow</t>
-        </is>
-      </c>
-      <c r="J185" t="n">
-        <v>109</v>
-      </c>
-      <c r="K185" t="n">
-        <v>22300</v>
-      </c>
-      <c r="L185" t="n">
-        <v>41141</v>
-      </c>
+        <v>28.1765</v>
+      </c>
+      <c r="G185" t="n">
+        <v>15.8095</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="inlineStr"/>
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr"/>
       <c r="P185" t="inlineStr"/>
       <c r="Q185" t="n">
-        <v>15.70655926352129</v>
+        <v>22.47123130034523</v>
       </c>
       <c r="R185" t="inlineStr"/>
       <c r="S185" t="inlineStr"/>
@@ -18002,70 +18268,50 @@
       </c>
       <c r="W185" t="inlineStr"/>
       <c r="X185" t="n">
-        <v>2.9899</v>
-      </c>
-      <c r="Y185" t="n">
-        <v>204.5871559633028</v>
-      </c>
-      <c r="Z185" t="n">
-        <v>0.5420383558980093</v>
-      </c>
+        <v>3.0372</v>
+      </c>
+      <c r="Y185" t="inlineStr"/>
+      <c r="Z185" t="inlineStr"/>
       <c r="AA185" t="inlineStr"/>
       <c r="AB185" t="inlineStr"/>
       <c r="AC185" t="inlineStr"/>
-      <c r="AD185" t="inlineStr"/>
+      <c r="AD185" t="n">
+        <v>27.73567457211094</v>
+      </c>
       <c r="AE185" t="inlineStr"/>
-      <c r="AF185" t="n">
-        <v>22.09183986629342</v>
-      </c>
+      <c r="AF185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t xml:space="preserve">Airbus Industrie </t>
+          <t>Boeing</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>A310-300</t>
+          <t>B720-000</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>1985</v>
+        <v>1961</v>
       </c>
       <c r="D186" t="inlineStr"/>
-      <c r="E186" t="n">
-        <v>116493</v>
-      </c>
+      <c r="E186" t="inlineStr"/>
       <c r="F186" t="n">
-        <v>16.8925</v>
-      </c>
-      <c r="G186" t="n">
-        <v>16.499</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0.50967</v>
-      </c>
-      <c r="I186" t="inlineStr">
-        <is>
-          <t>Wide</t>
-        </is>
-      </c>
-      <c r="J186" t="n">
-        <v>275</v>
-      </c>
-      <c r="K186" t="n">
-        <v>82600</v>
-      </c>
-      <c r="L186" t="n">
-        <v>164000</v>
-      </c>
+        <v>27.0278</v>
+      </c>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="inlineStr"/>
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr"/>
       <c r="P186" t="inlineStr"/>
       <c r="Q186" t="n">
-        <v>9.486191024165707</v>
+        <v>21.14936708860759</v>
       </c>
       <c r="R186" t="inlineStr"/>
       <c r="S186" t="inlineStr"/>
@@ -18082,144 +18328,18 @@
       </c>
       <c r="W186" t="inlineStr"/>
       <c r="X186" t="n">
-        <v>1.4459</v>
-      </c>
-      <c r="Y186" t="n">
-        <v>300.3636363636364</v>
-      </c>
-      <c r="Z186" t="n">
-        <v>0.5036585365853659</v>
-      </c>
+        <v>3.2365</v>
+      </c>
+      <c r="Y186" t="inlineStr"/>
+      <c r="Z186" t="inlineStr"/>
       <c r="AA186" t="inlineStr"/>
       <c r="AB186" t="inlineStr"/>
       <c r="AC186" t="inlineStr"/>
-      <c r="AD186" t="inlineStr"/>
+      <c r="AD186" t="n">
+        <v>26.63282981127525</v>
+      </c>
       <c r="AE186" t="inlineStr"/>
-      <c r="AF186" t="n">
-        <v>16.90212335658914</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boeing </t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>B707-100B/300</t>
-        </is>
-      </c>
-      <c r="C187" t="n">
-        <v>1959</v>
-      </c>
-      <c r="D187" t="inlineStr"/>
-      <c r="E187" t="inlineStr"/>
-      <c r="F187" t="n">
-        <v>28.1765</v>
-      </c>
-      <c r="G187" t="n">
-        <v>15.8095</v>
-      </c>
-      <c r="H187" t="inlineStr"/>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="inlineStr"/>
-      <c r="N187" t="inlineStr"/>
-      <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr"/>
-      <c r="Q187" t="n">
-        <v>22.47123130034523</v>
-      </c>
-      <c r="R187" t="inlineStr"/>
-      <c r="S187" t="inlineStr"/>
-      <c r="T187" t="inlineStr"/>
-      <c r="U187" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="V187" t="inlineStr">
-        <is>
-          <t xml:space="preserve">No </t>
-        </is>
-      </c>
-      <c r="W187" t="inlineStr"/>
-      <c r="X187" t="n">
-        <v>3.0372</v>
-      </c>
-      <c r="Y187" t="inlineStr"/>
-      <c r="Z187" t="inlineStr"/>
-      <c r="AA187" t="inlineStr"/>
-      <c r="AB187" t="inlineStr"/>
-      <c r="AC187" t="inlineStr"/>
-      <c r="AD187" t="inlineStr"/>
-      <c r="AE187" t="inlineStr"/>
-      <c r="AF187" t="n">
-        <v>27.73567457211094</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>Boeing</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>B720-000</t>
-        </is>
-      </c>
-      <c r="C188" t="n">
-        <v>1961</v>
-      </c>
-      <c r="D188" t="inlineStr"/>
-      <c r="E188" t="inlineStr"/>
-      <c r="F188" t="n">
-        <v>27.0278</v>
-      </c>
-      <c r="G188" t="inlineStr"/>
-      <c r="H188" t="inlineStr"/>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="inlineStr"/>
-      <c r="N188" t="inlineStr"/>
-      <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr"/>
-      <c r="Q188" t="n">
-        <v>21.14936708860759</v>
-      </c>
-      <c r="R188" t="inlineStr"/>
-      <c r="S188" t="inlineStr"/>
-      <c r="T188" t="inlineStr"/>
-      <c r="U188" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="V188" t="inlineStr">
-        <is>
-          <t xml:space="preserve">No </t>
-        </is>
-      </c>
-      <c r="W188" t="inlineStr"/>
-      <c r="X188" t="n">
-        <v>3.2365</v>
-      </c>
-      <c r="Y188" t="inlineStr"/>
-      <c r="Z188" t="inlineStr"/>
-      <c r="AA188" t="inlineStr"/>
-      <c r="AB188" t="inlineStr"/>
-      <c r="AC188" t="inlineStr"/>
-      <c r="AD188" t="inlineStr"/>
-      <c r="AE188" t="inlineStr"/>
-      <c r="AF188" t="n">
-        <v>26.63282981127525</v>
-      </c>
+      <c r="AF186" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
